--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_10_25.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_10_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>722081.5905625534</v>
+        <v>721279.12088364</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2446575.102302719</v>
+        <v>2446575.10230272</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736545</v>
+        <v>504792.0292736563</v>
       </c>
     </row>
     <row r="9">
@@ -662,22 +662,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>10.5193474360557</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>10.5193474360557</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="G2" t="n">
         <v>11.94294668035388</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="I2" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -789,10 +789,10 @@
         <v>11.94294668035388</v>
       </c>
       <c r="T3" t="n">
+        <v>11.94294668035388</v>
+      </c>
+      <c r="U3" t="n">
         <v>10.5193474360557</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>10.5193474360557</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>10.5193474360557</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>11.94294668035388</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -914,55 +914,55 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>11.94294668035388</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,55 +993,55 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
         <v>11.94294668035388</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
+      <c r="W6" t="n">
         <v>11.94294668035388</v>
       </c>
-      <c r="S6" t="n">
+      <c r="X6" t="n">
         <v>11.94294668035388</v>
       </c>
-      <c r="T6" t="n">
+      <c r="Y6" t="n">
         <v>10.5193474360557</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1063,16 +1063,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
         <v>11.94294668035388</v>
       </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>10.5193474360557</v>
       </c>
       <c r="J7" t="n">
         <v>11.94294668035388</v>
@@ -1096,25 +1096,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
         <v>11.94294668035388</v>
-      </c>
-      <c r="R7" t="n">
-        <v>10.5193474360557</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1142,13 +1142,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>107.607508220824</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="G8" t="n">
-        <v>11.94294668035388</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="H8" t="n">
-        <v>135.7293992974318</v>
+        <v>29.81855126207272</v>
       </c>
       <c r="I8" t="n">
         <v>135.7293992974318</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1209,19 +1209,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="D9" t="n">
-        <v>31.28269957069985</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>127.4412149769483</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>28.90016034289241</v>
       </c>
     </row>
     <row r="10">
@@ -1294,25 +1294,25 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>21.94182076836087</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>135.7293992974318</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>119.5504549011778</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1351,10 +1351,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>299.7027551388505</v>
+        <v>299.7027551388506</v>
       </c>
       <c r="C11" t="n">
-        <v>287.7140720965323</v>
+        <v>171.694941588847</v>
       </c>
       <c r="D11" t="n">
-        <v>278.6953761410603</v>
+        <v>278.6953761410604</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>300.4375137109658</v>
       </c>
       <c r="F11" t="n">
-        <v>98.29258177407573</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>321.1153330177604</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>234.7169882849104</v>
+        <v>234.7169882849105</v>
       </c>
       <c r="I11" t="n">
-        <v>64.21655629737852</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>85.22004276824634</v>
+        <v>85.2200427682464</v>
       </c>
       <c r="T11" t="n">
-        <v>129.8446566917165</v>
+        <v>129.8446566917166</v>
       </c>
       <c r="U11" t="n">
-        <v>161.9019527648691</v>
+        <v>161.9019527648692</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>287.8094900897332</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>299.206087885932</v>
       </c>
     </row>
     <row r="12">
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>44.99275405472341</v>
+        <v>44.99275405472342</v>
       </c>
       <c r="S12" t="n">
         <v>147.0252218713415</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>91.31946601354764</v>
+        <v>91.3194660135477</v>
       </c>
       <c r="C13" t="n">
-        <v>77.51946085894812</v>
+        <v>77.51946085894818</v>
       </c>
       <c r="D13" t="n">
-        <v>61.14082525652651</v>
+        <v>61.14082525652657</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>60.08857511230602</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>60.55549944049233</v>
       </c>
       <c r="G13" t="n">
-        <v>76.63854593612973</v>
+        <v>76.63854593612977</v>
       </c>
       <c r="H13" t="n">
-        <v>65.67457170503275</v>
+        <v>65.6745717050328</v>
       </c>
       <c r="I13" t="n">
-        <v>46.59703956345124</v>
+        <v>46.5970395634513</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>49.00865374810847</v>
+        <v>49.00865374810854</v>
       </c>
       <c r="S13" t="n">
-        <v>117.8322706710263</v>
+        <v>117.8322706710264</v>
       </c>
       <c r="T13" t="n">
-        <v>139.6279198859088</v>
+        <v>139.6279198859089</v>
       </c>
       <c r="U13" t="n">
-        <v>101.5830444745479</v>
+        <v>193.907534155855</v>
       </c>
       <c r="V13" t="n">
-        <v>167.7276024131732</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>192.8944884837865</v>
+        <v>18.23906842719563</v>
       </c>
       <c r="X13" t="n">
-        <v>138.5395904795896</v>
+        <v>138.5395904795897</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>129.4144582356573</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>299.7027551388505</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>287.7140720965323</v>
+        <v>45.73773337095501</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>278.6953761410604</v>
       </c>
       <c r="E14" t="n">
-        <v>300.4375137109658</v>
+        <v>300.4375137109659</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>319.6093297989431</v>
       </c>
       <c r="G14" t="n">
-        <v>321.1153330177603</v>
+        <v>321.1153330177605</v>
       </c>
       <c r="H14" t="n">
         <v>234.7169882849105</v>
       </c>
       <c r="I14" t="n">
-        <v>64.21655629737853</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>85.22004276824634</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>129.8446566917165</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>161.9019527648692</v>
       </c>
       <c r="V14" t="n">
-        <v>243.2091323790297</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>252.3558986507967</v>
+        <v>268.5092318569867</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>287.8094900897333</v>
       </c>
       <c r="Y14" t="n">
         <v>299.206087885932</v>
@@ -1765,25 +1765,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>77.51946085894812</v>
+        <v>77.51946085894822</v>
       </c>
       <c r="D16" t="n">
-        <v>61.14082525652651</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>60.08857511230596</v>
+        <v>60.08857511230606</v>
       </c>
       <c r="F16" t="n">
-        <v>60.55549944049227</v>
+        <v>60.55549944049237</v>
       </c>
       <c r="G16" t="n">
-        <v>76.63854593612973</v>
+        <v>76.63854593612983</v>
       </c>
       <c r="H16" t="n">
-        <v>65.67457170503275</v>
+        <v>65.67457170503285</v>
       </c>
       <c r="I16" t="n">
-        <v>46.59703956345123</v>
+        <v>46.59703956345133</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>49.00865374810849</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>117.8322706710263</v>
+        <v>117.8322706710264</v>
       </c>
       <c r="T16" t="n">
-        <v>139.6279198859088</v>
+        <v>139.6279198859089</v>
       </c>
       <c r="U16" t="n">
-        <v>72.2584359352975</v>
+        <v>52.99345670427304</v>
       </c>
       <c r="V16" t="n">
-        <v>167.7276024131732</v>
+        <v>167.7276024131733</v>
       </c>
       <c r="W16" t="n">
-        <v>192.8944884837865</v>
+        <v>192.8944884837866</v>
       </c>
       <c r="X16" t="n">
-        <v>138.5395904795896</v>
+        <v>138.5395904795897</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>129.4144582356574</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>21.00348647086778</v>
+        <v>21.00348647086781</v>
       </c>
       <c r="T17" t="n">
         <v>65.62810039433796</v>
@@ -1901,7 +1901,7 @@
         <v>97.68539646749053</v>
       </c>
       <c r="V17" t="n">
-        <v>178.9925760816511</v>
+        <v>78.07143854153344</v>
       </c>
       <c r="W17" t="n">
         <v>204.292675559608</v>
@@ -1910,7 +1910,7 @@
         <v>223.5929337923546</v>
       </c>
       <c r="Y17" t="n">
-        <v>134.0683940484371</v>
+        <v>234.9895315885534</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>96.73061888306823</v>
       </c>
       <c r="I18" t="n">
-        <v>59.82757191812458</v>
+        <v>59.8275719181246</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>44.99275405472341</v>
+        <v>44.99275405472345</v>
       </c>
       <c r="S18" t="n">
         <v>147.0252218713415</v>
@@ -2017,7 +2017,7 @@
         <v>12.42198963875116</v>
       </c>
       <c r="H19" t="n">
-        <v>1.45801540765419</v>
+        <v>1.458015407654194</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>21.00348647086778</v>
+        <v>21.00348647086781</v>
       </c>
       <c r="T20" t="n">
         <v>65.62810039433796</v>
@@ -2138,13 +2138,13 @@
         <v>97.68539646749053</v>
       </c>
       <c r="V20" t="n">
-        <v>78.07143854153389</v>
+        <v>178.9925760816511</v>
       </c>
       <c r="W20" t="n">
         <v>204.292675559608</v>
       </c>
       <c r="X20" t="n">
-        <v>223.5929337923546</v>
+        <v>122.6717962522367</v>
       </c>
       <c r="Y20" t="n">
         <v>234.9895315885534</v>
@@ -2178,7 +2178,7 @@
         <v>96.73061888306823</v>
       </c>
       <c r="I21" t="n">
-        <v>59.82757191812457</v>
+        <v>59.8275719181246</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>44.9927540547234</v>
+        <v>44.99275405472345</v>
       </c>
       <c r="S21" t="n">
         <v>147.0252218713415</v>
@@ -2254,7 +2254,7 @@
         <v>12.42198963875116</v>
       </c>
       <c r="H22" t="n">
-        <v>1.458015407654188</v>
+        <v>1.458015407654194</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>53.61571437364777</v>
+        <v>53.61571437364778</v>
       </c>
       <c r="T22" t="n">
         <v>75.41136358853028</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>235.486198841472</v>
+        <v>235.4861988414719</v>
       </c>
       <c r="C23" t="n">
         <v>223.4975157991537</v>
@@ -2324,16 +2324,16 @@
         <v>214.4788198436817</v>
       </c>
       <c r="E23" t="n">
-        <v>236.2209574135873</v>
+        <v>236.2209574135872</v>
       </c>
       <c r="F23" t="n">
         <v>255.3927735015644</v>
       </c>
       <c r="G23" t="n">
-        <v>256.8117685704785</v>
+        <v>256.8117685704784</v>
       </c>
       <c r="H23" t="n">
-        <v>169.6093597723346</v>
+        <v>169.6093597723345</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>19.02078825494602</v>
+        <v>19.02078825494596</v>
       </c>
       <c r="T23" t="n">
-        <v>65.2472222181362</v>
+        <v>65.24722221813614</v>
       </c>
       <c r="U23" t="n">
-        <v>97.67843581549829</v>
+        <v>97.67843581549823</v>
       </c>
       <c r="V23" t="n">
         <v>178.9925760816511</v>
@@ -2384,7 +2384,7 @@
         <v>223.5929337923546</v>
       </c>
       <c r="Y23" t="n">
-        <v>234.9895315885534</v>
+        <v>234.9895315885533</v>
       </c>
     </row>
     <row r="24">
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>27.10290971616908</v>
+        <v>27.10290971616902</v>
       </c>
       <c r="C25" t="n">
-        <v>13.30290456156956</v>
+        <v>13.30290456156951</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,13 +2488,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>12.38296077806707</v>
+        <v>12.38296077806702</v>
       </c>
       <c r="H25" t="n">
-        <v>1.111013355390199</v>
+        <v>1.111013355390142</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>32.48456333742538</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2518,31 +2518,31 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>18.83523765303432</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>52.93554777427142</v>
+        <v>52.93554777427136</v>
       </c>
       <c r="T25" t="n">
-        <v>75.2446039110619</v>
+        <v>75.24460391106184</v>
       </c>
       <c r="U25" t="n">
         <v>129.6888490115299</v>
       </c>
       <c r="V25" t="n">
-        <v>117.1603718001851</v>
+        <v>103.5110461157946</v>
       </c>
       <c r="W25" t="n">
         <v>128.6779321864079</v>
       </c>
       <c r="X25" t="n">
-        <v>74.32303418221105</v>
+        <v>74.32303418221099</v>
       </c>
       <c r="Y25" t="n">
-        <v>65.19790193827873</v>
+        <v>65.19790193827868</v>
       </c>
     </row>
     <row r="26">
@@ -2561,10 +2561,10 @@
         <v>266.0994260854748</v>
       </c>
       <c r="E26" t="n">
-        <v>287.8415636553803</v>
+        <v>287.8415636553802</v>
       </c>
       <c r="F26" t="n">
-        <v>307.0133797433575</v>
+        <v>307.0133797433574</v>
       </c>
       <c r="G26" t="n">
         <v>308.4323748122715</v>
@@ -2573,7 +2573,7 @@
         <v>221.2299660141276</v>
       </c>
       <c r="I26" t="n">
-        <v>48.26622454264547</v>
+        <v>48.26622454264546</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.64139449673903</v>
+        <v>70.64139449673901</v>
       </c>
       <c r="T26" t="n">
         <v>116.8678284599292</v>
@@ -2612,13 +2612,13 @@
         <v>149.2990420572913</v>
       </c>
       <c r="V26" t="n">
-        <v>230.6131823234442</v>
+        <v>230.6131823234441</v>
       </c>
       <c r="W26" t="n">
-        <v>255.9132818014011</v>
+        <v>255.913281801401</v>
       </c>
       <c r="X26" t="n">
-        <v>275.2135400341477</v>
+        <v>275.2135400341476</v>
       </c>
       <c r="Y26" t="n">
         <v>286.6101378303464</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>78.72351595796211</v>
+        <v>78.72351595796209</v>
       </c>
       <c r="C28" t="n">
-        <v>64.92351080336259</v>
+        <v>64.92351080336257</v>
       </c>
       <c r="D28" t="n">
-        <v>48.54487520094098</v>
+        <v>48.54487520094096</v>
       </c>
       <c r="E28" t="n">
-        <v>47.49262505672043</v>
+        <v>47.49262505672041</v>
       </c>
       <c r="F28" t="n">
-        <v>47.95954938490674</v>
+        <v>47.95954938490672</v>
       </c>
       <c r="G28" t="n">
-        <v>64.00356701986011</v>
+        <v>64.0035670198601</v>
       </c>
       <c r="H28" t="n">
-        <v>52.73161959718323</v>
+        <v>52.73161959718321</v>
       </c>
       <c r="I28" t="n">
-        <v>32.82738522474783</v>
+        <v>32.82738522474781</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.65782419303653</v>
+        <v>34.65782419303652</v>
       </c>
       <c r="S28" t="n">
         <v>104.5561540160644</v>
@@ -2773,13 +2773,13 @@
         <v>155.1316523575877</v>
       </c>
       <c r="W28" t="n">
-        <v>180.298538428201</v>
+        <v>180.2985384282009</v>
       </c>
       <c r="X28" t="n">
         <v>125.9436404240041</v>
       </c>
       <c r="Y28" t="n">
-        <v>116.8185081800718</v>
+        <v>116.8185081800717</v>
       </c>
     </row>
     <row r="29">
@@ -2798,10 +2798,10 @@
         <v>266.0994260854748</v>
       </c>
       <c r="E29" t="n">
-        <v>287.8415636553803</v>
+        <v>287.8415636553802</v>
       </c>
       <c r="F29" t="n">
-        <v>307.0133797433575</v>
+        <v>307.0133797433574</v>
       </c>
       <c r="G29" t="n">
         <v>308.4323748122715</v>
@@ -2810,7 +2810,7 @@
         <v>221.2299660141276</v>
       </c>
       <c r="I29" t="n">
-        <v>48.26622454264547</v>
+        <v>48.26622454264546</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.64139449673904</v>
+        <v>70.64139449673903</v>
       </c>
       <c r="T29" t="n">
         <v>116.8678284599292</v>
@@ -2849,13 +2849,13 @@
         <v>149.2990420572913</v>
       </c>
       <c r="V29" t="n">
-        <v>230.6131823234442</v>
+        <v>230.6131823234441</v>
       </c>
       <c r="W29" t="n">
-        <v>255.9132818014011</v>
+        <v>255.913281801401</v>
       </c>
       <c r="X29" t="n">
-        <v>275.2135400341477</v>
+        <v>275.2135400341476</v>
       </c>
       <c r="Y29" t="n">
         <v>286.6101378303464</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>78.72351595796211</v>
+        <v>78.72351595796209</v>
       </c>
       <c r="C31" t="n">
-        <v>64.92351080336259</v>
+        <v>64.92351080336257</v>
       </c>
       <c r="D31" t="n">
-        <v>48.54487520094098</v>
+        <v>48.54487520094096</v>
       </c>
       <c r="E31" t="n">
-        <v>47.49262505672043</v>
+        <v>47.49262505672041</v>
       </c>
       <c r="F31" t="n">
-        <v>47.95954938490674</v>
+        <v>47.95954938490672</v>
       </c>
       <c r="G31" t="n">
-        <v>64.00356701986011</v>
+        <v>64.0035670198601</v>
       </c>
       <c r="H31" t="n">
-        <v>52.73161959718323</v>
+        <v>52.73161959718321</v>
       </c>
       <c r="I31" t="n">
-        <v>32.82738522474784</v>
+        <v>32.82738522474782</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.65782419303655</v>
+        <v>34.65782419303653</v>
       </c>
       <c r="S31" t="n">
-        <v>104.5561540160645</v>
+        <v>104.5561540160644</v>
       </c>
       <c r="T31" t="n">
         <v>126.8652101528549</v>
@@ -3010,13 +3010,13 @@
         <v>155.1316523575877</v>
       </c>
       <c r="W31" t="n">
-        <v>180.298538428201</v>
+        <v>180.2985384282009</v>
       </c>
       <c r="X31" t="n">
         <v>125.9436404240041</v>
       </c>
       <c r="Y31" t="n">
-        <v>116.8185081800718</v>
+        <v>116.8185081800717</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>255.0807740621748</v>
+        <v>255.0807740621747</v>
       </c>
       <c r="C32" t="n">
         <v>243.0920910198565</v>
       </c>
       <c r="D32" t="n">
-        <v>234.0733950643845</v>
+        <v>234.0733950643844</v>
       </c>
       <c r="E32" t="n">
         <v>255.81553263429</v>
       </c>
       <c r="F32" t="n">
-        <v>274.9873487222672</v>
+        <v>274.9873487222671</v>
       </c>
       <c r="G32" t="n">
-        <v>276.4063437911813</v>
+        <v>276.4063437911812</v>
       </c>
       <c r="H32" t="n">
-        <v>189.2039349930374</v>
+        <v>189.2039349930373</v>
       </c>
       <c r="I32" t="n">
-        <v>16.24019352155523</v>
+        <v>16.24019352155517</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,16 +3077,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>38.61536347564879</v>
+        <v>38.61536347564873</v>
       </c>
       <c r="T32" t="n">
-        <v>84.84179743883897</v>
+        <v>84.84179743883891</v>
       </c>
       <c r="U32" t="n">
-        <v>117.2730110362011</v>
+        <v>117.273011036201</v>
       </c>
       <c r="V32" t="n">
-        <v>198.5871513023539</v>
+        <v>198.5871513023538</v>
       </c>
       <c r="W32" t="n">
         <v>223.8872507803108</v>
@@ -3095,7 +3095,7 @@
         <v>243.1875090130574</v>
       </c>
       <c r="Y32" t="n">
-        <v>254.5841068092562</v>
+        <v>254.5841068092561</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.69748493687186</v>
+        <v>46.6974849368718</v>
       </c>
       <c r="C34" t="n">
-        <v>32.89747978227234</v>
+        <v>32.89747978227228</v>
       </c>
       <c r="D34" t="n">
-        <v>16.51884417985073</v>
+        <v>16.51884417985067</v>
       </c>
       <c r="E34" t="n">
-        <v>15.46659403563018</v>
+        <v>15.46659403563012</v>
       </c>
       <c r="F34" t="n">
-        <v>15.93351836381649</v>
+        <v>15.93351836381643</v>
       </c>
       <c r="G34" t="n">
-        <v>31.97753599876985</v>
+        <v>31.9775359987698</v>
       </c>
       <c r="H34" t="n">
-        <v>20.70558857609298</v>
+        <v>20.70558857609292</v>
       </c>
       <c r="I34" t="n">
-        <v>0.8013542036575858</v>
+        <v>0.801354203657529</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>2.631793171946297</v>
+        <v>2.63179317194624</v>
       </c>
       <c r="S34" t="n">
-        <v>72.53012299497421</v>
+        <v>72.53012299497415</v>
       </c>
       <c r="T34" t="n">
-        <v>94.83917913176468</v>
+        <v>94.83917913176462</v>
       </c>
       <c r="U34" t="n">
-        <v>149.2834242322327</v>
+        <v>149.2834242322326</v>
       </c>
       <c r="V34" t="n">
         <v>123.1056213364974</v>
@@ -3250,10 +3250,10 @@
         <v>148.2725074071107</v>
       </c>
       <c r="X34" t="n">
-        <v>93.91760940291383</v>
+        <v>93.91760940291377</v>
       </c>
       <c r="Y34" t="n">
-        <v>84.79247715898151</v>
+        <v>84.79247715898146</v>
       </c>
     </row>
     <row r="35">
@@ -3266,16 +3266,16 @@
         <v>235.4861988414719</v>
       </c>
       <c r="C35" t="n">
-        <v>223.4975157991537</v>
+        <v>223.4975157991536</v>
       </c>
       <c r="D35" t="n">
-        <v>214.4788198436817</v>
+        <v>214.4788198436816</v>
       </c>
       <c r="E35" t="n">
-        <v>236.2209574135872</v>
+        <v>236.2209574135871</v>
       </c>
       <c r="F35" t="n">
-        <v>255.3927735015644</v>
+        <v>255.3927735015643</v>
       </c>
       <c r="G35" t="n">
         <v>256.8117685704784</v>
@@ -3314,22 +3314,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>19.02078825494596</v>
+        <v>19.0207882549459</v>
       </c>
       <c r="T35" t="n">
-        <v>65.24722221813614</v>
+        <v>65.24722221813607</v>
       </c>
       <c r="U35" t="n">
-        <v>97.67843581549823</v>
+        <v>97.67843581549818</v>
       </c>
       <c r="V35" t="n">
-        <v>178.9925760816511</v>
+        <v>178.992576081651</v>
       </c>
       <c r="W35" t="n">
-        <v>204.292675559608</v>
+        <v>204.2926755596079</v>
       </c>
       <c r="X35" t="n">
-        <v>223.5929337923546</v>
+        <v>223.5929337923545</v>
       </c>
       <c r="Y35" t="n">
         <v>234.9895315885533</v>
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>27.10290971616902</v>
+        <v>27.10290971616897</v>
       </c>
       <c r="C37" t="n">
-        <v>13.30290456156951</v>
+        <v>13.30290456156945</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3436,13 +3436,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>12.38296077806702</v>
+        <v>12.38296077806696</v>
       </c>
       <c r="H37" t="n">
-        <v>1.111013355390142</v>
+        <v>33.59557669281602</v>
       </c>
       <c r="I37" t="n">
-        <v>32.48456333742538</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>52.93554777427136</v>
+        <v>52.93554777427131</v>
       </c>
       <c r="T37" t="n">
-        <v>75.24460391106184</v>
+        <v>75.24460391106179</v>
       </c>
       <c r="U37" t="n">
-        <v>129.6888490115299</v>
+        <v>129.6888490115298</v>
       </c>
       <c r="V37" t="n">
         <v>103.5110461157946</v>
       </c>
       <c r="W37" t="n">
-        <v>128.6779321864079</v>
+        <v>128.6779321864078</v>
       </c>
       <c r="X37" t="n">
-        <v>74.32303418221099</v>
+        <v>74.32303418221093</v>
       </c>
       <c r="Y37" t="n">
-        <v>65.19790193827868</v>
+        <v>65.19790193827862</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>235.4861988414719</v>
+        <v>235.486198841472</v>
       </c>
       <c r="C38" t="n">
-        <v>223.4975157991537</v>
+        <v>223.4975157991538</v>
       </c>
       <c r="D38" t="n">
         <v>214.4788198436817</v>
       </c>
       <c r="E38" t="n">
-        <v>236.2209574135872</v>
+        <v>236.2209574135873</v>
       </c>
       <c r="F38" t="n">
         <v>255.3927735015644</v>
       </c>
       <c r="G38" t="n">
-        <v>256.8117685704784</v>
+        <v>256.8117685704785</v>
       </c>
       <c r="H38" t="n">
-        <v>169.6093597723345</v>
+        <v>169.6093597723346</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>19.02078825494596</v>
+        <v>19.02078825494604</v>
       </c>
       <c r="T38" t="n">
-        <v>65.24722221813614</v>
+        <v>65.24722221813622</v>
       </c>
       <c r="U38" t="n">
-        <v>97.67843581549823</v>
+        <v>97.67843581549832</v>
       </c>
       <c r="V38" t="n">
-        <v>178.9925760816511</v>
+        <v>178.9925760816512</v>
       </c>
       <c r="W38" t="n">
-        <v>204.292675559608</v>
+        <v>204.2926755596081</v>
       </c>
       <c r="X38" t="n">
-        <v>223.5929337923546</v>
+        <v>223.5929337923547</v>
       </c>
       <c r="Y38" t="n">
-        <v>234.9895315885533</v>
+        <v>234.9895315885534</v>
       </c>
     </row>
     <row r="39">
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>27.10290971616902</v>
+        <v>27.10290971616911</v>
       </c>
       <c r="C40" t="n">
-        <v>13.30290456156951</v>
+        <v>13.30290456156959</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3673,10 +3673,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>44.86752411549234</v>
+        <v>12.3829607780671</v>
       </c>
       <c r="H40" t="n">
-        <v>1.111013355390142</v>
+        <v>1.111013355390227</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3703,31 +3703,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>18.83523765303432</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>52.93554777427136</v>
+        <v>66.58487345866145</v>
       </c>
       <c r="T40" t="n">
-        <v>75.24460391106184</v>
+        <v>75.24460391106193</v>
       </c>
       <c r="U40" t="n">
-        <v>129.6888490115299</v>
+        <v>129.68884901153</v>
       </c>
       <c r="V40" t="n">
-        <v>103.5110461157946</v>
+        <v>103.5110461157947</v>
       </c>
       <c r="W40" t="n">
-        <v>128.6779321864079</v>
+        <v>128.677932186408</v>
       </c>
       <c r="X40" t="n">
-        <v>74.32303418221099</v>
+        <v>74.32303418221107</v>
       </c>
       <c r="Y40" t="n">
-        <v>65.19790193827868</v>
+        <v>65.19790193827876</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>235.4861988414718</v>
+        <v>235.4861988414719</v>
       </c>
       <c r="C41" t="n">
-        <v>223.4975157991535</v>
+        <v>223.4975157991537</v>
       </c>
       <c r="D41" t="n">
-        <v>214.4788198436815</v>
+        <v>214.4788198436817</v>
       </c>
       <c r="E41" t="n">
-        <v>236.220957413587</v>
+        <v>236.2209574135872</v>
       </c>
       <c r="F41" t="n">
-        <v>255.3927735015642</v>
+        <v>255.3927735015644</v>
       </c>
       <c r="G41" t="n">
-        <v>256.8117685704783</v>
+        <v>256.8117685704784</v>
       </c>
       <c r="H41" t="n">
-        <v>169.6093597723344</v>
+        <v>169.6093597723345</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>19.02078825494579</v>
+        <v>19.02078825494596</v>
       </c>
       <c r="T41" t="n">
-        <v>65.24722221813597</v>
+        <v>65.24722221813614</v>
       </c>
       <c r="U41" t="n">
-        <v>97.67843581549806</v>
+        <v>97.67843581549823</v>
       </c>
       <c r="V41" t="n">
-        <v>178.9925760816509</v>
+        <v>178.9925760816511</v>
       </c>
       <c r="W41" t="n">
-        <v>204.2926755596078</v>
+        <v>204.292675559608</v>
       </c>
       <c r="X41" t="n">
-        <v>223.5929337923544</v>
+        <v>223.5929337923546</v>
       </c>
       <c r="Y41" t="n">
-        <v>234.9895315885532</v>
+        <v>234.9895315885533</v>
       </c>
     </row>
     <row r="42">
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>27.10290971616885</v>
+        <v>27.10290971616902</v>
       </c>
       <c r="C43" t="n">
-        <v>13.30290456156933</v>
+        <v>13.30290456156951</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3910,10 +3910,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>12.38296077806685</v>
+        <v>12.38296077806702</v>
       </c>
       <c r="H43" t="n">
-        <v>1.111013355389971</v>
+        <v>1.111013355390142</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>18.83523765303432</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>13.64932568439106</v>
       </c>
       <c r="S43" t="n">
-        <v>52.93554777427119</v>
+        <v>52.93554777427136</v>
       </c>
       <c r="T43" t="n">
-        <v>75.24460391106167</v>
+        <v>75.24460391106184</v>
       </c>
       <c r="U43" t="n">
-        <v>129.6888490115297</v>
+        <v>129.6888490115299</v>
       </c>
       <c r="V43" t="n">
-        <v>117.1603718001873</v>
+        <v>103.5110461157946</v>
       </c>
       <c r="W43" t="n">
-        <v>128.6779321864077</v>
+        <v>128.6779321864079</v>
       </c>
       <c r="X43" t="n">
-        <v>74.32303418221082</v>
+        <v>74.32303418221099</v>
       </c>
       <c r="Y43" t="n">
-        <v>65.19790193827851</v>
+        <v>65.19790193827868</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>235.4861988414718</v>
+        <v>235.4861988414719</v>
       </c>
       <c r="C44" t="n">
-        <v>223.4975157991535</v>
+        <v>223.4975157991537</v>
       </c>
       <c r="D44" t="n">
-        <v>214.4788198436815</v>
+        <v>214.4788198436817</v>
       </c>
       <c r="E44" t="n">
-        <v>236.220957413587</v>
+        <v>236.2209574135872</v>
       </c>
       <c r="F44" t="n">
-        <v>255.3927735015642</v>
+        <v>255.3927735015644</v>
       </c>
       <c r="G44" t="n">
-        <v>256.8117685704783</v>
+        <v>256.8117685704784</v>
       </c>
       <c r="H44" t="n">
-        <v>169.6093597723344</v>
+        <v>169.6093597723345</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>19.02078825494579</v>
+        <v>19.02078825494596</v>
       </c>
       <c r="T44" t="n">
-        <v>65.24722221813597</v>
+        <v>65.24722221813613</v>
       </c>
       <c r="U44" t="n">
-        <v>97.67843581549806</v>
+        <v>97.67843581549823</v>
       </c>
       <c r="V44" t="n">
-        <v>178.9925760816523</v>
+        <v>178.9925760816511</v>
       </c>
       <c r="W44" t="n">
-        <v>204.2926755596078</v>
+        <v>204.292675559608</v>
       </c>
       <c r="X44" t="n">
-        <v>223.5929337923544</v>
+        <v>223.5929337923546</v>
       </c>
       <c r="Y44" t="n">
-        <v>234.9895315885532</v>
+        <v>234.9895315885533</v>
       </c>
     </row>
     <row r="45">
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>27.10290971616885</v>
+        <v>27.10290971616902</v>
       </c>
       <c r="C46" t="n">
-        <v>13.30290456156933</v>
+        <v>13.30290456156951</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,10 +4147,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>12.38296077806685</v>
+        <v>44.86752411549238</v>
       </c>
       <c r="H46" t="n">
-        <v>1.111013355389971</v>
+        <v>1.111013355390142</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>52.93554777427119</v>
+        <v>52.93554777427136</v>
       </c>
       <c r="T46" t="n">
-        <v>75.24460391106167</v>
+        <v>75.24460391106184</v>
       </c>
       <c r="U46" t="n">
-        <v>129.6888490115297</v>
+        <v>129.6888490115299</v>
       </c>
       <c r="V46" t="n">
-        <v>103.5110461157944</v>
+        <v>103.5110461157946</v>
       </c>
       <c r="W46" t="n">
-        <v>161.1624955238349</v>
+        <v>128.6779321864079</v>
       </c>
       <c r="X46" t="n">
-        <v>74.32303418221082</v>
+        <v>74.32303418221099</v>
       </c>
       <c r="Y46" t="n">
-        <v>65.19790193827851</v>
+        <v>65.19790193827868</v>
       </c>
     </row>
   </sheetData>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>35.70820421600757</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="C2" t="n">
-        <v>35.70820421600757</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="D2" t="n">
-        <v>35.70820421600757</v>
+        <v>37.14618325065221</v>
       </c>
       <c r="E2" t="n">
-        <v>35.70820421600757</v>
+        <v>37.14618325065221</v>
       </c>
       <c r="F2" t="n">
         <v>25.08260074524424</v>
@@ -4322,7 +4322,7 @@
         <v>13.01901823983628</v>
       </c>
       <c r="H2" t="n">
-        <v>13.01901823983628</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="I2" t="n">
         <v>0.9554357344283108</v>
@@ -4337,43 +4337,43 @@
         <v>24.60247016152901</v>
       </c>
       <c r="M2" t="n">
-        <v>35.94826950786519</v>
+        <v>36.42598737507935</v>
       </c>
       <c r="N2" t="n">
-        <v>35.94826950786519</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="O2" t="n">
-        <v>35.94826950786519</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="P2" t="n">
-        <v>35.94826950786519</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="Q2" t="n">
         <v>47.77178672141554</v>
       </c>
       <c r="R2" t="n">
-        <v>35.70820421600757</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="S2" t="n">
-        <v>35.70820421600757</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="T2" t="n">
-        <v>35.70820421600757</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="U2" t="n">
-        <v>35.70820421600757</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="V2" t="n">
-        <v>35.70820421600757</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="W2" t="n">
-        <v>35.70820421600757</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="X2" t="n">
-        <v>35.70820421600757</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="Y2" t="n">
-        <v>35.70820421600757</v>
+        <v>47.77178672141554</v>
       </c>
     </row>
     <row r="3">
@@ -4383,43 +4383,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13.01901823983628</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="C3" t="n">
-        <v>13.01901823983628</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="D3" t="n">
-        <v>13.01901823983628</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="E3" t="n">
-        <v>13.01901823983628</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="F3" t="n">
-        <v>13.01901823983628</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="G3" t="n">
-        <v>13.01901823983628</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="H3" t="n">
-        <v>13.01901823983628</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="I3" t="n">
         <v>0.9554357344283108</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9554357344283108</v>
+        <v>12.77895294797866</v>
       </c>
       <c r="K3" t="n">
-        <v>12.3012350807645</v>
+        <v>12.77895294797866</v>
       </c>
       <c r="L3" t="n">
+        <v>12.77895294797866</v>
+      </c>
+      <c r="M3" t="n">
+        <v>12.77895294797866</v>
+      </c>
+      <c r="N3" t="n">
         <v>24.12475229431485</v>
-      </c>
-      <c r="M3" t="n">
-        <v>24.12475229431485</v>
-      </c>
-      <c r="N3" t="n">
-        <v>35.94826950786519</v>
       </c>
       <c r="O3" t="n">
         <v>35.94826950786519</v>
@@ -4437,22 +4437,22 @@
         <v>23.64462171059961</v>
       </c>
       <c r="T3" t="n">
-        <v>13.01901823983628</v>
+        <v>11.58103920519164</v>
       </c>
       <c r="U3" t="n">
-        <v>13.01901823983628</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="V3" t="n">
-        <v>13.01901823983628</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="W3" t="n">
-        <v>13.01901823983628</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="X3" t="n">
-        <v>13.01901823983628</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="Y3" t="n">
-        <v>13.01901823983628</v>
+        <v>0.9554357344283108</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>35.70820421600757</v>
+        <v>11.58103920519164</v>
       </c>
       <c r="C4" t="n">
-        <v>35.70820421600757</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="D4" t="n">
-        <v>35.70820421600757</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="E4" t="n">
-        <v>25.08260074524424</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="F4" t="n">
-        <v>25.08260074524424</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="G4" t="n">
-        <v>25.08260074524424</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="H4" t="n">
-        <v>25.08260074524424</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="I4" t="n">
-        <v>13.01901823983628</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="J4" t="n">
         <v>0.9554357344283108</v>
@@ -4492,16 +4492,16 @@
         <v>0.9554357344283108</v>
       </c>
       <c r="L4" t="n">
-        <v>12.77895294797866</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="M4" t="n">
-        <v>24.60247016152901</v>
+        <v>12.3012350807645</v>
       </c>
       <c r="N4" t="n">
-        <v>24.60247016152901</v>
+        <v>24.12475229431485</v>
       </c>
       <c r="O4" t="n">
-        <v>36.42598737507935</v>
+        <v>35.94826950786519</v>
       </c>
       <c r="P4" t="n">
         <v>47.77178672141554</v>
@@ -4510,28 +4510,28 @@
         <v>35.70820421600757</v>
       </c>
       <c r="R4" t="n">
-        <v>35.70820421600757</v>
+        <v>23.64462171059961</v>
       </c>
       <c r="S4" t="n">
-        <v>35.70820421600757</v>
+        <v>23.64462171059961</v>
       </c>
       <c r="T4" t="n">
-        <v>35.70820421600757</v>
+        <v>23.64462171059961</v>
       </c>
       <c r="U4" t="n">
-        <v>35.70820421600757</v>
+        <v>23.64462171059961</v>
       </c>
       <c r="V4" t="n">
-        <v>35.70820421600757</v>
+        <v>23.64462171059961</v>
       </c>
       <c r="W4" t="n">
-        <v>35.70820421600757</v>
+        <v>23.64462171059961</v>
       </c>
       <c r="X4" t="n">
-        <v>35.70820421600757</v>
+        <v>23.64462171059961</v>
       </c>
       <c r="Y4" t="n">
-        <v>35.70820421600757</v>
+        <v>23.64462171059961</v>
       </c>
     </row>
     <row r="5">
@@ -4541,46 +4541,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>37.14618325065221</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="C5" t="n">
-        <v>37.14618325065221</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="D5" t="n">
-        <v>37.14618325065221</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="E5" t="n">
-        <v>37.14618325065221</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="F5" t="n">
-        <v>25.08260074524424</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="G5" t="n">
-        <v>13.01901823983628</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="H5" t="n">
-        <v>13.01901823983628</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="I5" t="n">
         <v>0.9554357344283108</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9554357344283108</v>
+        <v>12.77895294797866</v>
       </c>
       <c r="K5" t="n">
-        <v>0.9554357344283108</v>
+        <v>12.77895294797866</v>
       </c>
       <c r="L5" t="n">
-        <v>0.9554357344283108</v>
+        <v>12.77895294797866</v>
       </c>
       <c r="M5" t="n">
-        <v>12.3012350807645</v>
+        <v>12.77895294797866</v>
       </c>
       <c r="N5" t="n">
-        <v>24.12475229431485</v>
+        <v>24.60247016152901</v>
       </c>
       <c r="O5" t="n">
-        <v>35.94826950786519</v>
+        <v>36.42598737507935</v>
       </c>
       <c r="P5" t="n">
         <v>47.77178672141554</v>
@@ -4610,7 +4610,7 @@
         <v>47.77178672141554</v>
       </c>
       <c r="Y5" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>13.01901823983628</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="C6" t="n">
-        <v>13.01901823983628</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="D6" t="n">
-        <v>13.01901823983628</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="E6" t="n">
-        <v>13.01901823983628</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="F6" t="n">
-        <v>13.01901823983628</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="G6" t="n">
-        <v>13.01901823983628</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="H6" t="n">
-        <v>13.01901823983628</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="I6" t="n">
         <v>0.9554357344283108</v>
@@ -4650,13 +4650,13 @@
         <v>24.60247016152901</v>
       </c>
       <c r="L6" t="n">
-        <v>36.42598737507935</v>
+        <v>35.94826950786519</v>
       </c>
       <c r="M6" t="n">
-        <v>36.42598737507935</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="N6" t="n">
-        <v>36.42598737507935</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="O6" t="n">
         <v>47.77178672141554</v>
@@ -4668,28 +4668,28 @@
         <v>47.77178672141554</v>
       </c>
       <c r="R6" t="n">
+        <v>47.77178672141554</v>
+      </c>
+      <c r="S6" t="n">
+        <v>47.77178672141554</v>
+      </c>
+      <c r="T6" t="n">
+        <v>47.77178672141554</v>
+      </c>
+      <c r="U6" t="n">
+        <v>47.77178672141554</v>
+      </c>
+      <c r="V6" t="n">
         <v>35.70820421600757</v>
       </c>
-      <c r="S6" t="n">
+      <c r="W6" t="n">
         <v>23.64462171059961</v>
       </c>
-      <c r="T6" t="n">
-        <v>13.01901823983628</v>
-      </c>
-      <c r="U6" t="n">
-        <v>13.01901823983628</v>
-      </c>
-      <c r="V6" t="n">
-        <v>13.01901823983628</v>
-      </c>
-      <c r="W6" t="n">
-        <v>13.01901823983628</v>
-      </c>
       <c r="X6" t="n">
-        <v>13.01901823983628</v>
+        <v>11.58103920519164</v>
       </c>
       <c r="Y6" t="n">
-        <v>13.01901823983628</v>
+        <v>0.9554357344283108</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>25.08260074524424</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="C7" t="n">
-        <v>25.08260074524424</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="D7" t="n">
-        <v>25.08260074524424</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="E7" t="n">
-        <v>25.08260074524424</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="F7" t="n">
-        <v>13.01901823983628</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="G7" t="n">
-        <v>13.01901823983628</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="H7" t="n">
-        <v>13.01901823983628</v>
+        <v>23.64462171059961</v>
       </c>
       <c r="I7" t="n">
         <v>13.01901823983628</v>
@@ -4729,46 +4729,46 @@
         <v>0.9554357344283108</v>
       </c>
       <c r="L7" t="n">
-        <v>12.3012350807645</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="M7" t="n">
-        <v>24.12475229431485</v>
+        <v>12.77895294797866</v>
       </c>
       <c r="N7" t="n">
-        <v>35.94826950786519</v>
+        <v>24.60247016152901</v>
       </c>
       <c r="O7" t="n">
-        <v>47.77178672141554</v>
+        <v>36.42598737507935</v>
       </c>
       <c r="P7" t="n">
         <v>47.77178672141554</v>
       </c>
       <c r="Q7" t="n">
+        <v>47.77178672141554</v>
+      </c>
+      <c r="R7" t="n">
+        <v>47.77178672141554</v>
+      </c>
+      <c r="S7" t="n">
+        <v>47.77178672141554</v>
+      </c>
+      <c r="T7" t="n">
+        <v>47.77178672141554</v>
+      </c>
+      <c r="U7" t="n">
+        <v>47.77178672141554</v>
+      </c>
+      <c r="V7" t="n">
+        <v>47.77178672141554</v>
+      </c>
+      <c r="W7" t="n">
         <v>35.70820421600757</v>
       </c>
-      <c r="R7" t="n">
-        <v>25.08260074524424</v>
-      </c>
-      <c r="S7" t="n">
-        <v>25.08260074524424</v>
-      </c>
-      <c r="T7" t="n">
-        <v>25.08260074524424</v>
-      </c>
-      <c r="U7" t="n">
-        <v>25.08260074524424</v>
-      </c>
-      <c r="V7" t="n">
-        <v>25.08260074524424</v>
-      </c>
-      <c r="W7" t="n">
-        <v>25.08260074524424</v>
-      </c>
       <c r="X7" t="n">
-        <v>25.08260074524424</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="Y7" t="n">
-        <v>25.08260074524424</v>
+        <v>35.70820421600757</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>405.8171938589879</v>
+        <v>452.2793106855804</v>
       </c>
       <c r="C8" t="n">
-        <v>405.8171938589879</v>
+        <v>452.2793106855804</v>
       </c>
       <c r="D8" t="n">
-        <v>405.8171938589879</v>
+        <v>452.2793106855804</v>
       </c>
       <c r="E8" t="n">
-        <v>405.8171938589879</v>
+        <v>452.2793106855804</v>
       </c>
       <c r="F8" t="n">
-        <v>297.1227411106808</v>
+        <v>315.1789073548413</v>
       </c>
       <c r="G8" t="n">
-        <v>285.0591586052728</v>
+        <v>178.0785040241021</v>
       </c>
       <c r="H8" t="n">
         <v>147.9587552745337</v>
@@ -4802,52 +4802,52 @@
         <v>10.85835194379454</v>
       </c>
       <c r="J8" t="n">
-        <v>10.85835194379454</v>
+        <v>82.85689621660021</v>
       </c>
       <c r="K8" t="n">
-        <v>10.85835194379454</v>
+        <v>217.2290015210577</v>
       </c>
       <c r="L8" t="n">
-        <v>10.85835194379454</v>
+        <v>351.6011068255151</v>
       </c>
       <c r="M8" t="n">
-        <v>45.36902758981768</v>
+        <v>351.6011068255151</v>
       </c>
       <c r="N8" t="n">
-        <v>179.7411328942751</v>
+        <v>408.5454918852696</v>
       </c>
       <c r="O8" t="n">
-        <v>314.1132381987326</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="P8" t="n">
-        <v>448.4853435031901</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="Q8" t="n">
         <v>542.9175971897271</v>
       </c>
       <c r="R8" t="n">
-        <v>542.9175971897271</v>
+        <v>452.2793106855804</v>
       </c>
       <c r="S8" t="n">
-        <v>405.8171938589879</v>
+        <v>452.2793106855804</v>
       </c>
       <c r="T8" t="n">
-        <v>405.8171938589879</v>
+        <v>452.2793106855804</v>
       </c>
       <c r="U8" t="n">
-        <v>405.8171938589879</v>
+        <v>452.2793106855804</v>
       </c>
       <c r="V8" t="n">
-        <v>405.8171938589879</v>
+        <v>452.2793106855804</v>
       </c>
       <c r="W8" t="n">
-        <v>405.8171938589879</v>
+        <v>452.2793106855804</v>
       </c>
       <c r="X8" t="n">
-        <v>405.8171938589879</v>
+        <v>452.2793106855804</v>
       </c>
       <c r="Y8" t="n">
-        <v>405.8171938589879</v>
+        <v>452.2793106855804</v>
       </c>
     </row>
     <row r="9">
@@ -4857,16 +4857,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>542.9175971897271</v>
+        <v>376.6251127045511</v>
       </c>
       <c r="C9" t="n">
-        <v>542.9175971897271</v>
+        <v>239.5247093738119</v>
       </c>
       <c r="D9" t="n">
-        <v>511.3189107546767</v>
+        <v>239.5247093738119</v>
       </c>
       <c r="E9" t="n">
-        <v>374.2185074239376</v>
+        <v>239.5247093738119</v>
       </c>
       <c r="F9" t="n">
         <v>239.5247093738119</v>
@@ -4884,16 +4884,16 @@
         <v>10.85835194379454</v>
       </c>
       <c r="K9" t="n">
-        <v>10.85835194379454</v>
+        <v>145.230457248252</v>
       </c>
       <c r="L9" t="n">
-        <v>145.230457248252</v>
+        <v>274.1733865808121</v>
       </c>
       <c r="M9" t="n">
-        <v>279.6025625527094</v>
+        <v>408.5454918852696</v>
       </c>
       <c r="N9" t="n">
-        <v>413.9746678571669</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="O9" t="n">
         <v>542.9175971897271</v>
@@ -4926,7 +4926,7 @@
         <v>542.9175971897271</v>
       </c>
       <c r="Y9" t="n">
-        <v>542.9175971897271</v>
+        <v>513.7255160352903</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>504.380255843416</v>
+        <v>268.7167905282487</v>
       </c>
       <c r="C10" t="n">
-        <v>504.380255843416</v>
+        <v>268.7167905282487</v>
       </c>
       <c r="D10" t="n">
-        <v>482.2168005218393</v>
+        <v>268.7167905282487</v>
       </c>
       <c r="E10" t="n">
-        <v>345.1163971911002</v>
+        <v>268.7167905282487</v>
       </c>
       <c r="F10" t="n">
-        <v>208.015993860361</v>
+        <v>268.7167905282487</v>
       </c>
       <c r="G10" t="n">
-        <v>70.91559052962182</v>
+        <v>131.6163871975095</v>
       </c>
       <c r="H10" t="n">
-        <v>70.91559052962182</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="I10" t="n">
-        <v>70.91559052962182</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="J10" t="n">
         <v>10.85835194379454</v>
@@ -4981,31 +4981,31 @@
         <v>542.917597189727</v>
       </c>
       <c r="Q10" t="n">
-        <v>504.380255843416</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R10" t="n">
-        <v>504.380255843416</v>
+        <v>542.917597189727</v>
       </c>
       <c r="S10" t="n">
-        <v>504.380255843416</v>
+        <v>542.917597189727</v>
       </c>
       <c r="T10" t="n">
-        <v>504.380255843416</v>
+        <v>542.917597189727</v>
       </c>
       <c r="U10" t="n">
-        <v>504.380255843416</v>
+        <v>542.917597189727</v>
       </c>
       <c r="V10" t="n">
-        <v>504.380255843416</v>
+        <v>542.917597189727</v>
       </c>
       <c r="W10" t="n">
-        <v>504.380255843416</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="X10" t="n">
-        <v>504.380255843416</v>
+        <v>268.7167905282487</v>
       </c>
       <c r="Y10" t="n">
-        <v>504.380255843416</v>
+        <v>268.7167905282487</v>
       </c>
     </row>
     <row r="11">
@@ -5015,43 +5015,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1349.629633269352</v>
+        <v>1047.401261667399</v>
       </c>
       <c r="C11" t="n">
-        <v>1059.00935842437</v>
+        <v>873.9720277392707</v>
       </c>
       <c r="D11" t="n">
-        <v>777.4988774738043</v>
+        <v>592.4615467887047</v>
       </c>
       <c r="E11" t="n">
-        <v>777.4988774738043</v>
+        <v>288.9893107170219</v>
       </c>
       <c r="F11" t="n">
-        <v>678.2134413383743</v>
+        <v>288.9893107170219</v>
       </c>
       <c r="G11" t="n">
-        <v>353.8545190982123</v>
+        <v>288.9893107170219</v>
       </c>
       <c r="H11" t="n">
-        <v>116.7666521437573</v>
+        <v>51.90144376256687</v>
       </c>
       <c r="I11" t="n">
-        <v>51.90144376256688</v>
+        <v>51.90144376256687</v>
       </c>
       <c r="J11" t="n">
-        <v>159.8009079959788</v>
+        <v>159.8009079959787</v>
       </c>
       <c r="K11" t="n">
-        <v>453.7474527082702</v>
+        <v>453.7474527082701</v>
       </c>
       <c r="L11" t="n">
-        <v>868.3841408545088</v>
+        <v>868.3841408545084</v>
       </c>
       <c r="M11" t="n">
         <v>1335.897006714752</v>
       </c>
       <c r="N11" t="n">
-        <v>1789.703891120029</v>
+        <v>1789.703891120028</v>
       </c>
       <c r="O11" t="n">
         <v>2165.977874294023</v>
@@ -5060,10 +5060,10 @@
         <v>2454.961553665702</v>
       </c>
       <c r="Q11" t="n">
-        <v>2595.072188128344</v>
+        <v>2595.072188128343</v>
       </c>
       <c r="R11" t="n">
-        <v>2595.072188128344</v>
+        <v>2595.072188128343</v>
       </c>
       <c r="S11" t="n">
         <v>2508.991336847287</v>
@@ -5072,19 +5072,19 @@
         <v>2377.835117966765</v>
       </c>
       <c r="U11" t="n">
-        <v>2214.297791941646</v>
+        <v>2214.297791941644</v>
       </c>
       <c r="V11" t="n">
-        <v>2214.297791941646</v>
+        <v>2214.297791941644</v>
       </c>
       <c r="W11" t="n">
-        <v>1943.076345621457</v>
+        <v>1943.076345621455</v>
       </c>
       <c r="X11" t="n">
-        <v>1652.359688965161</v>
+        <v>1652.359688965159</v>
       </c>
       <c r="Y11" t="n">
-        <v>1652.359688965161</v>
+        <v>1350.131317363207</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5115,28 @@
         <v>112.3333345889554</v>
       </c>
       <c r="I12" t="n">
-        <v>51.90144376256688</v>
+        <v>51.90144376256687</v>
       </c>
       <c r="J12" t="n">
-        <v>51.90144376256688</v>
+        <v>51.90144376256687</v>
       </c>
       <c r="K12" t="n">
         <v>317.9378245003648</v>
       </c>
       <c r="L12" t="n">
-        <v>732.9000456905947</v>
+        <v>450.0358315257104</v>
       </c>
       <c r="M12" t="n">
-        <v>1179.074953320095</v>
+        <v>992.4136860496121</v>
       </c>
       <c r="N12" t="n">
-        <v>1749.202838764836</v>
+        <v>1562.541571494353</v>
       </c>
       <c r="O12" t="n">
-        <v>2195.250238856393</v>
+        <v>2008.58897158591</v>
       </c>
       <c r="P12" t="n">
-        <v>2540.563483476272</v>
+        <v>2353.90221620579</v>
       </c>
       <c r="Q12" t="n">
         <v>2540.563483476272</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>382.7806794394239</v>
+        <v>504.6433810079072</v>
       </c>
       <c r="C13" t="n">
-        <v>304.4781937233146</v>
+        <v>426.3408952917979</v>
       </c>
       <c r="D13" t="n">
-        <v>242.7197843732879</v>
+        <v>364.5824859417711</v>
       </c>
       <c r="E13" t="n">
-        <v>242.7197843732879</v>
+        <v>303.8869555253003</v>
       </c>
       <c r="F13" t="n">
-        <v>242.7197843732879</v>
+        <v>242.7197843732881</v>
       </c>
       <c r="G13" t="n">
-        <v>165.3071117105306</v>
+        <v>165.3071117105307</v>
       </c>
       <c r="H13" t="n">
-        <v>98.96916049332572</v>
+        <v>98.96916049332583</v>
       </c>
       <c r="I13" t="n">
-        <v>51.90144376256688</v>
+        <v>51.90144376256687</v>
       </c>
       <c r="J13" t="n">
-        <v>95.95028392489297</v>
+        <v>95.95028392489289</v>
       </c>
       <c r="K13" t="n">
-        <v>241.0951162448932</v>
+        <v>241.0951162448931</v>
       </c>
       <c r="L13" t="n">
-        <v>459.4076543767098</v>
+        <v>459.4076543767095</v>
       </c>
       <c r="M13" t="n">
-        <v>696.6400606977774</v>
+        <v>696.6400606977768</v>
       </c>
       <c r="N13" t="n">
-        <v>933.5940911679722</v>
+        <v>933.5940911679716</v>
       </c>
       <c r="O13" t="n">
-        <v>1148.372922133916</v>
+        <v>1148.372922133915</v>
       </c>
       <c r="P13" t="n">
-        <v>1323.785901197861</v>
+        <v>1323.78590119786</v>
       </c>
       <c r="Q13" t="n">
-        <v>1391.399907893655</v>
+        <v>1391.399907893654</v>
       </c>
       <c r="R13" t="n">
-        <v>1341.896217239</v>
+        <v>1341.896217238999</v>
       </c>
       <c r="S13" t="n">
-        <v>1222.8737216117</v>
+        <v>1222.873721611699</v>
       </c>
       <c r="T13" t="n">
-        <v>1081.835418696641</v>
+        <v>1081.83541869664</v>
       </c>
       <c r="U13" t="n">
-        <v>979.2262828637644</v>
+        <v>885.9692225796148</v>
       </c>
       <c r="V13" t="n">
-        <v>809.8044622443974</v>
+        <v>885.9692225796148</v>
       </c>
       <c r="W13" t="n">
-        <v>614.961544584007</v>
+        <v>867.545921138003</v>
       </c>
       <c r="X13" t="n">
-        <v>475.0225643015932</v>
+        <v>727.6069408555892</v>
       </c>
       <c r="Y13" t="n">
-        <v>475.0225643015932</v>
+        <v>596.8852658700766</v>
       </c>
     </row>
     <row r="14">
@@ -5252,43 +5252,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1272.305952255039</v>
+        <v>1567.368387524787</v>
       </c>
       <c r="C14" t="n">
-        <v>981.6856774100569</v>
+        <v>1521.168656847054</v>
       </c>
       <c r="D14" t="n">
-        <v>981.6856774100569</v>
+        <v>1239.658175896488</v>
       </c>
       <c r="E14" t="n">
-        <v>678.2134413383742</v>
+        <v>936.1859398248055</v>
       </c>
       <c r="F14" t="n">
-        <v>678.2134413383742</v>
+        <v>613.3482329571841</v>
       </c>
       <c r="G14" t="n">
-        <v>353.8545190982123</v>
+        <v>288.989310717022</v>
       </c>
       <c r="H14" t="n">
-        <v>116.7666521437573</v>
+        <v>51.90144376256687</v>
       </c>
       <c r="I14" t="n">
-        <v>51.90144376256688</v>
+        <v>51.90144376256687</v>
       </c>
       <c r="J14" t="n">
-        <v>159.8009079959788</v>
+        <v>159.8009079959787</v>
       </c>
       <c r="K14" t="n">
-        <v>453.7474527082701</v>
+        <v>453.74745270827</v>
       </c>
       <c r="L14" t="n">
-        <v>868.3841408545088</v>
+        <v>868.3841408545081</v>
       </c>
       <c r="M14" t="n">
-        <v>1335.897006714752</v>
+        <v>1335.897006714751</v>
       </c>
       <c r="N14" t="n">
-        <v>1789.703891120029</v>
+        <v>1789.703891120028</v>
       </c>
       <c r="O14" t="n">
         <v>2165.977874294023</v>
@@ -5297,31 +5297,31 @@
         <v>2454.961553665702</v>
       </c>
       <c r="Q14" t="n">
-        <v>2595.072188128344</v>
+        <v>2595.072188128343</v>
       </c>
       <c r="R14" t="n">
-        <v>2595.072188128344</v>
+        <v>2595.072188128343</v>
       </c>
       <c r="S14" t="n">
-        <v>2508.991336847287</v>
+        <v>2595.072188128343</v>
       </c>
       <c r="T14" t="n">
-        <v>2377.835117966765</v>
+        <v>2595.072188128343</v>
       </c>
       <c r="U14" t="n">
-        <v>2377.835117966765</v>
+        <v>2431.534862103223</v>
       </c>
       <c r="V14" t="n">
-        <v>2132.169327684917</v>
+        <v>2431.534862103223</v>
       </c>
       <c r="W14" t="n">
-        <v>1877.264379552799</v>
+        <v>2160.313415783035</v>
       </c>
       <c r="X14" t="n">
-        <v>1877.264379552799</v>
+        <v>1869.596759126738</v>
       </c>
       <c r="Y14" t="n">
-        <v>1575.036007950848</v>
+        <v>1567.368387524787</v>
       </c>
     </row>
     <row r="15">
@@ -5349,31 +5349,31 @@
         <v>210.0410304304384</v>
       </c>
       <c r="H15" t="n">
-        <v>112.3333345889554</v>
+        <v>112.3333345889553</v>
       </c>
       <c r="I15" t="n">
-        <v>51.90144376256688</v>
+        <v>51.90144376256687</v>
       </c>
       <c r="J15" t="n">
-        <v>133.5379322782865</v>
+        <v>51.90144376256687</v>
       </c>
       <c r="K15" t="n">
-        <v>399.5743130160844</v>
+        <v>221.7348776059632</v>
       </c>
       <c r="L15" t="n">
-        <v>814.5365342063144</v>
+        <v>636.6970987961931</v>
       </c>
       <c r="M15" t="n">
-        <v>1356.914388730216</v>
+        <v>1179.074953320095</v>
       </c>
       <c r="N15" t="n">
-        <v>1562.541571494353</v>
+        <v>1749.202838764836</v>
       </c>
       <c r="O15" t="n">
-        <v>2008.58897158591</v>
+        <v>2195.250238856393</v>
       </c>
       <c r="P15" t="n">
-        <v>2353.90221620579</v>
+        <v>2540.563483476272</v>
       </c>
       <c r="Q15" t="n">
         <v>2540.563483476272</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>504.643381007907</v>
+        <v>442.8849716578808</v>
       </c>
       <c r="C16" t="n">
-        <v>426.3408952917978</v>
+        <v>364.5824859417714</v>
       </c>
       <c r="D16" t="n">
-        <v>364.582485941771</v>
+        <v>364.5824859417714</v>
       </c>
       <c r="E16" t="n">
-        <v>303.8869555253003</v>
+        <v>303.8869555253007</v>
       </c>
       <c r="F16" t="n">
-        <v>242.7197843732879</v>
+        <v>242.7197843732882</v>
       </c>
       <c r="G16" t="n">
-        <v>165.3071117105306</v>
+        <v>165.3071117105308</v>
       </c>
       <c r="H16" t="n">
-        <v>98.96916049332575</v>
+        <v>98.96916049332583</v>
       </c>
       <c r="I16" t="n">
-        <v>51.90144376256688</v>
+        <v>51.90144376256687</v>
       </c>
       <c r="J16" t="n">
-        <v>95.95028392489291</v>
+        <v>95.95028392489283</v>
       </c>
       <c r="K16" t="n">
-        <v>241.0951162448932</v>
+        <v>241.0951162448931</v>
       </c>
       <c r="L16" t="n">
-        <v>459.4076543767097</v>
+        <v>459.4076543767095</v>
       </c>
       <c r="M16" t="n">
-        <v>696.6400606977774</v>
+        <v>696.6400606977769</v>
       </c>
       <c r="N16" t="n">
-        <v>933.5940911679725</v>
+        <v>933.5940911679717</v>
       </c>
       <c r="O16" t="n">
-        <v>1148.372922133916</v>
+        <v>1148.372922133915</v>
       </c>
       <c r="P16" t="n">
-        <v>1323.785901197861</v>
+        <v>1323.78590119786</v>
       </c>
       <c r="Q16" t="n">
-        <v>1391.399907893655</v>
+        <v>1391.399907893654</v>
       </c>
       <c r="R16" t="n">
-        <v>1341.896217239</v>
+        <v>1391.399907893654</v>
       </c>
       <c r="S16" t="n">
-        <v>1222.8737216117</v>
+        <v>1272.377412266354</v>
       </c>
       <c r="T16" t="n">
-        <v>1081.835418696641</v>
+        <v>1131.339109351295</v>
       </c>
       <c r="U16" t="n">
-        <v>1008.847099570078</v>
+        <v>1077.810365205565</v>
       </c>
       <c r="V16" t="n">
-        <v>839.4252789507109</v>
+        <v>908.3885445861977</v>
       </c>
       <c r="W16" t="n">
-        <v>644.5823612903205</v>
+        <v>713.5456269258073</v>
       </c>
       <c r="X16" t="n">
-        <v>504.643381007907</v>
+        <v>573.6066466433933</v>
       </c>
       <c r="Y16" t="n">
-        <v>504.643381007907</v>
+        <v>442.8849716578808</v>
       </c>
     </row>
     <row r="17">
@@ -5492,52 +5492,52 @@
         <v>1422.597681404891</v>
       </c>
       <c r="C17" t="n">
-        <v>1196.842614941099</v>
+        <v>1196.8426149411</v>
       </c>
       <c r="D17" t="n">
-        <v>980.1973423717235</v>
+        <v>980.1973423717241</v>
       </c>
       <c r="E17" t="n">
-        <v>741.5903146812313</v>
+        <v>741.5903146812319</v>
       </c>
       <c r="F17" t="n">
-        <v>483.6178161948027</v>
+        <v>483.6178161948033</v>
       </c>
       <c r="G17" t="n">
-        <v>224.1241023358315</v>
+        <v>224.1241023358314</v>
       </c>
       <c r="H17" t="n">
-        <v>51.90144376256688</v>
+        <v>51.90144376256687</v>
       </c>
       <c r="I17" t="n">
-        <v>51.90144376256688</v>
+        <v>51.90144376256687</v>
       </c>
       <c r="J17" t="n">
         <v>159.8009079959787</v>
       </c>
       <c r="K17" t="n">
-        <v>453.7474527082701</v>
+        <v>453.7474527082699</v>
       </c>
       <c r="L17" t="n">
-        <v>868.3841408545081</v>
+        <v>868.3841408545086</v>
       </c>
       <c r="M17" t="n">
-        <v>1335.897006714751</v>
+        <v>1335.897006714752</v>
       </c>
       <c r="N17" t="n">
         <v>1789.703891120028</v>
       </c>
       <c r="O17" t="n">
-        <v>2165.977874294023</v>
+        <v>2165.977874294022</v>
       </c>
       <c r="P17" t="n">
         <v>2454.961553665702</v>
       </c>
       <c r="Q17" t="n">
-        <v>2595.072188128344</v>
+        <v>2595.072188128343</v>
       </c>
       <c r="R17" t="n">
-        <v>2595.072188128344</v>
+        <v>2595.072188128343</v>
       </c>
       <c r="S17" t="n">
         <v>2573.856545228477</v>
@@ -5546,16 +5546,16 @@
         <v>2507.565534729146</v>
       </c>
       <c r="U17" t="n">
-        <v>2408.893417085217</v>
+        <v>2408.893417085216</v>
       </c>
       <c r="V17" t="n">
-        <v>2228.092835184559</v>
+        <v>2330.033378154374</v>
       </c>
       <c r="W17" t="n">
-        <v>2021.736597245561</v>
+        <v>2123.677140215376</v>
       </c>
       <c r="X17" t="n">
-        <v>1795.885148970455</v>
+        <v>1897.82569194027</v>
       </c>
       <c r="Y17" t="n">
         <v>1660.462528719509</v>
@@ -5589,25 +5589,25 @@
         <v>112.3333345889554</v>
       </c>
       <c r="I18" t="n">
-        <v>51.90144376256688</v>
+        <v>51.90144376256687</v>
       </c>
       <c r="J18" t="n">
-        <v>51.90144376256688</v>
+        <v>51.90144376256687</v>
       </c>
       <c r="K18" t="n">
-        <v>317.9378245003648</v>
+        <v>317.9378245003647</v>
       </c>
       <c r="L18" t="n">
-        <v>732.9000456905947</v>
+        <v>732.9000456905944</v>
       </c>
       <c r="M18" t="n">
         <v>1275.277900214496</v>
       </c>
       <c r="N18" t="n">
-        <v>1845.405785659238</v>
+        <v>1845.405785659237</v>
       </c>
       <c r="O18" t="n">
-        <v>2195.250238856393</v>
+        <v>2291.453185750794</v>
       </c>
       <c r="P18" t="n">
         <v>2540.563483476272</v>
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>78.58638205093051</v>
+        <v>79.35892821506678</v>
       </c>
       <c r="C19" t="n">
-        <v>65.14910471601176</v>
+        <v>65.92165088014804</v>
       </c>
       <c r="D19" t="n">
-        <v>65.14910471601176</v>
+        <v>65.92165088014804</v>
       </c>
       <c r="E19" t="n">
-        <v>65.14910471601176</v>
+        <v>65.92165088014804</v>
       </c>
       <c r="F19" t="n">
         <v>65.92165088014804</v>
@@ -5665,58 +5665,58 @@
         <v>53.37418659858121</v>
       </c>
       <c r="H19" t="n">
-        <v>51.90144376256688</v>
+        <v>51.90144376256687</v>
       </c>
       <c r="I19" t="n">
-        <v>51.90144376256688</v>
+        <v>51.90144376256687</v>
       </c>
       <c r="J19" t="n">
-        <v>51.90144376256688</v>
+        <v>52.6739899267037</v>
       </c>
       <c r="K19" t="n">
-        <v>107.5499305884186</v>
+        <v>108.3224767525554</v>
       </c>
       <c r="L19" t="n">
-        <v>236.3661232260867</v>
+        <v>237.1386693902234</v>
       </c>
       <c r="M19" t="n">
-        <v>384.1021840530057</v>
+        <v>384.8747302171423</v>
       </c>
       <c r="N19" t="n">
-        <v>531.5598690290522</v>
+        <v>532.3324151931886</v>
       </c>
       <c r="O19" t="n">
-        <v>656.8423545008473</v>
+        <v>657.6149006649837</v>
       </c>
       <c r="P19" t="n">
-        <v>742.7589880706436</v>
+        <v>743.5315342347799</v>
       </c>
       <c r="Q19" t="n">
-        <v>742.7589880706436</v>
+        <v>743.5315342347799</v>
       </c>
       <c r="R19" t="n">
-        <v>742.7589880706436</v>
+        <v>743.5315342347799</v>
       </c>
       <c r="S19" t="n">
-        <v>688.6017008245346</v>
+        <v>689.374246988671</v>
       </c>
       <c r="T19" t="n">
-        <v>612.4286062906657</v>
+        <v>613.201152454802</v>
       </c>
       <c r="U19" t="n">
-        <v>481.427618554831</v>
+        <v>482.2001647189672</v>
       </c>
       <c r="V19" t="n">
-        <v>376.8710063166545</v>
+        <v>377.6435524807908</v>
       </c>
       <c r="W19" t="n">
-        <v>246.8932970374546</v>
+        <v>247.6658432015909</v>
       </c>
       <c r="X19" t="n">
-        <v>171.8195251362313</v>
+        <v>172.5920713003676</v>
       </c>
       <c r="Y19" t="n">
-        <v>105.9630585319094</v>
+        <v>106.7356046960457</v>
       </c>
     </row>
     <row r="20">
@@ -5729,34 +5729,34 @@
         <v>1422.597681404891</v>
       </c>
       <c r="C20" t="n">
-        <v>1196.842614941099</v>
+        <v>1196.8426149411</v>
       </c>
       <c r="D20" t="n">
-        <v>980.1973423717238</v>
+        <v>980.1973423717242</v>
       </c>
       <c r="E20" t="n">
-        <v>741.5903146812316</v>
+        <v>741.590314681232</v>
       </c>
       <c r="F20" t="n">
-        <v>483.617816194803</v>
+        <v>483.6178161948031</v>
       </c>
       <c r="G20" t="n">
         <v>224.1241023358314</v>
       </c>
       <c r="H20" t="n">
-        <v>51.90144376256688</v>
+        <v>51.90144376256687</v>
       </c>
       <c r="I20" t="n">
-        <v>51.90144376256688</v>
+        <v>51.90144376256687</v>
       </c>
       <c r="J20" t="n">
-        <v>159.8009079959785</v>
+        <v>159.8009079959786</v>
       </c>
       <c r="K20" t="n">
-        <v>453.74745270827</v>
+        <v>453.7474527082708</v>
       </c>
       <c r="L20" t="n">
-        <v>868.3841408545086</v>
+        <v>868.3841408545093</v>
       </c>
       <c r="M20" t="n">
         <v>1335.897006714752</v>
@@ -5771,10 +5771,10 @@
         <v>2454.961553665702</v>
       </c>
       <c r="Q20" t="n">
-        <v>2595.072188128344</v>
+        <v>2595.072188128343</v>
       </c>
       <c r="R20" t="n">
-        <v>2595.072188128344</v>
+        <v>2595.072188128343</v>
       </c>
       <c r="S20" t="n">
         <v>2573.856545228477</v>
@@ -5786,10 +5786,10 @@
         <v>2408.893417085216</v>
       </c>
       <c r="V20" t="n">
-        <v>2330.033378154374</v>
+        <v>2228.092835184558</v>
       </c>
       <c r="W20" t="n">
-        <v>2123.677140215376</v>
+        <v>2021.73659724556</v>
       </c>
       <c r="X20" t="n">
         <v>1897.82569194027</v>
@@ -5823,25 +5823,25 @@
         <v>210.0410304304384</v>
       </c>
       <c r="H21" t="n">
-        <v>112.3333345889553</v>
+        <v>112.3333345889554</v>
       </c>
       <c r="I21" t="n">
-        <v>51.90144376256688</v>
+        <v>51.90144376256687</v>
       </c>
       <c r="J21" t="n">
-        <v>51.90144376256688</v>
+        <v>133.5379322782865</v>
       </c>
       <c r="K21" t="n">
-        <v>317.9378245003648</v>
+        <v>399.5743130160843</v>
       </c>
       <c r="L21" t="n">
-        <v>732.9000456905948</v>
+        <v>814.5365342063141</v>
       </c>
       <c r="M21" t="n">
-        <v>992.413686049612</v>
+        <v>1356.914388730216</v>
       </c>
       <c r="N21" t="n">
-        <v>1562.541571494353</v>
+        <v>1562.541571494354</v>
       </c>
       <c r="O21" t="n">
         <v>2008.58897158591</v>
@@ -5884,13 +5884,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>79.35892821506678</v>
+        <v>78.58638205092994</v>
       </c>
       <c r="C22" t="n">
-        <v>65.92165088014804</v>
+        <v>65.14910471601119</v>
       </c>
       <c r="D22" t="n">
-        <v>65.92165088014804</v>
+        <v>65.14910471601119</v>
       </c>
       <c r="E22" t="n">
         <v>65.92165088014804</v>
@@ -5902,58 +5902,58 @@
         <v>53.37418659858121</v>
       </c>
       <c r="H22" t="n">
-        <v>51.90144376256688</v>
+        <v>51.90144376256687</v>
       </c>
       <c r="I22" t="n">
-        <v>51.90144376256688</v>
+        <v>51.90144376256687</v>
       </c>
       <c r="J22" t="n">
-        <v>52.67398992670305</v>
+        <v>51.90144376256687</v>
       </c>
       <c r="K22" t="n">
-        <v>108.3224767525548</v>
+        <v>107.5499305884186</v>
       </c>
       <c r="L22" t="n">
-        <v>237.1386693902229</v>
+        <v>236.3661232260865</v>
       </c>
       <c r="M22" t="n">
-        <v>384.874730217142</v>
+        <v>384.1021840530055</v>
       </c>
       <c r="N22" t="n">
-        <v>532.3324151931884</v>
+        <v>531.5598690290518</v>
       </c>
       <c r="O22" t="n">
-        <v>657.6149006649835</v>
+        <v>656.8423545008468</v>
       </c>
       <c r="P22" t="n">
-        <v>743.5315342347798</v>
+        <v>742.758988070643</v>
       </c>
       <c r="Q22" t="n">
-        <v>743.5315342347798</v>
+        <v>742.758988070643</v>
       </c>
       <c r="R22" t="n">
-        <v>743.5315342347798</v>
+        <v>742.758988070643</v>
       </c>
       <c r="S22" t="n">
-        <v>689.374246988671</v>
+        <v>688.6017008245341</v>
       </c>
       <c r="T22" t="n">
-        <v>613.201152454802</v>
+        <v>612.4286062906651</v>
       </c>
       <c r="U22" t="n">
-        <v>482.2001647189672</v>
+        <v>481.4276185548304</v>
       </c>
       <c r="V22" t="n">
-        <v>377.6435524807908</v>
+        <v>376.871006316654</v>
       </c>
       <c r="W22" t="n">
-        <v>247.6658432015909</v>
+        <v>246.893297037454</v>
       </c>
       <c r="X22" t="n">
-        <v>172.5920713003676</v>
+        <v>171.8195251362308</v>
       </c>
       <c r="Y22" t="n">
-        <v>106.7356046960457</v>
+        <v>105.9630585319088</v>
       </c>
     </row>
     <row r="23">
@@ -5966,19 +5966,19 @@
         <v>1423.621111259374</v>
       </c>
       <c r="C23" t="n">
-        <v>1197.866044795583</v>
+        <v>1197.866044795582</v>
       </c>
       <c r="D23" t="n">
         <v>981.2207722262069</v>
       </c>
       <c r="E23" t="n">
-        <v>742.6137445357148</v>
+        <v>742.6137445357151</v>
       </c>
       <c r="F23" t="n">
-        <v>484.6412460492861</v>
+        <v>484.6412460492866</v>
       </c>
       <c r="G23" t="n">
-        <v>225.2354192104188</v>
+        <v>225.2354192104187</v>
       </c>
       <c r="H23" t="n">
         <v>53.91283358179798</v>
@@ -5987,22 +5987,22 @@
         <v>53.91283358179798</v>
       </c>
       <c r="J23" t="n">
-        <v>169.1231586984377</v>
+        <v>169.1231586984387</v>
       </c>
       <c r="K23" t="n">
-        <v>474.0267887295099</v>
+        <v>474.0267887295111</v>
       </c>
       <c r="L23" t="n">
-        <v>902.2567101054569</v>
+        <v>902.2567101054583</v>
       </c>
       <c r="M23" t="n">
-        <v>1384.894667069393</v>
+        <v>1384.894667069395</v>
       </c>
       <c r="N23" t="n">
-        <v>1854.071382365217</v>
+        <v>1854.071382365219</v>
       </c>
       <c r="O23" t="n">
-        <v>2244.858661012063</v>
+        <v>2244.858661012064</v>
       </c>
       <c r="P23" t="n">
         <v>2546.229102292864</v>
@@ -6014,7 +6014,7 @@
         <v>2695.641679089899</v>
       </c>
       <c r="S23" t="n">
-        <v>2676.428761660661</v>
+        <v>2676.42876166066</v>
       </c>
       <c r="T23" t="n">
         <v>2610.522476591836</v>
@@ -6023,16 +6023,16 @@
         <v>2511.857389909515</v>
       </c>
       <c r="V23" t="n">
-        <v>2331.056808008858</v>
+        <v>2331.056808008857</v>
       </c>
       <c r="W23" t="n">
-        <v>2124.70057006986</v>
+        <v>2124.700570069859</v>
       </c>
       <c r="X23" t="n">
-        <v>1898.849121794754</v>
+        <v>1898.849121794753</v>
       </c>
       <c r="Y23" t="n">
-        <v>1661.485958573993</v>
+        <v>1661.485958573992</v>
       </c>
     </row>
     <row r="24">
@@ -6075,13 +6075,13 @@
         <v>838.3513554404735</v>
       </c>
       <c r="M24" t="n">
-        <v>1304.797180784431</v>
+        <v>1392.406840225358</v>
       </c>
       <c r="N24" t="n">
-        <v>1886.911768615289</v>
+        <v>1532.797750820706</v>
       </c>
       <c r="O24" t="n">
-        <v>2343.924659597751</v>
+        <v>1989.810641803167</v>
       </c>
       <c r="P24" t="n">
         <v>2343.924659597751</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>80.98038781919882</v>
+        <v>113.7930780590222</v>
       </c>
       <c r="C25" t="n">
-        <v>67.54311048428008</v>
+        <v>100.3558007241036</v>
       </c>
       <c r="D25" t="n">
-        <v>67.54311048428008</v>
+        <v>100.3558007241036</v>
       </c>
       <c r="E25" t="n">
-        <v>67.54311048428008</v>
+        <v>100.3558007241036</v>
       </c>
       <c r="F25" t="n">
-        <v>67.54311048428008</v>
+        <v>100.3558007241036</v>
       </c>
       <c r="G25" t="n">
-        <v>55.03506929431333</v>
+        <v>87.84775953413688</v>
       </c>
       <c r="H25" t="n">
-        <v>53.91283358179798</v>
+        <v>86.72552382162159</v>
       </c>
       <c r="I25" t="n">
         <v>53.91283358179798</v>
@@ -6166,31 +6166,31 @@
         <v>777.1080526405619</v>
       </c>
       <c r="Q25" t="n">
-        <v>758.0825600617394</v>
+        <v>777.1080526405619</v>
       </c>
       <c r="R25" t="n">
-        <v>758.0825600617394</v>
+        <v>777.1080526405619</v>
       </c>
       <c r="S25" t="n">
-        <v>704.6123097846976</v>
+        <v>723.6378023635201</v>
       </c>
       <c r="T25" t="n">
-        <v>628.6076593694835</v>
+        <v>647.6331519483061</v>
       </c>
       <c r="U25" t="n">
-        <v>497.6088219840997</v>
+        <v>516.6343145629224</v>
       </c>
       <c r="V25" t="n">
-        <v>379.2650120849228</v>
+        <v>412.077702324746</v>
       </c>
       <c r="W25" t="n">
-        <v>249.2873028057229</v>
+        <v>282.0999930455462</v>
       </c>
       <c r="X25" t="n">
-        <v>174.2135309044996</v>
+        <v>207.026221144323</v>
       </c>
       <c r="Y25" t="n">
-        <v>108.3570643001777</v>
+        <v>141.1697545400011</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1801.119729061983</v>
+        <v>1801.119729061982</v>
       </c>
       <c r="C26" t="n">
         <v>1523.222636091329</v>
@@ -6209,10 +6209,10 @@
         <v>1254.435337015092</v>
       </c>
       <c r="E26" t="n">
-        <v>963.6862828177382</v>
+        <v>963.6862828177379</v>
       </c>
       <c r="F26" t="n">
-        <v>653.5717578244478</v>
+        <v>653.5717578244476</v>
       </c>
       <c r="G26" t="n">
         <v>342.023904478719</v>
@@ -6221,7 +6221,7 @@
         <v>118.5592923432364</v>
       </c>
       <c r="I26" t="n">
-        <v>69.80553017894803</v>
+        <v>69.80553017894802</v>
       </c>
       <c r="J26" t="n">
         <v>286.9821913447659</v>
@@ -6233,19 +6233,19 @@
         <v>1224.048414850142</v>
       </c>
       <c r="M26" t="n">
-        <v>1726.550757625563</v>
+        <v>1808.652707863257</v>
       </c>
       <c r="N26" t="n">
-        <v>2297.693808970565</v>
+        <v>2379.795759208259</v>
       </c>
       <c r="O26" t="n">
-        <v>2790.447423666589</v>
+        <v>2872.549373904283</v>
       </c>
       <c r="P26" t="n">
         <v>3193.784200996568</v>
       </c>
       <c r="Q26" t="n">
-        <v>3445.163113842781</v>
+        <v>3445.16311384278</v>
       </c>
       <c r="R26" t="n">
         <v>3490.276508947401</v>
@@ -6257,19 +6257,19 @@
         <v>3300.873253435615</v>
       </c>
       <c r="U26" t="n">
-        <v>3150.066140246432</v>
+        <v>3150.066140246431</v>
       </c>
       <c r="V26" t="n">
         <v>2917.123531838912</v>
       </c>
       <c r="W26" t="n">
-        <v>2658.625267393053</v>
+        <v>2658.625267393052</v>
       </c>
       <c r="X26" t="n">
         <v>2380.631792611085</v>
       </c>
       <c r="Y26" t="n">
-        <v>2091.126602883463</v>
+        <v>2091.126602883462</v>
       </c>
     </row>
     <row r="27">
@@ -6300,7 +6300,7 @@
         <v>128.61840321694</v>
       </c>
       <c r="I27" t="n">
-        <v>69.80553017894803</v>
+        <v>69.80553017894802</v>
       </c>
       <c r="J27" t="n">
         <v>155.7963173523071</v>
@@ -6309,10 +6309,10 @@
         <v>429.2748880384971</v>
       </c>
       <c r="L27" t="n">
-        <v>854.2440520376236</v>
+        <v>854.2440520376238</v>
       </c>
       <c r="M27" t="n">
-        <v>966.5758595869968</v>
+        <v>966.5758595869967</v>
       </c>
       <c r="N27" t="n">
         <v>1548.690447417856</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>431.90970420695</v>
+        <v>431.9097042069499</v>
       </c>
       <c r="C28" t="n">
-        <v>366.3304003651696</v>
+        <v>366.3304003651695</v>
       </c>
       <c r="D28" t="n">
-        <v>317.2951728894716</v>
+        <v>317.2951728894715</v>
       </c>
       <c r="E28" t="n">
-        <v>269.3228243473298</v>
+        <v>269.3228243473297</v>
       </c>
       <c r="F28" t="n">
-        <v>220.8788350696462</v>
+        <v>220.8788350696461</v>
       </c>
       <c r="G28" t="n">
-        <v>156.2287673728179</v>
+        <v>156.2287673728177</v>
       </c>
       <c r="H28" t="n">
-        <v>102.9645051534409</v>
+        <v>102.9645051534408</v>
       </c>
       <c r="I28" t="n">
-        <v>69.80553017894803</v>
+        <v>69.80553017894802</v>
       </c>
       <c r="J28" t="n">
         <v>129.0561079421652</v>
@@ -6418,16 +6418,16 @@
         <v>1095.461073245159</v>
       </c>
       <c r="V28" t="n">
-        <v>938.7624345001207</v>
+        <v>938.7624345001204</v>
       </c>
       <c r="W28" t="n">
-        <v>756.6426987140591</v>
+        <v>756.642698714059</v>
       </c>
       <c r="X28" t="n">
-        <v>629.4269003059742</v>
+        <v>629.426900305974</v>
       </c>
       <c r="Y28" t="n">
-        <v>511.4284071947906</v>
+        <v>511.4284071947903</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1801.119729061983</v>
+        <v>1801.119729061982</v>
       </c>
       <c r="C29" t="n">
         <v>1523.222636091329</v>
@@ -6452,37 +6452,37 @@
         <v>653.5717578244476</v>
       </c>
       <c r="G29" t="n">
-        <v>342.0239044787188</v>
+        <v>342.0239044787187</v>
       </c>
       <c r="H29" t="n">
         <v>118.5592923432364</v>
       </c>
       <c r="I29" t="n">
-        <v>69.80553017894803</v>
+        <v>69.80553017894802</v>
       </c>
       <c r="J29" t="n">
         <v>286.9821913447659</v>
       </c>
       <c r="K29" t="n">
-        <v>693.8521574250165</v>
+        <v>611.7502071873222</v>
       </c>
       <c r="L29" t="n">
-        <v>1224.048414850142</v>
+        <v>1141.946464612447</v>
       </c>
       <c r="M29" t="n">
-        <v>1808.652707863256</v>
+        <v>1726.550757625562</v>
       </c>
       <c r="N29" t="n">
-        <v>2379.795759208258</v>
+        <v>2297.693808970564</v>
       </c>
       <c r="O29" t="n">
-        <v>2790.447423666589</v>
+        <v>2790.447423666588</v>
       </c>
       <c r="P29" t="n">
-        <v>3193.784200996568</v>
+        <v>3193.784200996567</v>
       </c>
       <c r="Q29" t="n">
-        <v>3445.163113842781</v>
+        <v>3445.16311384278</v>
       </c>
       <c r="R29" t="n">
         <v>3490.276508947401</v>
@@ -6494,19 +6494,19 @@
         <v>3300.873253435615</v>
       </c>
       <c r="U29" t="n">
-        <v>3150.066140246432</v>
+        <v>3150.066140246431</v>
       </c>
       <c r="V29" t="n">
-        <v>2917.123531838913</v>
+        <v>2917.123531838912</v>
       </c>
       <c r="W29" t="n">
-        <v>2658.625267393053</v>
+        <v>2658.625267393052</v>
       </c>
       <c r="X29" t="n">
-        <v>2380.631792611086</v>
+        <v>2380.631792611085</v>
       </c>
       <c r="Y29" t="n">
-        <v>2091.126602883463</v>
+        <v>2091.126602883462</v>
       </c>
     </row>
     <row r="30">
@@ -6537,28 +6537,28 @@
         <v>128.61840321694</v>
       </c>
       <c r="I30" t="n">
-        <v>69.80553017894803</v>
+        <v>69.80553017894802</v>
       </c>
       <c r="J30" t="n">
-        <v>69.80553017894803</v>
+        <v>155.7963173523071</v>
       </c>
       <c r="K30" t="n">
-        <v>69.80553017894803</v>
+        <v>429.274888038497</v>
       </c>
       <c r="L30" t="n">
-        <v>494.7746941780746</v>
+        <v>854.2440520376235</v>
       </c>
       <c r="M30" t="n">
-        <v>1048.830178962959</v>
+        <v>1408.299536822508</v>
       </c>
       <c r="N30" t="n">
-        <v>1630.944766793818</v>
+        <v>1741.234798488159</v>
       </c>
       <c r="O30" t="n">
-        <v>2087.957657776279</v>
+        <v>2198.247689470621</v>
       </c>
       <c r="P30" t="n">
-        <v>2442.071675570863</v>
+        <v>2552.361707265204</v>
       </c>
       <c r="Q30" t="n">
         <v>2552.361707265204</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>431.9097042069498</v>
+        <v>431.90970420695</v>
       </c>
       <c r="C31" t="n">
-        <v>366.3304003651694</v>
+        <v>366.3304003651696</v>
       </c>
       <c r="D31" t="n">
-        <v>317.2951728894714</v>
+        <v>317.2951728894716</v>
       </c>
       <c r="E31" t="n">
-        <v>269.3228243473296</v>
+        <v>269.3228243473298</v>
       </c>
       <c r="F31" t="n">
-        <v>220.878835069646</v>
+        <v>220.8788350696462</v>
       </c>
       <c r="G31" t="n">
-        <v>156.2287673728176</v>
+        <v>156.2287673728179</v>
       </c>
       <c r="H31" t="n">
-        <v>102.9645051534406</v>
+        <v>102.9645051534409</v>
       </c>
       <c r="I31" t="n">
-        <v>69.80553017894803</v>
+        <v>69.80553017894802</v>
       </c>
       <c r="J31" t="n">
-        <v>129.0561079421651</v>
+        <v>129.0561079421652</v>
       </c>
       <c r="K31" t="n">
-        <v>291.1600303730789</v>
+        <v>291.1600303730791</v>
       </c>
       <c r="L31" t="n">
-        <v>527.6870609485741</v>
+        <v>527.6870609485736</v>
       </c>
       <c r="M31" t="n">
-        <v>783.4462296276527</v>
+        <v>783.4462296276532</v>
       </c>
       <c r="N31" t="n">
         <v>1038.783005959935</v>
@@ -6637,7 +6637,7 @@
         <v>1271.493214014154</v>
       </c>
       <c r="P31" t="n">
-        <v>1464.049343295998</v>
+        <v>1464.049343295999</v>
       </c>
       <c r="Q31" t="n">
         <v>1547.368794068673</v>
@@ -6664,7 +6664,7 @@
         <v>629.4269003059741</v>
       </c>
       <c r="Y31" t="n">
-        <v>511.4284071947903</v>
+        <v>511.4284071947905</v>
       </c>
     </row>
     <row r="32">
@@ -6683,67 +6683,67 @@
         <v>1082.784789386077</v>
       </c>
       <c r="E32" t="n">
-        <v>824.3852614726528</v>
+        <v>824.385261472653</v>
       </c>
       <c r="F32" t="n">
-        <v>546.620262763292</v>
+        <v>546.6202627632923</v>
       </c>
       <c r="G32" t="n">
-        <v>267.4219357014927</v>
+        <v>267.4219357014931</v>
       </c>
       <c r="H32" t="n">
-        <v>76.30684984994062</v>
+        <v>76.30684984994053</v>
       </c>
       <c r="I32" t="n">
-        <v>59.9026139695818</v>
+        <v>59.90261396958178</v>
       </c>
       <c r="J32" t="n">
-        <v>258.1209055120723</v>
+        <v>175.1129390862214</v>
       </c>
       <c r="K32" t="n">
-        <v>563.0245355431447</v>
+        <v>480.0165691172938</v>
       </c>
       <c r="L32" t="n">
-        <v>991.2544569190918</v>
+        <v>908.246490493241</v>
       </c>
       <c r="M32" t="n">
-        <v>1473.892413883028</v>
+        <v>1473.892413883027</v>
       </c>
       <c r="N32" t="n">
-        <v>2076.74123593891</v>
+        <v>1943.069129178851</v>
       </c>
       <c r="O32" t="n">
-        <v>2467.528514585755</v>
+        <v>2333.856407825696</v>
       </c>
       <c r="P32" t="n">
-        <v>2768.898955866555</v>
+        <v>2768.898955866554</v>
       </c>
       <c r="Q32" t="n">
-        <v>2918.31153266359</v>
+        <v>2918.311532663589</v>
       </c>
       <c r="R32" t="n">
-        <v>2995.13069847909</v>
+        <v>2995.130698479089</v>
       </c>
       <c r="S32" t="n">
         <v>2956.125280826919</v>
       </c>
       <c r="T32" t="n">
-        <v>2870.426495535163</v>
+        <v>2870.426495535162</v>
       </c>
       <c r="U32" t="n">
         <v>2751.968908629909</v>
       </c>
       <c r="V32" t="n">
-        <v>2551.37582650632</v>
+        <v>2551.375826506319</v>
       </c>
       <c r="W32" t="n">
-        <v>2325.22708834439</v>
+        <v>2325.227088344389</v>
       </c>
       <c r="X32" t="n">
         <v>2079.583139846352</v>
       </c>
       <c r="Y32" t="n">
-        <v>1822.427476402659</v>
+        <v>1822.427476402658</v>
       </c>
     </row>
     <row r="33">
@@ -6753,16 +6753,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>926.6837110123118</v>
+        <v>926.6837110123116</v>
       </c>
       <c r="C33" t="n">
-        <v>764.9800382532666</v>
+        <v>764.9800382532663</v>
       </c>
       <c r="D33" t="n">
-        <v>626.1414012434786</v>
+        <v>626.1414012434784</v>
       </c>
       <c r="E33" t="n">
-        <v>479.1133913003498</v>
+        <v>479.1133913003497</v>
       </c>
       <c r="F33" t="n">
         <v>344.4195932502241</v>
@@ -6774,25 +6774,25 @@
         <v>118.7154870075738</v>
       </c>
       <c r="I33" t="n">
-        <v>59.9026139695818</v>
+        <v>59.90261396958178</v>
       </c>
       <c r="J33" t="n">
-        <v>145.8934011429409</v>
+        <v>59.90261396958178</v>
       </c>
       <c r="K33" t="n">
-        <v>145.8934011429409</v>
+        <v>59.90261396958178</v>
       </c>
       <c r="L33" t="n">
-        <v>570.8625651420674</v>
+        <v>484.8717779687083</v>
       </c>
       <c r="M33" t="n">
-        <v>1124.918049926952</v>
+        <v>1038.927262753593</v>
       </c>
       <c r="N33" t="n">
-        <v>1707.032637757811</v>
+        <v>1621.041850584452</v>
       </c>
       <c r="O33" t="n">
-        <v>2164.045528740272</v>
+        <v>2078.054741566913</v>
       </c>
       <c r="P33" t="n">
         <v>2349.914439985535</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>195.5601040100769</v>
+        <v>195.5601040100765</v>
       </c>
       <c r="C34" t="n">
-        <v>162.3303264522261</v>
+        <v>162.3303264522257</v>
       </c>
       <c r="D34" t="n">
-        <v>145.6446252604576</v>
+        <v>145.6446252604573</v>
       </c>
       <c r="E34" t="n">
-        <v>130.0218030022453</v>
+        <v>130.0218030022451</v>
       </c>
       <c r="F34" t="n">
-        <v>113.9273400084913</v>
+        <v>113.9273400084911</v>
       </c>
       <c r="G34" t="n">
-        <v>81.62679859559248</v>
+        <v>81.62679859559233</v>
       </c>
       <c r="H34" t="n">
-        <v>60.71206266014502</v>
+        <v>60.71206266014494</v>
       </c>
       <c r="I34" t="n">
-        <v>59.9026139695818</v>
+        <v>59.90261396958178</v>
       </c>
       <c r="J34" t="n">
-        <v>59.9026139695818</v>
+        <v>59.90261396958178</v>
       </c>
       <c r="K34" t="n">
-        <v>120.0402003513175</v>
+        <v>120.0402003513174</v>
       </c>
       <c r="L34" t="n">
         <v>388.2730016376913</v>
       </c>
       <c r="M34" t="n">
-        <v>542.0658342675921</v>
+        <v>645.1693517956217</v>
       </c>
       <c r="N34" t="n">
-        <v>695.4362745506959</v>
+        <v>798.5397920787254</v>
       </c>
       <c r="O34" t="n">
-        <v>826.1801465557369</v>
+        <v>929.2836640837666</v>
       </c>
       <c r="P34" t="n">
-        <v>916.7699397884032</v>
+        <v>1019.873457316433</v>
       </c>
       <c r="Q34" t="n">
-        <v>1019.873457316434</v>
+        <v>1019.873457316433</v>
       </c>
       <c r="R34" t="n">
-        <v>1017.215080375074</v>
+        <v>1017.215080375073</v>
       </c>
       <c r="S34" t="n">
-        <v>943.9523298751</v>
+        <v>943.9523298750992</v>
       </c>
       <c r="T34" t="n">
-        <v>848.1551792369538</v>
+        <v>848.155179236953</v>
       </c>
       <c r="U34" t="n">
-        <v>697.3638416286379</v>
+        <v>697.3638416286371</v>
       </c>
       <c r="V34" t="n">
-        <v>573.0147291675294</v>
+        <v>573.0147291675287</v>
       </c>
       <c r="W34" t="n">
-        <v>423.2445196653974</v>
+        <v>423.2445196653968</v>
       </c>
       <c r="X34" t="n">
-        <v>328.378247541242</v>
+        <v>328.3782475412414</v>
       </c>
       <c r="Y34" t="n">
-        <v>242.7292807139879</v>
+        <v>242.7292807139874</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1423.621111259374</v>
+        <v>1423.621111259375</v>
       </c>
       <c r="C35" t="n">
         <v>1197.866044795583</v>
       </c>
       <c r="D35" t="n">
-        <v>981.2207722262075</v>
+        <v>981.2207722262078</v>
       </c>
       <c r="E35" t="n">
-        <v>742.6137445357153</v>
+        <v>742.6137445357158</v>
       </c>
       <c r="F35" t="n">
-        <v>484.6412460492867</v>
+        <v>484.6412460492871</v>
       </c>
       <c r="G35" t="n">
         <v>225.2354192104187</v>
@@ -6935,13 +6935,13 @@
         <v>53.91283358179798</v>
       </c>
       <c r="J35" t="n">
-        <v>169.1231586984377</v>
+        <v>169.1231586984387</v>
       </c>
       <c r="K35" t="n">
-        <v>474.0267887295101</v>
+        <v>474.0267887295111</v>
       </c>
       <c r="L35" t="n">
-        <v>902.2567101054573</v>
+        <v>902.2567101054582</v>
       </c>
       <c r="M35" t="n">
         <v>1384.894667069394</v>
@@ -6962,19 +6962,19 @@
         <v>2695.641679089899</v>
       </c>
       <c r="S35" t="n">
-        <v>2676.42876166066</v>
+        <v>2676.428761660661</v>
       </c>
       <c r="T35" t="n">
         <v>2610.522476591836</v>
       </c>
       <c r="U35" t="n">
-        <v>2511.857389909514</v>
+        <v>2511.857389909515</v>
       </c>
       <c r="V35" t="n">
         <v>2331.056808008857</v>
       </c>
       <c r="W35" t="n">
-        <v>2124.700570069859</v>
+        <v>2124.70057006986</v>
       </c>
       <c r="X35" t="n">
         <v>1898.849121794754</v>
@@ -7017,22 +7017,22 @@
         <v>139.9036207551571</v>
       </c>
       <c r="K36" t="n">
-        <v>139.9036207551571</v>
+        <v>413.382191441347</v>
       </c>
       <c r="L36" t="n">
-        <v>564.8727847542837</v>
+        <v>838.3513554404735</v>
       </c>
       <c r="M36" t="n">
-        <v>1118.928269539168</v>
+        <v>1392.406840225358</v>
       </c>
       <c r="N36" t="n">
-        <v>1701.042857370027</v>
+        <v>1974.521428056217</v>
       </c>
       <c r="O36" t="n">
-        <v>2158.055748352488</v>
+        <v>2431.534319038678</v>
       </c>
       <c r="P36" t="n">
-        <v>2343.924659597751</v>
+        <v>2536.469010668054</v>
       </c>
       <c r="Q36" t="n">
         <v>2536.469010668054</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>113.7930780590222</v>
+        <v>113.7930780590226</v>
       </c>
       <c r="C37" t="n">
-        <v>100.3558007241036</v>
+        <v>100.355800724104</v>
       </c>
       <c r="D37" t="n">
-        <v>100.3558007241036</v>
+        <v>100.355800724104</v>
       </c>
       <c r="E37" t="n">
-        <v>100.3558007241036</v>
+        <v>100.355800724104</v>
       </c>
       <c r="F37" t="n">
-        <v>100.3558007241036</v>
+        <v>100.355800724104</v>
       </c>
       <c r="G37" t="n">
-        <v>87.84775953413688</v>
+        <v>87.8477595341374</v>
       </c>
       <c r="H37" t="n">
-        <v>86.72552382162159</v>
+        <v>53.91283358179798</v>
       </c>
       <c r="I37" t="n">
         <v>53.91283358179798</v>
@@ -7120,25 +7120,25 @@
         <v>777.1080526405619</v>
       </c>
       <c r="S37" t="n">
-        <v>723.6378023635201</v>
+        <v>723.6378023635202</v>
       </c>
       <c r="T37" t="n">
-        <v>647.6331519483061</v>
+        <v>647.6331519483062</v>
       </c>
       <c r="U37" t="n">
-        <v>516.6343145629224</v>
+        <v>516.6343145629226</v>
       </c>
       <c r="V37" t="n">
-        <v>412.077702324746</v>
+        <v>412.0777023247462</v>
       </c>
       <c r="W37" t="n">
-        <v>282.0999930455462</v>
+        <v>282.0999930455464</v>
       </c>
       <c r="X37" t="n">
-        <v>207.026221144323</v>
+        <v>207.0262211443232</v>
       </c>
       <c r="Y37" t="n">
-        <v>141.1697545400011</v>
+        <v>141.1697545400014</v>
       </c>
     </row>
     <row r="38">
@@ -7154,61 +7154,61 @@
         <v>1197.866044795582</v>
       </c>
       <c r="D38" t="n">
-        <v>981.220772226207</v>
+        <v>981.2207722262067</v>
       </c>
       <c r="E38" t="n">
-        <v>742.6137445357149</v>
+        <v>742.6137445357144</v>
       </c>
       <c r="F38" t="n">
-        <v>484.6412460492862</v>
+        <v>484.6412460492857</v>
       </c>
       <c r="G38" t="n">
-        <v>225.2354192104187</v>
+        <v>225.2354192104188</v>
       </c>
       <c r="H38" t="n">
-        <v>53.91283358179801</v>
+        <v>53.91283358179798</v>
       </c>
       <c r="I38" t="n">
-        <v>53.91283358179801</v>
+        <v>53.91283358179798</v>
       </c>
       <c r="J38" t="n">
-        <v>169.1231586984377</v>
+        <v>169.1231586984387</v>
       </c>
       <c r="K38" t="n">
-        <v>474.0267887295101</v>
+        <v>474.0267887295111</v>
       </c>
       <c r="L38" t="n">
-        <v>902.2567101054572</v>
+        <v>902.2567101054583</v>
       </c>
       <c r="M38" t="n">
-        <v>1384.894667069394</v>
+        <v>1384.894667069395</v>
       </c>
       <c r="N38" t="n">
-        <v>1854.071382365217</v>
+        <v>1854.071382365219</v>
       </c>
       <c r="O38" t="n">
-        <v>2244.858661012063</v>
+        <v>2244.858661012064</v>
       </c>
       <c r="P38" t="n">
-        <v>2546.229102292863</v>
+        <v>2546.229102292864</v>
       </c>
       <c r="Q38" t="n">
-        <v>2695.641679089901</v>
+        <v>2695.641679089899</v>
       </c>
       <c r="R38" t="n">
-        <v>2695.641679089901</v>
+        <v>2695.641679089899</v>
       </c>
       <c r="S38" t="n">
-        <v>2676.428761660663</v>
+        <v>2676.42876166066</v>
       </c>
       <c r="T38" t="n">
-        <v>2610.522476591838</v>
+        <v>2610.522476591835</v>
       </c>
       <c r="U38" t="n">
         <v>2511.857389909514</v>
       </c>
       <c r="V38" t="n">
-        <v>2331.056808008856</v>
+        <v>2331.056808008857</v>
       </c>
       <c r="W38" t="n">
         <v>2124.700570069859</v>
@@ -7245,31 +7245,31 @@
         <v>209.979252503305</v>
       </c>
       <c r="H39" t="n">
-        <v>112.72570661979</v>
+        <v>112.7257066197899</v>
       </c>
       <c r="I39" t="n">
-        <v>53.91283358179801</v>
+        <v>53.91283358179798</v>
       </c>
       <c r="J39" t="n">
-        <v>53.91283358179801</v>
+        <v>53.91283358179798</v>
       </c>
       <c r="K39" t="n">
-        <v>327.3914042679879</v>
+        <v>164.2028652761394</v>
       </c>
       <c r="L39" t="n">
-        <v>752.3605682671144</v>
+        <v>589.1720292752659</v>
       </c>
       <c r="M39" t="n">
-        <v>1306.416053051999</v>
+        <v>1143.22751406015</v>
       </c>
       <c r="N39" t="n">
-        <v>1532.797750820706</v>
+        <v>1725.342101891009</v>
       </c>
       <c r="O39" t="n">
-        <v>1989.810641803167</v>
+        <v>2182.354992873471</v>
       </c>
       <c r="P39" t="n">
-        <v>2343.924659597751</v>
+        <v>2536.469010668054</v>
       </c>
       <c r="Q39" t="n">
         <v>2536.469010668054</v>
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>113.7930780590222</v>
+        <v>80.98038781919891</v>
       </c>
       <c r="C40" t="n">
-        <v>100.3558007241036</v>
+        <v>67.54311048428013</v>
       </c>
       <c r="D40" t="n">
-        <v>100.3558007241036</v>
+        <v>67.54311048428013</v>
       </c>
       <c r="E40" t="n">
-        <v>100.3558007241036</v>
+        <v>67.54311048428013</v>
       </c>
       <c r="F40" t="n">
-        <v>100.3558007241036</v>
+        <v>67.54311048428013</v>
       </c>
       <c r="G40" t="n">
-        <v>55.03506929431331</v>
+        <v>55.03506929431336</v>
       </c>
       <c r="H40" t="n">
-        <v>53.91283358179801</v>
+        <v>53.91283358179798</v>
       </c>
       <c r="I40" t="n">
-        <v>53.91283358179801</v>
+        <v>53.91283358179798</v>
       </c>
       <c r="J40" t="n">
-        <v>53.91283358179801</v>
+        <v>53.91283358179798</v>
       </c>
       <c r="K40" t="n">
-        <v>114.0504199635337</v>
+        <v>114.0504199635336</v>
       </c>
       <c r="L40" t="n">
         <v>248.61111448985</v>
@@ -7351,31 +7351,31 @@
         <v>777.1080526405619</v>
       </c>
       <c r="Q40" t="n">
-        <v>777.1080526405619</v>
+        <v>758.0825600617394</v>
       </c>
       <c r="R40" t="n">
-        <v>777.1080526405619</v>
+        <v>758.0825600617394</v>
       </c>
       <c r="S40" t="n">
-        <v>723.6378023635201</v>
+        <v>690.8251121236975</v>
       </c>
       <c r="T40" t="n">
-        <v>647.6331519483061</v>
+        <v>614.8204617084834</v>
       </c>
       <c r="U40" t="n">
-        <v>516.6343145629224</v>
+        <v>483.8216243230996</v>
       </c>
       <c r="V40" t="n">
-        <v>412.077702324746</v>
+        <v>379.2650120849231</v>
       </c>
       <c r="W40" t="n">
-        <v>282.0999930455462</v>
+        <v>249.2873028057231</v>
       </c>
       <c r="X40" t="n">
-        <v>207.026221144323</v>
+        <v>174.2135309044998</v>
       </c>
       <c r="Y40" t="n">
-        <v>141.1697545400011</v>
+        <v>108.3570643001778</v>
       </c>
     </row>
     <row r="41">
@@ -7385,37 +7385,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1423.621111259373</v>
+        <v>1423.621111259374</v>
       </c>
       <c r="C41" t="n">
-        <v>1197.866044795582</v>
+        <v>1197.866044795583</v>
       </c>
       <c r="D41" t="n">
-        <v>981.2207722262065</v>
+        <v>981.2207722262071</v>
       </c>
       <c r="E41" t="n">
-        <v>742.6137445357144</v>
+        <v>742.6137445357152</v>
       </c>
       <c r="F41" t="n">
-        <v>484.6412460492861</v>
+        <v>484.6412460492866</v>
       </c>
       <c r="G41" t="n">
-        <v>225.2354192104185</v>
+        <v>225.2354192104187</v>
       </c>
       <c r="H41" t="n">
-        <v>53.91283358179796</v>
+        <v>53.91283358179798</v>
       </c>
       <c r="I41" t="n">
-        <v>53.91283358179796</v>
+        <v>53.91283358179798</v>
       </c>
       <c r="J41" t="n">
-        <v>169.1231586984378</v>
+        <v>169.1231586984385</v>
       </c>
       <c r="K41" t="n">
-        <v>474.0267887295102</v>
+        <v>474.0267887295108</v>
       </c>
       <c r="L41" t="n">
-        <v>902.2567101054574</v>
+        <v>902.2567101054578</v>
       </c>
       <c r="M41" t="n">
         <v>1384.894667069394</v>
@@ -7424,16 +7424,16 @@
         <v>1854.071382365218</v>
       </c>
       <c r="O41" t="n">
-        <v>2244.858661012063</v>
+        <v>2244.858661012064</v>
       </c>
       <c r="P41" t="n">
-        <v>2546.229102292863</v>
+        <v>2546.229102292864</v>
       </c>
       <c r="Q41" t="n">
-        <v>2695.641679089898</v>
+        <v>2695.641679089899</v>
       </c>
       <c r="R41" t="n">
-        <v>2695.641679089898</v>
+        <v>2695.641679089899</v>
       </c>
       <c r="S41" t="n">
         <v>2676.42876166066</v>
@@ -7442,19 +7442,19 @@
         <v>2610.522476591836</v>
       </c>
       <c r="U41" t="n">
-        <v>2511.857389909513</v>
+        <v>2511.857389909515</v>
       </c>
       <c r="V41" t="n">
-        <v>2331.056808008855</v>
+        <v>2331.056808008857</v>
       </c>
       <c r="W41" t="n">
-        <v>2124.700570069857</v>
+        <v>2124.700570069859</v>
       </c>
       <c r="X41" t="n">
-        <v>1898.849121794752</v>
+        <v>1898.849121794754</v>
       </c>
       <c r="Y41" t="n">
-        <v>1661.485958573991</v>
+        <v>1661.485958573993</v>
       </c>
     </row>
     <row r="42">
@@ -7485,25 +7485,25 @@
         <v>112.7257066197899</v>
       </c>
       <c r="I42" t="n">
-        <v>53.91283358179796</v>
+        <v>53.91283358179798</v>
       </c>
       <c r="J42" t="n">
-        <v>53.91283358179796</v>
+        <v>139.9036207551571</v>
       </c>
       <c r="K42" t="n">
-        <v>164.2028652761394</v>
+        <v>413.382191441347</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1720292752659</v>
+        <v>838.3513554404735</v>
       </c>
       <c r="M42" t="n">
-        <v>1143.22751406015</v>
+        <v>1392.406840225358</v>
       </c>
       <c r="N42" t="n">
-        <v>1725.342101891009</v>
+        <v>1974.521428056217</v>
       </c>
       <c r="O42" t="n">
-        <v>2182.354992873471</v>
+        <v>2431.534319038678</v>
       </c>
       <c r="P42" t="n">
         <v>2536.469010668054</v>
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>80.98038781919811</v>
+        <v>80.98038781919865</v>
       </c>
       <c r="C43" t="n">
-        <v>67.54311048427959</v>
+        <v>67.54311048427996</v>
       </c>
       <c r="D43" t="n">
-        <v>67.54311048427959</v>
+        <v>67.54311048427996</v>
       </c>
       <c r="E43" t="n">
-        <v>67.54311048427959</v>
+        <v>67.54311048427996</v>
       </c>
       <c r="F43" t="n">
-        <v>67.54311048427959</v>
+        <v>67.54311048427996</v>
       </c>
       <c r="G43" t="n">
-        <v>55.03506929431308</v>
+        <v>55.03506929431327</v>
       </c>
       <c r="H43" t="n">
-        <v>53.91283358179796</v>
+        <v>53.91283358179798</v>
       </c>
       <c r="I43" t="n">
-        <v>53.91283358179796</v>
+        <v>53.91283358179798</v>
       </c>
       <c r="J43" t="n">
-        <v>53.91283358179796</v>
+        <v>53.91283358179798</v>
       </c>
       <c r="K43" t="n">
         <v>114.0504199635336</v>
@@ -7576,7 +7576,7 @@
         <v>248.61111448985</v>
       </c>
       <c r="M43" t="n">
-        <v>402.4039471197507</v>
+        <v>402.4039471197508</v>
       </c>
       <c r="N43" t="n">
         <v>555.7743874028546</v>
@@ -7591,28 +7591,28 @@
         <v>758.0825600617394</v>
       </c>
       <c r="R43" t="n">
-        <v>758.0825600617394</v>
+        <v>744.2953624007383</v>
       </c>
       <c r="S43" t="n">
-        <v>704.6123097846978</v>
+        <v>690.8251121236965</v>
       </c>
       <c r="T43" t="n">
-        <v>628.6076593694839</v>
+        <v>614.8204617084825</v>
       </c>
       <c r="U43" t="n">
-        <v>497.6088219841004</v>
+        <v>483.8216243230988</v>
       </c>
       <c r="V43" t="n">
-        <v>379.2650120849212</v>
+        <v>379.2650120849224</v>
       </c>
       <c r="W43" t="n">
-        <v>249.2873028057215</v>
+        <v>249.2873028057226</v>
       </c>
       <c r="X43" t="n">
-        <v>174.2135309044985</v>
+        <v>174.2135309044994</v>
       </c>
       <c r="Y43" t="n">
-        <v>108.3570643001768</v>
+        <v>108.3570643001775</v>
       </c>
     </row>
     <row r="44">
@@ -7625,55 +7625,55 @@
         <v>1423.621111259373</v>
       </c>
       <c r="C44" t="n">
-        <v>1197.866044795582</v>
+        <v>1197.866044795581</v>
       </c>
       <c r="D44" t="n">
-        <v>981.2207722262062</v>
+        <v>981.220772226206</v>
       </c>
       <c r="E44" t="n">
-        <v>742.6137445357143</v>
+        <v>742.6137445357142</v>
       </c>
       <c r="F44" t="n">
-        <v>484.6412460492859</v>
+        <v>484.6412460492857</v>
       </c>
       <c r="G44" t="n">
-        <v>225.2354192104185</v>
+        <v>225.2354192104187</v>
       </c>
       <c r="H44" t="n">
-        <v>53.91283358179796</v>
+        <v>53.91283358179798</v>
       </c>
       <c r="I44" t="n">
-        <v>53.9128335817975</v>
+        <v>53.91283358179798</v>
       </c>
       <c r="J44" t="n">
-        <v>169.1231586984372</v>
+        <v>169.1231586984387</v>
       </c>
       <c r="K44" t="n">
-        <v>474.0267887295096</v>
+        <v>474.0267887295111</v>
       </c>
       <c r="L44" t="n">
-        <v>902.2567101054567</v>
+        <v>902.2567101054583</v>
       </c>
       <c r="M44" t="n">
-        <v>1384.894667069393</v>
+        <v>1384.894667069395</v>
       </c>
       <c r="N44" t="n">
-        <v>1854.071382365217</v>
+        <v>1854.071382365219</v>
       </c>
       <c r="O44" t="n">
-        <v>2244.858661012063</v>
+        <v>2244.858661012064</v>
       </c>
       <c r="P44" t="n">
-        <v>2546.229102292863</v>
+        <v>2546.229102292864</v>
       </c>
       <c r="Q44" t="n">
-        <v>2695.641679089898</v>
+        <v>2695.641679089899</v>
       </c>
       <c r="R44" t="n">
-        <v>2695.641679089898</v>
+        <v>2695.641679089899</v>
       </c>
       <c r="S44" t="n">
-        <v>2676.42876166066</v>
+        <v>2676.428761660661</v>
       </c>
       <c r="T44" t="n">
         <v>2610.522476591836</v>
@@ -7682,10 +7682,10 @@
         <v>2511.857389909514</v>
       </c>
       <c r="V44" t="n">
-        <v>2331.056808008855</v>
+        <v>2331.056808008856</v>
       </c>
       <c r="W44" t="n">
-        <v>2124.700570069857</v>
+        <v>2124.700570069858</v>
       </c>
       <c r="X44" t="n">
         <v>1898.849121794752</v>
@@ -7722,28 +7722,28 @@
         <v>112.7257066197899</v>
       </c>
       <c r="I45" t="n">
-        <v>53.91283358179796</v>
+        <v>53.91283358179798</v>
       </c>
       <c r="J45" t="n">
-        <v>139.903620755157</v>
+        <v>53.91283358179798</v>
       </c>
       <c r="K45" t="n">
-        <v>413.382191441347</v>
+        <v>164.2028652761394</v>
       </c>
       <c r="L45" t="n">
-        <v>838.3513554404735</v>
+        <v>589.1720292752659</v>
       </c>
       <c r="M45" t="n">
-        <v>1392.406840225358</v>
+        <v>1143.22751406015</v>
       </c>
       <c r="N45" t="n">
-        <v>1532.797750820706</v>
+        <v>1725.342101891009</v>
       </c>
       <c r="O45" t="n">
-        <v>1989.810641803167</v>
+        <v>2182.354992873471</v>
       </c>
       <c r="P45" t="n">
-        <v>2343.924659597751</v>
+        <v>2536.469010668054</v>
       </c>
       <c r="Q45" t="n">
         <v>2536.469010668054</v>
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>80.98038781919811</v>
+        <v>113.7930780590222</v>
       </c>
       <c r="C46" t="n">
-        <v>67.54311048427959</v>
+        <v>100.3558007241036</v>
       </c>
       <c r="D46" t="n">
-        <v>67.54311048427959</v>
+        <v>100.3558007241036</v>
       </c>
       <c r="E46" t="n">
-        <v>67.54311048427959</v>
+        <v>100.3558007241036</v>
       </c>
       <c r="F46" t="n">
-        <v>67.54311048427959</v>
+        <v>100.3558007241036</v>
       </c>
       <c r="G46" t="n">
-        <v>55.03506929431308</v>
+        <v>55.03506929431327</v>
       </c>
       <c r="H46" t="n">
-        <v>53.91283358179796</v>
+        <v>53.91283358179798</v>
       </c>
       <c r="I46" t="n">
-        <v>53.91283358179796</v>
+        <v>53.91283358179798</v>
       </c>
       <c r="J46" t="n">
-        <v>53.91283358179796</v>
+        <v>53.91283358179798</v>
       </c>
       <c r="K46" t="n">
         <v>114.0504199635336</v>
@@ -7813,7 +7813,7 @@
         <v>248.61111448985</v>
       </c>
       <c r="M46" t="n">
-        <v>402.4039471197507</v>
+        <v>402.4039471197508</v>
       </c>
       <c r="N46" t="n">
         <v>555.7743874028546</v>
@@ -7831,25 +7831,25 @@
         <v>777.1080526405619</v>
       </c>
       <c r="S46" t="n">
-        <v>723.6378023635203</v>
+        <v>723.6378023635201</v>
       </c>
       <c r="T46" t="n">
-        <v>647.6331519483065</v>
+        <v>647.6331519483061</v>
       </c>
       <c r="U46" t="n">
-        <v>516.6343145629229</v>
+        <v>516.6343145629224</v>
       </c>
       <c r="V46" t="n">
-        <v>412.0777023247467</v>
+        <v>412.077702324746</v>
       </c>
       <c r="W46" t="n">
-        <v>249.2873028057215</v>
+        <v>282.0999930455462</v>
       </c>
       <c r="X46" t="n">
-        <v>174.2135309044985</v>
+        <v>207.026221144323</v>
       </c>
       <c r="Y46" t="n">
-        <v>108.3570643001768</v>
+        <v>141.1697545400011</v>
       </c>
     </row>
   </sheetData>
@@ -7985,10 +7985,10 @@
         <v>203.5031588434685</v>
       </c>
       <c r="M2" t="n">
-        <v>198.6167178772967</v>
+        <v>199.099261177513</v>
       </c>
       <c r="N2" t="n">
-        <v>186.3981141722301</v>
+        <v>197.8585175523677</v>
       </c>
       <c r="O2" t="n">
         <v>186.9547967801205</v>
@@ -7997,7 +7997,7 @@
         <v>187.8768090511565</v>
       </c>
       <c r="Q2" t="n">
-        <v>192.5663197033441</v>
+        <v>180.6233730229902</v>
       </c>
       <c r="R2" t="n">
         <v>85.43134583487716</v>
@@ -8055,22 +8055,22 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J3" t="n">
-        <v>103.0555716666667</v>
+        <v>114.9985183470206</v>
       </c>
       <c r="K3" t="n">
-        <v>123.4565725468042</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L3" t="n">
-        <v>124.5183802515017</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M3" t="n">
         <v>115.4839025616399</v>
       </c>
       <c r="N3" t="n">
-        <v>118.6580877480622</v>
+        <v>118.1755444478459</v>
       </c>
       <c r="O3" t="n">
-        <v>115.8594486111111</v>
+        <v>127.802395291465</v>
       </c>
       <c r="P3" t="n">
         <v>108.8542060241433</v>
@@ -8140,19 +8140,19 @@
         <v>104.82327226356</v>
       </c>
       <c r="L4" t="n">
-        <v>121.53674615886</v>
+        <v>109.5937994785061</v>
       </c>
       <c r="M4" t="n">
-        <v>124.820146137783</v>
+        <v>124.3376028375667</v>
       </c>
       <c r="N4" t="n">
-        <v>103.744504878002</v>
+        <v>115.6874515583558</v>
       </c>
       <c r="O4" t="n">
         <v>124.4388841724762</v>
       </c>
       <c r="P4" t="n">
-        <v>123.36440667007</v>
+        <v>123.8469499702863</v>
       </c>
       <c r="Q4" t="n">
         <v>84.9458458910769</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>147.0997974279326</v>
+        <v>159.0427441082865</v>
       </c>
       <c r="K5" t="n">
         <v>178.8230039740467</v>
@@ -8222,7 +8222,7 @@
         <v>191.5602121631146</v>
       </c>
       <c r="M5" t="n">
-        <v>198.6167178772967</v>
+        <v>187.1563144971591</v>
       </c>
       <c r="N5" t="n">
         <v>198.341060852584</v>
@@ -8231,7 +8231,7 @@
         <v>198.8977434604743</v>
       </c>
       <c r="P5" t="n">
-        <v>199.8197557315104</v>
+        <v>199.3372124312941</v>
       </c>
       <c r="Q5" t="n">
         <v>180.6233730229902</v>
@@ -8298,16 +8298,16 @@
         <v>123.9391158470206</v>
       </c>
       <c r="L6" t="n">
-        <v>124.5183802515017</v>
+        <v>124.0358369512853</v>
       </c>
       <c r="M6" t="n">
-        <v>115.4839025616399</v>
+        <v>127.4268492419938</v>
       </c>
       <c r="N6" t="n">
         <v>106.7151410677083</v>
       </c>
       <c r="O6" t="n">
-        <v>127.3198519912487</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P6" t="n">
         <v>108.8542060241433</v>
@@ -8377,7 +8377,7 @@
         <v>104.82327226356</v>
       </c>
       <c r="L7" t="n">
-        <v>121.0542028586437</v>
+        <v>109.5937994785061</v>
       </c>
       <c r="M7" t="n">
         <v>124.820146137783</v>
@@ -8389,7 +8389,7 @@
         <v>124.4388841724762</v>
       </c>
       <c r="P7" t="n">
-        <v>111.9040032899324</v>
+        <v>123.36440667007</v>
       </c>
       <c r="Q7" t="n">
         <v>84.9458458910769</v>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>147.0997974279326</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K8" t="n">
-        <v>178.8230039740467</v>
+        <v>314.5524032714785</v>
       </c>
       <c r="L8" t="n">
-        <v>191.5602121631146</v>
+        <v>327.2896114605464</v>
       </c>
       <c r="M8" t="n">
-        <v>222.0155828264754</v>
+        <v>187.1563144971591</v>
       </c>
       <c r="N8" t="n">
-        <v>322.1275134696619</v>
+        <v>243.917695040669</v>
       </c>
       <c r="O8" t="n">
         <v>322.6841960775522</v>
       </c>
       <c r="P8" t="n">
-        <v>323.6062083485883</v>
+        <v>187.8768090511565</v>
       </c>
       <c r="Q8" t="n">
-        <v>276.0094878578761</v>
+        <v>180.6233730229902</v>
       </c>
       <c r="R8" t="n">
         <v>85.43134583487716</v>
@@ -8532,10 +8532,10 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K9" t="n">
-        <v>111.9961691666667</v>
+        <v>247.7255684640984</v>
       </c>
       <c r="L9" t="n">
-        <v>248.3048328685796</v>
+        <v>242.82081673535</v>
       </c>
       <c r="M9" t="n">
         <v>251.2133018590717</v>
@@ -8544,7 +8544,7 @@
         <v>242.4445403651401</v>
       </c>
       <c r="O9" t="n">
-        <v>246.1048317753133</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P9" t="n">
         <v>108.8542060241433</v>
@@ -8766,16 +8766,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>81.45724643170357</v>
+        <v>81.4572464317036</v>
       </c>
       <c r="K12" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L12" t="n">
-        <v>482.0924488944969</v>
+        <v>196.3710204451189</v>
       </c>
       <c r="M12" t="n">
-        <v>508.2418890422711</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N12" t="n">
         <v>623.1450866466196</v>
@@ -8787,7 +8787,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q12" t="n">
-        <v>84.55373943995461</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -9003,10 +9003,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>163.9183459425315</v>
+        <v>81.45724643170358</v>
       </c>
       <c r="K15" t="n">
-        <v>343.8048081163522</v>
+        <v>246.6301142836234</v>
       </c>
       <c r="L15" t="n">
         <v>482.0924488944969</v>
@@ -9015,7 +9015,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N15" t="n">
-        <v>254.9625586864134</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O15" t="n">
         <v>512.0210150597484</v>
@@ -9024,7 +9024,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q15" t="n">
-        <v>273.1004740566038</v>
+        <v>84.55373943995463</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9167,7 +9167,7 @@
         <v>421.3890363425141</v>
       </c>
       <c r="L17" t="n">
-        <v>542.959578915585</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M17" t="n">
         <v>584.3675935406823</v>
@@ -9240,7 +9240,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>81.45724643170357</v>
+        <v>81.45724643170362</v>
       </c>
       <c r="K18" t="n">
         <v>343.8048081163522</v>
@@ -9255,13 +9255,13 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O18" t="n">
-        <v>414.8463212270196</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P18" t="n">
-        <v>414.0015992319183</v>
+        <v>316.82690539919</v>
       </c>
       <c r="Q18" t="n">
-        <v>84.55373943995463</v>
+        <v>84.5537394399547</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9401,7 +9401,7 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K20" t="n">
-        <v>421.3890363425141</v>
+        <v>421.3890363425151</v>
       </c>
       <c r="L20" t="n">
         <v>542.9595789155856</v>
@@ -9477,7 +9477,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>81.45724643170355</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K21" t="n">
         <v>343.8048081163522</v>
@@ -9486,10 +9486,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M21" t="n">
-        <v>319.6951544256215</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N21" t="n">
-        <v>623.1450866466196</v>
+        <v>254.9625586864142</v>
       </c>
       <c r="O21" t="n">
         <v>512.0210150597484</v>
@@ -9723,16 +9723,16 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M24" t="n">
-        <v>516.9219773791135</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N24" t="n">
-        <v>623.1450866466196</v>
+        <v>176.9595540854972</v>
       </c>
       <c r="O24" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P24" t="n">
-        <v>56.31067216668227</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q24" t="n">
         <v>273.1004740566038</v>
@@ -9960,7 +9960,7 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M27" t="n">
-        <v>159.2310503138771</v>
+        <v>159.2310503138769</v>
       </c>
       <c r="N27" t="n">
         <v>623.1450866466196</v>
@@ -10188,10 +10188,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>77.05896495934049</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K30" t="n">
-        <v>67.56382762525129</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L30" t="n">
         <v>482.0924488944969</v>
@@ -10200,7 +10200,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N30" t="n">
-        <v>623.1450866466196</v>
+        <v>371.4487975908542</v>
       </c>
       <c r="O30" t="n">
         <v>512.0210150597484</v>
@@ -10209,7 +10209,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q30" t="n">
-        <v>190.0153029697735</v>
+        <v>78.61123055124679</v>
       </c>
       <c r="R30" t="n">
         <v>59.17817075471706</v>
@@ -10425,7 +10425,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>163.9183459425315</v>
+        <v>77.05896495934049</v>
       </c>
       <c r="K33" t="n">
         <v>67.56382762525129</v>
@@ -10443,7 +10443,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P33" t="n">
-        <v>244.057047161897</v>
+        <v>330.9164281450878</v>
       </c>
       <c r="Q33" t="n">
         <v>273.1004740566038</v>
@@ -10665,7 +10665,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K36" t="n">
-        <v>67.56382762525129</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L36" t="n">
         <v>482.0924488944969</v>
@@ -10680,10 +10680,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P36" t="n">
-        <v>244.057047161897</v>
+        <v>162.3053101761527</v>
       </c>
       <c r="Q36" t="n">
-        <v>273.1004740566038</v>
+        <v>78.61123055124679</v>
       </c>
       <c r="R36" t="n">
         <v>59.17817075471706</v>
@@ -10841,7 +10841,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q38" t="n">
-        <v>276.0094878578794</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R38" t="n">
         <v>85.43134583487716</v>
@@ -10902,7 +10902,7 @@
         <v>77.05896495934049</v>
       </c>
       <c r="K39" t="n">
-        <v>343.8048081163522</v>
+        <v>178.967900043778</v>
       </c>
       <c r="L39" t="n">
         <v>482.0924488944969</v>
@@ -10911,7 +10911,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
-        <v>263.8189350686882</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O39" t="n">
         <v>512.0210150597484</v>
@@ -10920,7 +10920,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q39" t="n">
-        <v>273.1004740566038</v>
+        <v>78.61123055124679</v>
       </c>
       <c r="R39" t="n">
         <v>59.17817075471706</v>
@@ -11136,10 +11136,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
-        <v>77.05896495934049</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K42" t="n">
-        <v>178.967900043778</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L42" t="n">
         <v>482.0924488944969</v>
@@ -11154,7 +11154,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P42" t="n">
-        <v>414.0015992319183</v>
+        <v>162.3053101761527</v>
       </c>
       <c r="Q42" t="n">
         <v>78.61123055124679</v>
@@ -11373,10 +11373,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>163.9183459425315</v>
+        <v>77.05896495934049</v>
       </c>
       <c r="K45" t="n">
-        <v>343.8048081163522</v>
+        <v>178.967900043778</v>
       </c>
       <c r="L45" t="n">
         <v>482.0924488944969</v>
@@ -11385,7 +11385,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N45" t="n">
-        <v>176.9595540854972</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O45" t="n">
         <v>512.0210150597484</v>
@@ -11394,7 +11394,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q45" t="n">
-        <v>273.1004740566038</v>
+        <v>78.61123055124679</v>
       </c>
       <c r="R45" t="n">
         <v>59.17817075471706</v>
@@ -23258,25 +23258,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>116.0191305076854</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>300.4375137109658</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>221.3167480248673</v>
+        <v>319.609329798943</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>321.1153330177604</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>64.21655629737859</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>299.206087885932</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23422,10 +23422,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>60.08857511230596</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>60.55549944049227</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23470,19 +23470,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>92.32448968130701</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>167.7276024131733</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>174.6554200565909</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>129.4144582356573</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23492,19 +23492,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>299.7027551388506</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>241.9763387255774</v>
       </c>
       <c r="D14" t="n">
-        <v>278.6953761410603</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>319.609329798943</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>64.21655629737863</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,22 +23543,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>85.22004276824644</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>129.8446566917166</v>
       </c>
       <c r="U14" t="n">
-        <v>161.9019527648691</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>243.2091323790298</v>
       </c>
       <c r="W14" t="n">
-        <v>16.15333320618996</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>287.8094900897332</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>91.31946601354764</v>
+        <v>91.31946601354774</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>61.14082525652661</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>49.00865374810859</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>121.6490982205574</v>
+        <v>140.914077451582</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>129.4144582356573</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23789,7 +23789,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>100.9211375401177</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>100.9211375401163</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -24026,13 +24026,13 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>100.9211375401172</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>100.921137540118</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>871932.2640996004</v>
+        <v>871932.2640996001</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>871932.2640996005</v>
+        <v>871932.2640995999</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>967435.4949527375</v>
+        <v>967435.4949527376</v>
       </c>
     </row>
     <row r="9">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>975646.1509706853</v>
+        <v>975646.1509706852</v>
       </c>
     </row>
     <row r="15">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>479765.0378088636</v>
+      </c>
+      <c r="C2" t="n">
         <v>479765.0378088634</v>
       </c>
-      <c r="C2" t="n">
-        <v>479765.0378088635</v>
-      </c>
       <c r="D2" t="n">
-        <v>479765.0378088636</v>
+        <v>479765.0378088638</v>
       </c>
       <c r="E2" t="n">
-        <v>421686.8607422773</v>
+        <v>421686.860742277</v>
       </c>
       <c r="F2" t="n">
-        <v>421686.8607422772</v>
+        <v>421686.860742277</v>
       </c>
       <c r="G2" t="n">
+        <v>474744.2112162423</v>
+      </c>
+      <c r="H2" t="n">
         <v>474744.2112162429</v>
       </c>
-      <c r="H2" t="n">
-        <v>474744.2112162426</v>
-      </c>
       <c r="I2" t="n">
-        <v>479765.0378088632</v>
+        <v>479765.0378088631</v>
       </c>
       <c r="J2" t="n">
-        <v>479765.0378088625</v>
+        <v>479765.0378088623</v>
       </c>
       <c r="K2" t="n">
         <v>479765.0378088625</v>
       </c>
       <c r="L2" t="n">
-        <v>479765.037808863</v>
+        <v>479765.0378088632</v>
       </c>
       <c r="M2" t="n">
-        <v>479765.0378088632</v>
+        <v>479765.0378088631</v>
       </c>
       <c r="N2" t="n">
-        <v>479765.0378088636</v>
+        <v>479765.0378088633</v>
       </c>
       <c r="O2" t="n">
         <v>479765.0378088631</v>
       </c>
       <c r="P2" t="n">
-        <v>479765.037808863</v>
+        <v>479765.0378088632</v>
       </c>
     </row>
     <row r="3">
@@ -26372,37 +26372,37 @@
         <v>38451.7857764429</v>
       </c>
       <c r="E3" t="n">
-        <v>310889.6815411298</v>
+        <v>310889.6815411297</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>51373.24503790285</v>
+        <v>51373.24503790274</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>22977.84023709979</v>
+        <v>22977.8402371001</v>
       </c>
       <c r="J3" t="n">
-        <v>86126.4533907999</v>
+        <v>86126.45339079978</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>76994.06985477505</v>
+        <v>76994.06985477515</v>
       </c>
       <c r="M3" t="n">
-        <v>124868.477949663</v>
+        <v>124868.4779496631</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>31023.79419375642</v>
+        <v>31023.79419375627</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>377792.6631872023</v>
+        <v>377792.6631872022</v>
       </c>
       <c r="C4" t="n">
-        <v>377792.6631872023</v>
+        <v>377792.6631872022</v>
       </c>
       <c r="D4" t="n">
         <v>355758.3782119924</v>
       </c>
       <c r="E4" t="n">
-        <v>207596.2836021425</v>
+        <v>207596.2836021424</v>
       </c>
       <c r="F4" t="n">
         <v>207596.2836021424</v>
@@ -26451,10 +26451,10 @@
         <v>254054.4898786905</v>
       </c>
       <c r="N4" t="n">
-        <v>254054.4898786905</v>
+        <v>254054.4898786904</v>
       </c>
       <c r="O4" t="n">
-        <v>254054.4898786905</v>
+        <v>254054.4898786904</v>
       </c>
       <c r="P4" t="n">
         <v>254054.4898786905</v>
@@ -26476,16 +26476,16 @@
         <v>41879.94747728385</v>
       </c>
       <c r="E5" t="n">
-        <v>49361.91373419182</v>
+        <v>49361.91373419181</v>
       </c>
       <c r="F5" t="n">
-        <v>49361.91373419182</v>
+        <v>49361.91373419181</v>
       </c>
       <c r="G5" t="n">
-        <v>54760.53540555614</v>
+        <v>54760.53540555613</v>
       </c>
       <c r="H5" t="n">
-        <v>54760.53540555615</v>
+        <v>54760.53540555613</v>
       </c>
       <c r="I5" t="n">
         <v>56761.01511305997</v>
@@ -26494,16 +26494,16 @@
         <v>64499.77178075271</v>
       </c>
       <c r="K5" t="n">
-        <v>64499.77178075271</v>
+        <v>64499.7717807527</v>
       </c>
       <c r="L5" t="n">
-        <v>59665.95186354641</v>
+        <v>59665.9518635464</v>
       </c>
       <c r="M5" t="n">
-        <v>56761.01511305997</v>
+        <v>56761.01511305998</v>
       </c>
       <c r="N5" t="n">
-        <v>56761.01511306</v>
+        <v>56761.01511305996</v>
       </c>
       <c r="O5" t="n">
         <v>56761.01511305997</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>63616.28734313537</v>
+        <v>63616.28734313555</v>
       </c>
       <c r="C6" t="n">
         <v>67618.64346349568</v>
       </c>
       <c r="D6" t="n">
-        <v>43674.92634314448</v>
+        <v>43674.92634314459</v>
       </c>
       <c r="E6" t="n">
-        <v>-146161.0181351868</v>
+        <v>-146393.3308434532</v>
       </c>
       <c r="F6" t="n">
-        <v>164728.663405943</v>
+        <v>164496.3506976766</v>
       </c>
       <c r="G6" t="n">
-        <v>112762.6757635316</v>
+        <v>112742.5924571607</v>
       </c>
       <c r="H6" t="n">
-        <v>164135.9208014341</v>
+        <v>164115.837495064</v>
       </c>
       <c r="I6" t="n">
-        <v>145971.692580013</v>
+        <v>145971.6925800126</v>
       </c>
       <c r="J6" t="n">
         <v>74044.06696673935</v>
       </c>
       <c r="K6" t="n">
-        <v>160170.5203575392</v>
+        <v>160170.5203575393</v>
       </c>
       <c r="L6" t="n">
-        <v>88673.2834980753</v>
+        <v>88673.28349807537</v>
       </c>
       <c r="M6" t="n">
-        <v>44081.05486744973</v>
+        <v>44081.05486744957</v>
       </c>
       <c r="N6" t="n">
-        <v>168949.5328171131</v>
+        <v>168949.532817113</v>
       </c>
       <c r="O6" t="n">
-        <v>137925.7386233562</v>
+        <v>137925.7386233564</v>
       </c>
       <c r="P6" t="n">
-        <v>168949.5328171125</v>
+        <v>168949.5328171128</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>90.40034898398838</v>
+        <v>90.40034898398832</v>
       </c>
       <c r="F2" t="n">
-        <v>90.40034898398838</v>
+        <v>90.40034898398828</v>
       </c>
       <c r="G2" t="n">
         <v>154.6169052813669</v>
@@ -26704,7 +26704,7 @@
         <v>154.6169052813669</v>
       </c>
       <c r="I2" t="n">
-        <v>154.6169052813669</v>
+        <v>154.616905281367</v>
       </c>
       <c r="J2" t="n">
         <v>102.9962990395739</v>
@@ -26716,16 +26716,16 @@
         <v>135.0223300606642</v>
       </c>
       <c r="M2" t="n">
+        <v>154.6169052813671</v>
+      </c>
+      <c r="N2" t="n">
+        <v>154.6169052813669</v>
+      </c>
+      <c r="O2" t="n">
         <v>154.616905281367</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>154.616905281367</v>
-      </c>
-      <c r="O2" t="n">
-        <v>154.6169052813672</v>
-      </c>
-      <c r="P2" t="n">
-        <v>154.6169052813672</v>
       </c>
     </row>
     <row r="3">
@@ -26744,22 +26744,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>106.282088803031</v>
+        <v>106.2820888030309</v>
       </c>
       <c r="F3" t="n">
         <v>106.282088803031</v>
       </c>
       <c r="G3" t="n">
-        <v>106.282088803031</v>
+        <v>106.2820888030307</v>
       </c>
       <c r="H3" t="n">
-        <v>106.2820888030311</v>
+        <v>106.2820888030307</v>
       </c>
       <c r="I3" t="n">
         <v>127.9253660914803</v>
       </c>
       <c r="J3" t="n">
-        <v>127.9253660914804</v>
+        <v>127.9253660914805</v>
       </c>
       <c r="K3" t="n">
         <v>127.9253660914803</v>
@@ -26796,40 +26796,40 @@
         <v>135.7293992974318</v>
       </c>
       <c r="E4" t="n">
-        <v>648.768047032086</v>
+        <v>648.7680470320859</v>
       </c>
       <c r="F4" t="n">
-        <v>648.768047032086</v>
+        <v>648.7680470320859</v>
       </c>
       <c r="G4" t="n">
-        <v>648.768047032086</v>
+        <v>648.7680470320859</v>
       </c>
       <c r="H4" t="n">
-        <v>648.768047032086</v>
+        <v>648.7680470320859</v>
       </c>
       <c r="I4" t="n">
         <v>673.9104197724747</v>
       </c>
       <c r="J4" t="n">
-        <v>872.5691272368504</v>
+        <v>872.5691272368502</v>
       </c>
       <c r="K4" t="n">
-        <v>872.5691272368504</v>
+        <v>872.5691272368501</v>
       </c>
       <c r="L4" t="n">
-        <v>748.7826746197725</v>
+        <v>748.7826746197723</v>
       </c>
       <c r="M4" t="n">
         <v>673.9104197724747</v>
       </c>
       <c r="N4" t="n">
-        <v>673.9104197724752</v>
+        <v>673.9104197724747</v>
       </c>
       <c r="O4" t="n">
-        <v>673.9104197724745</v>
+        <v>673.9104197724747</v>
       </c>
       <c r="P4" t="n">
-        <v>673.9104197724745</v>
+        <v>673.9104197724747</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>90.40034898398838</v>
+        <v>90.40034898398832</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>64.21655629737856</v>
+        <v>64.21655629737866</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>38.77974274219535</v>
+        <v>38.77974274219525</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>96.24258731846881</v>
+        <v>96.24258731846895</v>
       </c>
       <c r="M2" t="n">
         <v>19.59457522070284</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>38.77974274219552</v>
+        <v>38.77974274219534</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>106.282088803031</v>
+        <v>106.2820888030309</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>21.64327728844924</v>
+        <v>21.64327728844961</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>123.7864526170779</v>
       </c>
       <c r="E4" t="n">
-        <v>513.0386477346542</v>
+        <v>513.0386477346541</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>25.14237274038874</v>
+        <v>25.14237274038885</v>
       </c>
       <c r="J4" t="n">
-        <v>210.6016541447295</v>
+        <v>210.6016541447294</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>438.1663928873564</v>
+        <v>438.1663928873566</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>90.40034898398838</v>
+        <v>90.40034898398832</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>64.21655629737856</v>
+        <v>64.21655629737866</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>38.77974274219535</v>
+        <v>38.77974274219525</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>123.7864526170779</v>
       </c>
       <c r="M4" t="n">
-        <v>513.0386477346542</v>
+        <v>513.0386477346541</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,22 +27382,22 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D2" t="n">
-        <v>369.0957251250487</v>
+        <v>358.576377688993</v>
       </c>
       <c r="E2" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F2" t="n">
-        <v>399.4903313468757</v>
+        <v>398.0667321025775</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>329.4930616586638</v>
+        <v>317.5501149783099</v>
       </c>
       <c r="I2" t="n">
-        <v>159.1460801229381</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.7889569587513</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S2" t="n">
         <v>185.3566856159496</v>
@@ -27476,7 +27476,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I3" t="n">
-        <v>55.75551577648572</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27509,10 +27509,10 @@
         <v>139.3285454370332</v>
       </c>
       <c r="T3" t="n">
-        <v>176.2789053596189</v>
+        <v>174.8553061153208</v>
       </c>
       <c r="U3" t="n">
-        <v>216.3098444776729</v>
+        <v>205.7904970416172</v>
       </c>
       <c r="V3" t="n">
         <v>226.1116663261494</v>
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>181.719814997536</v>
+        <v>169.7768683171821</v>
       </c>
       <c r="C4" t="n">
-        <v>167.9198098429365</v>
+        <v>157.4004624068808</v>
       </c>
       <c r="D4" t="n">
         <v>151.5411742405149</v>
       </c>
       <c r="E4" t="n">
-        <v>139.9695766602387</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F4" t="n">
         <v>150.9558484244806</v>
@@ -27555,10 +27555,10 @@
         <v>157.7789187685189</v>
       </c>
       <c r="I4" t="n">
-        <v>130.8180672729944</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J4" t="n">
-        <v>47.51371951961512</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>26.20902125249397</v>
       </c>
       <c r="R4" t="n">
-        <v>148.0265635717656</v>
+        <v>136.0836168914117</v>
       </c>
       <c r="S4" t="n">
         <v>211.5726649703493</v>
@@ -27634,7 +27634,7 @@
         <v>329.4930616586638</v>
       </c>
       <c r="I5" t="n">
-        <v>159.1460801229381</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y5" t="n">
-        <v>389.6064368699203</v>
+        <v>377.6634901895665</v>
       </c>
     </row>
     <row r="6">
@@ -27713,7 +27713,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I6" t="n">
-        <v>55.75551577648572</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,28 +27740,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>47.24347953564978</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S6" t="n">
-        <v>139.3285454370332</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T6" t="n">
-        <v>176.2789053596189</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U6" t="n">
         <v>216.3098444776729</v>
       </c>
       <c r="V6" t="n">
-        <v>226.1116663261494</v>
+        <v>214.1687196457955</v>
       </c>
       <c r="W6" t="n">
-        <v>238.9027100790231</v>
+        <v>226.9597633986692</v>
       </c>
       <c r="X6" t="n">
-        <v>195.9378182409833</v>
+        <v>183.9948715606295</v>
       </c>
       <c r="Y6" t="n">
-        <v>190.5961130869169</v>
+        <v>180.0767656508612</v>
       </c>
     </row>
     <row r="7">
@@ -27783,16 +27783,16 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F7" t="n">
-        <v>139.0129017441268</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G7" t="n">
         <v>167.2305511458285</v>
       </c>
       <c r="H7" t="n">
-        <v>157.7789187685189</v>
+        <v>145.835972088165</v>
       </c>
       <c r="I7" t="n">
-        <v>142.7610139533483</v>
+        <v>132.2416665172925</v>
       </c>
       <c r="J7" t="n">
         <v>47.51371951961512</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>26.20902125249397</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R7" t="n">
-        <v>137.5072161357099</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S7" t="n">
         <v>211.5726649703493</v>
@@ -27834,7 +27834,7 @@
         <v>258.1279513971616</v>
       </c>
       <c r="W7" t="n">
-        <v>283.2948374677749</v>
+        <v>271.351890787421</v>
       </c>
       <c r="X7" t="n">
         <v>228.939939463578</v>
@@ -27862,13 +27862,13 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F8" t="n">
-        <v>302.4021705621073</v>
+        <v>274.2802794854996</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>276.2135473829221</v>
       </c>
       <c r="H8" t="n">
-        <v>193.763662361232</v>
+        <v>299.6745103965911</v>
       </c>
       <c r="I8" t="n">
         <v>35.35962750586017</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>49.6272863185178</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T8" t="n">
         <v>222.1153568062989</v>
@@ -27929,19 +27929,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>157.8252483534483</v>
+        <v>22.0958490560165</v>
       </c>
       <c r="C9" t="n">
-        <v>160.0866360314548</v>
+        <v>24.35723673402308</v>
       </c>
       <c r="D9" t="n">
-        <v>106.1675510689902</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E9" t="n">
-        <v>9.828330546265704</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -27998,7 +27998,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y9" t="n">
-        <v>190.5961130869169</v>
+        <v>161.6959527440245</v>
       </c>
     </row>
     <row r="10">
@@ -28014,25 +28014,25 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D10" t="n">
-        <v>129.599353472154</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E10" t="n">
-        <v>14.75952479886257</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F10" t="n">
-        <v>15.22644912704888</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G10" t="n">
         <v>31.50115184839672</v>
       </c>
       <c r="H10" t="n">
-        <v>157.7789187685189</v>
+        <v>38.22846386734111</v>
       </c>
       <c r="I10" t="n">
         <v>142.7610139533483</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R10" t="n">
         <v>148.0265635717656</v>
@@ -28071,10 +28071,10 @@
         <v>258.1279513971616</v>
       </c>
       <c r="W10" t="n">
-        <v>283.2948374677749</v>
+        <v>147.5654381703431</v>
       </c>
       <c r="X10" t="n">
-        <v>228.939939463578</v>
+        <v>93.21054016614622</v>
       </c>
       <c r="Y10" t="n">
         <v>219.8148072196457</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>90.40034898398838</v>
+        <v>90.40034898398832</v>
       </c>
       <c r="C11" t="n">
-        <v>90.40034898398838</v>
+        <v>90.40034898398832</v>
       </c>
       <c r="D11" t="n">
-        <v>90.40034898398838</v>
+        <v>90.40034898398832</v>
       </c>
       <c r="E11" t="n">
-        <v>90.40034898398838</v>
+        <v>90.40034898398832</v>
       </c>
       <c r="F11" t="n">
-        <v>90.40034898398838</v>
+        <v>90.40034898398832</v>
       </c>
       <c r="G11" t="n">
-        <v>90.40034898398838</v>
+        <v>90.40034898398832</v>
       </c>
       <c r="H11" t="n">
-        <v>90.40034898398838</v>
+        <v>90.40034898398832</v>
       </c>
       <c r="I11" t="n">
-        <v>90.40034898398838</v>
+        <v>90.40034898398832</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28135,28 +28135,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>62.89273877167444</v>
+        <v>62.89273877167446</v>
       </c>
       <c r="S11" t="n">
-        <v>90.40034898398838</v>
+        <v>90.40034898398832</v>
       </c>
       <c r="T11" t="n">
-        <v>90.40034898398838</v>
+        <v>90.40034898398832</v>
       </c>
       <c r="U11" t="n">
-        <v>90.40034898398838</v>
+        <v>90.40034898398832</v>
       </c>
       <c r="V11" t="n">
-        <v>90.40034898398838</v>
+        <v>90.40034898398832</v>
       </c>
       <c r="W11" t="n">
-        <v>90.40034898398838</v>
+        <v>90.40034898398832</v>
       </c>
       <c r="X11" t="n">
-        <v>90.40034898398838</v>
+        <v>90.40034898398832</v>
       </c>
       <c r="Y11" t="n">
-        <v>90.40034898398838</v>
+        <v>90.40034898398832</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>90.40034898398838</v>
+        <v>90.40034898398832</v>
       </c>
       <c r="C13" t="n">
-        <v>90.40034898398838</v>
+        <v>90.40034898398832</v>
       </c>
       <c r="D13" t="n">
-        <v>90.40034898398838</v>
+        <v>90.40034898398832</v>
       </c>
       <c r="E13" t="n">
-        <v>90.40034898398838</v>
+        <v>90.40034898398832</v>
       </c>
       <c r="F13" t="n">
-        <v>90.40034898398838</v>
+        <v>90.40034898398832</v>
       </c>
       <c r="G13" t="n">
-        <v>90.40034898398838</v>
+        <v>90.40034898398832</v>
       </c>
       <c r="H13" t="n">
-        <v>90.40034898398838</v>
+        <v>90.40034898398832</v>
       </c>
       <c r="I13" t="n">
-        <v>90.40034898398838</v>
+        <v>90.40034898398832</v>
       </c>
       <c r="J13" t="n">
-        <v>90.40034898398838</v>
+        <v>90.40034898398832</v>
       </c>
       <c r="K13" t="n">
-        <v>90.40034898398838</v>
+        <v>90.40034898398832</v>
       </c>
       <c r="L13" t="n">
-        <v>90.40034898398838</v>
+        <v>90.40034898398832</v>
       </c>
       <c r="M13" t="n">
-        <v>90.40034898398838</v>
+        <v>90.40034898398832</v>
       </c>
       <c r="N13" t="n">
-        <v>90.40034898398838</v>
+        <v>90.40034898398832</v>
       </c>
       <c r="O13" t="n">
-        <v>90.40034898398838</v>
+        <v>90.40034898398832</v>
       </c>
       <c r="P13" t="n">
-        <v>90.40034898398838</v>
+        <v>90.40034898398832</v>
       </c>
       <c r="Q13" t="n">
-        <v>90.40034898398838</v>
+        <v>90.40034898398832</v>
       </c>
       <c r="R13" t="n">
-        <v>90.40034898398838</v>
+        <v>90.40034898398832</v>
       </c>
       <c r="S13" t="n">
-        <v>90.40034898398838</v>
+        <v>90.40034898398832</v>
       </c>
       <c r="T13" t="n">
-        <v>90.40034898398838</v>
+        <v>90.40034898398832</v>
       </c>
       <c r="U13" t="n">
-        <v>90.40034898398838</v>
+        <v>90.40034898398832</v>
       </c>
       <c r="V13" t="n">
-        <v>90.40034898398838</v>
+        <v>90.40034898398832</v>
       </c>
       <c r="W13" t="n">
-        <v>90.40034898398838</v>
+        <v>90.40034898398832</v>
       </c>
       <c r="X13" t="n">
-        <v>90.40034898398838</v>
+        <v>90.40034898398832</v>
       </c>
       <c r="Y13" t="n">
-        <v>90.40034898398838</v>
+        <v>90.40034898398832</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>90.40034898398838</v>
+        <v>90.40034898398828</v>
       </c>
       <c r="C14" t="n">
-        <v>90.40034898398838</v>
+        <v>90.40034898398828</v>
       </c>
       <c r="D14" t="n">
-        <v>90.40034898398838</v>
+        <v>90.40034898398828</v>
       </c>
       <c r="E14" t="n">
-        <v>90.40034898398838</v>
+        <v>90.40034898398828</v>
       </c>
       <c r="F14" t="n">
-        <v>90.40034898398838</v>
+        <v>90.40034898398828</v>
       </c>
       <c r="G14" t="n">
-        <v>90.40034898398838</v>
+        <v>90.40034898398828</v>
       </c>
       <c r="H14" t="n">
-        <v>90.40034898398838</v>
+        <v>90.40034898398828</v>
       </c>
       <c r="I14" t="n">
-        <v>90.40034898398838</v>
+        <v>90.40034898398828</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28372,28 +28372,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>62.89273877167444</v>
+        <v>62.89273877167445</v>
       </c>
       <c r="S14" t="n">
-        <v>90.40034898398838</v>
+        <v>90.40034898398828</v>
       </c>
       <c r="T14" t="n">
-        <v>90.40034898398838</v>
+        <v>90.40034898398828</v>
       </c>
       <c r="U14" t="n">
-        <v>90.40034898398838</v>
+        <v>90.40034898398828</v>
       </c>
       <c r="V14" t="n">
-        <v>90.40034898398838</v>
+        <v>90.40034898398828</v>
       </c>
       <c r="W14" t="n">
-        <v>90.40034898398838</v>
+        <v>90.40034898398828</v>
       </c>
       <c r="X14" t="n">
-        <v>90.40034898398838</v>
+        <v>90.40034898398828</v>
       </c>
       <c r="Y14" t="n">
-        <v>90.40034898398838</v>
+        <v>90.40034898398828</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>90.40034898398838</v>
+        <v>90.40034898398828</v>
       </c>
       <c r="C16" t="n">
-        <v>90.40034898398838</v>
+        <v>90.40034898398828</v>
       </c>
       <c r="D16" t="n">
-        <v>90.40034898398838</v>
+        <v>90.40034898398828</v>
       </c>
       <c r="E16" t="n">
-        <v>90.40034898398838</v>
+        <v>90.40034898398828</v>
       </c>
       <c r="F16" t="n">
-        <v>90.40034898398838</v>
+        <v>90.40034898398828</v>
       </c>
       <c r="G16" t="n">
-        <v>90.40034898398838</v>
+        <v>90.40034898398828</v>
       </c>
       <c r="H16" t="n">
-        <v>90.40034898398838</v>
+        <v>90.40034898398828</v>
       </c>
       <c r="I16" t="n">
-        <v>90.40034898398838</v>
+        <v>90.40034898398828</v>
       </c>
       <c r="J16" t="n">
-        <v>90.40034898398838</v>
+        <v>90.40034898398828</v>
       </c>
       <c r="K16" t="n">
-        <v>90.40034898398838</v>
+        <v>90.40034898398828</v>
       </c>
       <c r="L16" t="n">
-        <v>90.40034898398838</v>
+        <v>90.40034898398828</v>
       </c>
       <c r="M16" t="n">
-        <v>90.40034898398838</v>
+        <v>90.40034898398828</v>
       </c>
       <c r="N16" t="n">
-        <v>90.40034898398838</v>
+        <v>90.40034898398828</v>
       </c>
       <c r="O16" t="n">
-        <v>90.40034898398838</v>
+        <v>90.40034898398828</v>
       </c>
       <c r="P16" t="n">
-        <v>90.40034898398838</v>
+        <v>90.40034898398828</v>
       </c>
       <c r="Q16" t="n">
-        <v>90.40034898398838</v>
+        <v>90.40034898398828</v>
       </c>
       <c r="R16" t="n">
-        <v>90.40034898398838</v>
+        <v>90.40034898398828</v>
       </c>
       <c r="S16" t="n">
-        <v>90.40034898398838</v>
+        <v>90.40034898398828</v>
       </c>
       <c r="T16" t="n">
-        <v>90.40034898398838</v>
+        <v>90.40034898398828</v>
       </c>
       <c r="U16" t="n">
-        <v>90.40034898398838</v>
+        <v>90.40034898398828</v>
       </c>
       <c r="V16" t="n">
-        <v>90.40034898398838</v>
+        <v>90.40034898398828</v>
       </c>
       <c r="W16" t="n">
-        <v>90.40034898398838</v>
+        <v>90.40034898398828</v>
       </c>
       <c r="X16" t="n">
-        <v>90.40034898398838</v>
+        <v>90.40034898398828</v>
       </c>
       <c r="Y16" t="n">
-        <v>90.40034898398838</v>
+        <v>90.40034898398828</v>
       </c>
     </row>
     <row r="17">
@@ -28609,7 +28609,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>62.89273877167444</v>
+        <v>62.89273877167452</v>
       </c>
       <c r="S17" t="n">
         <v>154.6169052813669</v>
@@ -28731,7 +28731,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F19" t="n">
-        <v>151.7361980852244</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G19" t="n">
         <v>154.6169052813669</v>
@@ -28743,7 +28743,7 @@
         <v>136.9973885474396</v>
       </c>
       <c r="J19" t="n">
-        <v>45.90657104224487</v>
+        <v>46.68692070298918</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28764,7 +28764,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>22.10337252359017</v>
+        <v>22.10337252359022</v>
       </c>
       <c r="R19" t="n">
         <v>139.4090027320969</v>
@@ -28846,7 +28846,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>62.89273877167442</v>
+        <v>62.89273877167452</v>
       </c>
       <c r="S20" t="n">
         <v>154.6169052813669</v>
@@ -28965,7 +28965,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E22" t="n">
-        <v>150.4889240962943</v>
+        <v>151.2692737570386</v>
       </c>
       <c r="F22" t="n">
         <v>150.9558484244806</v>
@@ -28980,7 +28980,7 @@
         <v>136.9973885474396</v>
       </c>
       <c r="J22" t="n">
-        <v>46.68692070298847</v>
+        <v>45.90657104224491</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29001,10 +29001,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>22.10337252359016</v>
+        <v>22.10337252359022</v>
       </c>
       <c r="R22" t="n">
-        <v>139.4090027320968</v>
+        <v>139.4090027320969</v>
       </c>
       <c r="S22" t="n">
         <v>154.6169052813669</v>
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>154.6169052813669</v>
+        <v>154.616905281367</v>
       </c>
       <c r="C23" t="n">
-        <v>154.6169052813669</v>
+        <v>154.616905281367</v>
       </c>
       <c r="D23" t="n">
-        <v>154.6169052813669</v>
+        <v>154.616905281367</v>
       </c>
       <c r="E23" t="n">
-        <v>154.6169052813669</v>
+        <v>154.616905281367</v>
       </c>
       <c r="F23" t="n">
-        <v>154.6169052813669</v>
+        <v>154.616905281367</v>
       </c>
       <c r="G23" t="n">
-        <v>154.6169052813669</v>
+        <v>154.616905281367</v>
       </c>
       <c r="H23" t="n">
-        <v>154.6169052813669</v>
+        <v>154.616905281367</v>
       </c>
       <c r="I23" t="n">
         <v>151.2625235822194</v>
@@ -29086,25 +29086,25 @@
         <v>57.4272130753104</v>
       </c>
       <c r="S23" t="n">
-        <v>154.6169052813669</v>
+        <v>154.616905281367</v>
       </c>
       <c r="T23" t="n">
-        <v>154.6169052813669</v>
+        <v>154.616905281367</v>
       </c>
       <c r="U23" t="n">
-        <v>154.6169052813669</v>
+        <v>154.616905281367</v>
       </c>
       <c r="V23" t="n">
-        <v>154.6169052813669</v>
+        <v>154.616905281367</v>
       </c>
       <c r="W23" t="n">
-        <v>154.6169052813669</v>
+        <v>154.616905281367</v>
       </c>
       <c r="X23" t="n">
-        <v>154.6169052813669</v>
+        <v>154.616905281367</v>
       </c>
       <c r="Y23" t="n">
-        <v>154.6169052813669</v>
+        <v>154.616905281367</v>
       </c>
     </row>
     <row r="24">
@@ -29193,10 +29193,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>154.6169052813669</v>
+        <v>154.616905281367</v>
       </c>
       <c r="C25" t="n">
-        <v>154.6169052813669</v>
+        <v>154.616905281367</v>
       </c>
       <c r="D25" t="n">
         <v>151.5411742405149</v>
@@ -29208,13 +29208,13 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G25" t="n">
-        <v>154.6169052813669</v>
+        <v>154.616905281367</v>
       </c>
       <c r="H25" t="n">
-        <v>154.6169052813669</v>
+        <v>154.616905281367</v>
       </c>
       <c r="I25" t="n">
-        <v>135.8236842643217</v>
+        <v>103.3391209268964</v>
       </c>
       <c r="J25" t="n">
         <v>43.14723059187978</v>
@@ -29238,31 +29238,31 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>18.83523765303432</v>
       </c>
       <c r="R25" t="n">
         <v>137.6541232326105</v>
       </c>
       <c r="S25" t="n">
-        <v>154.6169052813669</v>
+        <v>154.616905281367</v>
       </c>
       <c r="T25" t="n">
-        <v>154.6169052813669</v>
+        <v>154.616905281367</v>
       </c>
       <c r="U25" t="n">
-        <v>154.6169052813669</v>
+        <v>154.616905281367</v>
       </c>
       <c r="V25" t="n">
-        <v>140.9675795969765</v>
+        <v>154.616905281367</v>
       </c>
       <c r="W25" t="n">
-        <v>154.6169052813669</v>
+        <v>154.616905281367</v>
       </c>
       <c r="X25" t="n">
-        <v>154.6169052813669</v>
+        <v>154.616905281367</v>
       </c>
       <c r="Y25" t="n">
-        <v>154.6169052813669</v>
+        <v>154.616905281367</v>
       </c>
     </row>
     <row r="26">
@@ -29305,7 +29305,7 @@
         <v>102.9962990395739</v>
       </c>
       <c r="M26" t="n">
-        <v>20.06503617321681</v>
+        <v>102.9962990395739</v>
       </c>
       <c r="N26" t="n">
         <v>102.9962990395739</v>
@@ -29314,7 +29314,7 @@
         <v>102.9962990395739</v>
       </c>
       <c r="P26" t="n">
-        <v>102.9962990395739</v>
+        <v>20.06503617321607</v>
       </c>
       <c r="Q26" t="n">
         <v>102.9962990395739</v>
@@ -29536,7 +29536,7 @@
         <v>102.9962990395739</v>
       </c>
       <c r="K29" t="n">
-        <v>102.9962990395739</v>
+        <v>20.06503617321601</v>
       </c>
       <c r="L29" t="n">
         <v>102.9962990395739</v>
@@ -29548,7 +29548,7 @@
         <v>102.9962990395739</v>
       </c>
       <c r="O29" t="n">
-        <v>20.06503617321709</v>
+        <v>102.9962990395739</v>
       </c>
       <c r="P29" t="n">
         <v>102.9962990395739</v>
@@ -29770,7 +29770,7 @@
         <v>135.0223300606642</v>
       </c>
       <c r="J32" t="n">
-        <v>83.84643073318263</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -29779,16 +29779,16 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>83.84643073318102</v>
       </c>
       <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
         <v>135.0223300606642</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -29937,7 +29937,7 @@
         <v>135.0223300606642</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>104.1449672000298</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -29949,7 +29949,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>122.9802048530652</v>
+        <v>18.83523765303432</v>
       </c>
       <c r="R34" t="n">
         <v>135.0223300606642</v>
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>154.616905281367</v>
+        <v>154.6169052813671</v>
       </c>
       <c r="C35" t="n">
-        <v>154.616905281367</v>
+        <v>154.6169052813671</v>
       </c>
       <c r="D35" t="n">
-        <v>154.616905281367</v>
+        <v>154.6169052813671</v>
       </c>
       <c r="E35" t="n">
-        <v>154.616905281367</v>
+        <v>154.6169052813671</v>
       </c>
       <c r="F35" t="n">
-        <v>154.616905281367</v>
+        <v>154.6169052813671</v>
       </c>
       <c r="G35" t="n">
-        <v>154.616905281367</v>
+        <v>154.6169052813671</v>
       </c>
       <c r="H35" t="n">
-        <v>154.616905281367</v>
+        <v>154.6169052813671</v>
       </c>
       <c r="I35" t="n">
         <v>151.2625235822194</v>
@@ -30034,25 +30034,25 @@
         <v>57.4272130753104</v>
       </c>
       <c r="S35" t="n">
-        <v>154.616905281367</v>
+        <v>154.6169052813671</v>
       </c>
       <c r="T35" t="n">
-        <v>154.616905281367</v>
+        <v>154.6169052813671</v>
       </c>
       <c r="U35" t="n">
-        <v>154.616905281367</v>
+        <v>154.6169052813671</v>
       </c>
       <c r="V35" t="n">
-        <v>154.616905281367</v>
+        <v>154.6169052813671</v>
       </c>
       <c r="W35" t="n">
-        <v>154.616905281367</v>
+        <v>154.6169052813671</v>
       </c>
       <c r="X35" t="n">
-        <v>154.616905281367</v>
+        <v>154.6169052813671</v>
       </c>
       <c r="Y35" t="n">
-        <v>154.616905281367</v>
+        <v>154.6169052813671</v>
       </c>
     </row>
     <row r="36">
@@ -30141,10 +30141,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>154.616905281367</v>
+        <v>154.6169052813671</v>
       </c>
       <c r="C37" t="n">
-        <v>154.616905281367</v>
+        <v>154.6169052813671</v>
       </c>
       <c r="D37" t="n">
         <v>151.5411742405149</v>
@@ -30156,13 +30156,13 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G37" t="n">
-        <v>154.616905281367</v>
+        <v>154.6169052813671</v>
       </c>
       <c r="H37" t="n">
-        <v>154.616905281367</v>
+        <v>122.1323419439411</v>
       </c>
       <c r="I37" t="n">
-        <v>103.3391209268964</v>
+        <v>135.8236842643217</v>
       </c>
       <c r="J37" t="n">
         <v>43.14723059187978</v>
@@ -30192,25 +30192,25 @@
         <v>137.6541232326105</v>
       </c>
       <c r="S37" t="n">
-        <v>154.616905281367</v>
+        <v>154.6169052813671</v>
       </c>
       <c r="T37" t="n">
-        <v>154.616905281367</v>
+        <v>154.6169052813671</v>
       </c>
       <c r="U37" t="n">
-        <v>154.616905281367</v>
+        <v>154.6169052813671</v>
       </c>
       <c r="V37" t="n">
-        <v>154.616905281367</v>
+        <v>154.6169052813671</v>
       </c>
       <c r="W37" t="n">
-        <v>154.616905281367</v>
+        <v>154.6169052813671</v>
       </c>
       <c r="X37" t="n">
-        <v>154.616905281367</v>
+        <v>154.6169052813671</v>
       </c>
       <c r="Y37" t="n">
-        <v>154.616905281367</v>
+        <v>154.6169052813671</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>154.616905281367</v>
+        <v>154.6169052813669</v>
       </c>
       <c r="C38" t="n">
-        <v>154.616905281367</v>
+        <v>154.6169052813669</v>
       </c>
       <c r="D38" t="n">
-        <v>154.616905281367</v>
+        <v>154.6169052813669</v>
       </c>
       <c r="E38" t="n">
-        <v>154.616905281367</v>
+        <v>154.6169052813669</v>
       </c>
       <c r="F38" t="n">
-        <v>154.616905281367</v>
+        <v>154.6169052813669</v>
       </c>
       <c r="G38" t="n">
-        <v>154.616905281367</v>
+        <v>154.6169052813669</v>
       </c>
       <c r="H38" t="n">
-        <v>154.616905281367</v>
+        <v>154.6169052813669</v>
       </c>
       <c r="I38" t="n">
         <v>151.2625235822194</v>
@@ -30271,25 +30271,25 @@
         <v>57.4272130753104</v>
       </c>
       <c r="S38" t="n">
-        <v>154.616905281367</v>
+        <v>154.6169052813669</v>
       </c>
       <c r="T38" t="n">
-        <v>154.616905281367</v>
+        <v>154.6169052813669</v>
       </c>
       <c r="U38" t="n">
-        <v>154.616905281367</v>
+        <v>154.6169052813669</v>
       </c>
       <c r="V38" t="n">
-        <v>154.616905281367</v>
+        <v>154.6169052813669</v>
       </c>
       <c r="W38" t="n">
-        <v>154.616905281367</v>
+        <v>154.6169052813669</v>
       </c>
       <c r="X38" t="n">
-        <v>154.616905281367</v>
+        <v>154.6169052813669</v>
       </c>
       <c r="Y38" t="n">
-        <v>154.616905281367</v>
+        <v>154.6169052813669</v>
       </c>
     </row>
     <row r="39">
@@ -30378,10 +30378,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>154.616905281367</v>
+        <v>154.6169052813669</v>
       </c>
       <c r="C40" t="n">
-        <v>154.616905281367</v>
+        <v>154.6169052813669</v>
       </c>
       <c r="D40" t="n">
         <v>151.5411742405149</v>
@@ -30393,10 +30393,10 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G40" t="n">
-        <v>122.1323419439417</v>
+        <v>154.6169052813669</v>
       </c>
       <c r="H40" t="n">
-        <v>154.616905281367</v>
+        <v>154.6169052813669</v>
       </c>
       <c r="I40" t="n">
         <v>135.8236842643217</v>
@@ -30423,31 +30423,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>18.83523765303432</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>137.6541232326105</v>
       </c>
       <c r="S40" t="n">
-        <v>154.616905281367</v>
+        <v>140.9675795969769</v>
       </c>
       <c r="T40" t="n">
-        <v>154.616905281367</v>
+        <v>154.6169052813669</v>
       </c>
       <c r="U40" t="n">
-        <v>154.616905281367</v>
+        <v>154.6169052813669</v>
       </c>
       <c r="V40" t="n">
-        <v>154.616905281367</v>
+        <v>154.6169052813669</v>
       </c>
       <c r="W40" t="n">
-        <v>154.616905281367</v>
+        <v>154.6169052813669</v>
       </c>
       <c r="X40" t="n">
-        <v>154.616905281367</v>
+        <v>154.6169052813669</v>
       </c>
       <c r="Y40" t="n">
-        <v>154.616905281367</v>
+        <v>154.6169052813669</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>154.6169052813672</v>
+        <v>154.616905281367</v>
       </c>
       <c r="C41" t="n">
-        <v>154.6169052813672</v>
+        <v>154.616905281367</v>
       </c>
       <c r="D41" t="n">
-        <v>154.6169052813672</v>
+        <v>154.616905281367</v>
       </c>
       <c r="E41" t="n">
-        <v>154.6169052813672</v>
+        <v>154.616905281367</v>
       </c>
       <c r="F41" t="n">
-        <v>154.6169052813672</v>
+        <v>154.616905281367</v>
       </c>
       <c r="G41" t="n">
-        <v>154.6169052813672</v>
+        <v>154.616905281367</v>
       </c>
       <c r="H41" t="n">
-        <v>154.6169052813672</v>
+        <v>154.616905281367</v>
       </c>
       <c r="I41" t="n">
         <v>151.2625235822194</v>
@@ -30508,25 +30508,25 @@
         <v>57.4272130753104</v>
       </c>
       <c r="S41" t="n">
-        <v>154.6169052813672</v>
+        <v>154.616905281367</v>
       </c>
       <c r="T41" t="n">
-        <v>154.6169052813672</v>
+        <v>154.616905281367</v>
       </c>
       <c r="U41" t="n">
-        <v>154.6169052813672</v>
+        <v>154.616905281367</v>
       </c>
       <c r="V41" t="n">
-        <v>154.6169052813672</v>
+        <v>154.616905281367</v>
       </c>
       <c r="W41" t="n">
-        <v>154.6169052813672</v>
+        <v>154.616905281367</v>
       </c>
       <c r="X41" t="n">
-        <v>154.6169052813672</v>
+        <v>154.616905281367</v>
       </c>
       <c r="Y41" t="n">
-        <v>154.6169052813672</v>
+        <v>154.616905281367</v>
       </c>
     </row>
     <row r="42">
@@ -30615,10 +30615,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>154.6169052813672</v>
+        <v>154.616905281367</v>
       </c>
       <c r="C43" t="n">
-        <v>154.6169052813672</v>
+        <v>154.616905281367</v>
       </c>
       <c r="D43" t="n">
         <v>151.5411742405149</v>
@@ -30630,10 +30630,10 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G43" t="n">
-        <v>154.6169052813672</v>
+        <v>154.616905281367</v>
       </c>
       <c r="H43" t="n">
-        <v>154.6169052813672</v>
+        <v>154.616905281367</v>
       </c>
       <c r="I43" t="n">
         <v>135.8236842643217</v>
@@ -30663,28 +30663,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>137.6541232326105</v>
+        <v>124.0047975482194</v>
       </c>
       <c r="S43" t="n">
-        <v>154.6169052813672</v>
+        <v>154.616905281367</v>
       </c>
       <c r="T43" t="n">
-        <v>154.6169052813672</v>
+        <v>154.616905281367</v>
       </c>
       <c r="U43" t="n">
-        <v>154.6169052813672</v>
+        <v>154.616905281367</v>
       </c>
       <c r="V43" t="n">
-        <v>140.9675795969743</v>
+        <v>154.616905281367</v>
       </c>
       <c r="W43" t="n">
-        <v>154.6169052813672</v>
+        <v>154.616905281367</v>
       </c>
       <c r="X43" t="n">
-        <v>154.6169052813672</v>
+        <v>154.616905281367</v>
       </c>
       <c r="Y43" t="n">
-        <v>154.6169052813672</v>
+        <v>154.616905281367</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>154.6169052813672</v>
+        <v>154.616905281367</v>
       </c>
       <c r="C44" t="n">
-        <v>154.6169052813672</v>
+        <v>154.616905281367</v>
       </c>
       <c r="D44" t="n">
-        <v>154.6169052813672</v>
+        <v>154.616905281367</v>
       </c>
       <c r="E44" t="n">
-        <v>154.6169052813672</v>
+        <v>154.616905281367</v>
       </c>
       <c r="F44" t="n">
-        <v>154.6169052813672</v>
+        <v>154.616905281367</v>
       </c>
       <c r="G44" t="n">
-        <v>154.6169052813672</v>
+        <v>154.616905281367</v>
       </c>
       <c r="H44" t="n">
-        <v>154.6169052813672</v>
+        <v>154.616905281367</v>
       </c>
       <c r="I44" t="n">
         <v>151.2625235822194</v>
@@ -30745,25 +30745,25 @@
         <v>57.4272130753104</v>
       </c>
       <c r="S44" t="n">
-        <v>154.6169052813672</v>
+        <v>154.616905281367</v>
       </c>
       <c r="T44" t="n">
-        <v>154.6169052813672</v>
+        <v>154.616905281367</v>
       </c>
       <c r="U44" t="n">
-        <v>154.6169052813672</v>
+        <v>154.616905281367</v>
       </c>
       <c r="V44" t="n">
-        <v>154.6169052813672</v>
+        <v>154.616905281367</v>
       </c>
       <c r="W44" t="n">
-        <v>154.6169052813672</v>
+        <v>154.616905281367</v>
       </c>
       <c r="X44" t="n">
-        <v>154.6169052813672</v>
+        <v>154.616905281367</v>
       </c>
       <c r="Y44" t="n">
-        <v>154.6169052813672</v>
+        <v>154.616905281367</v>
       </c>
     </row>
     <row r="45">
@@ -30852,10 +30852,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>154.6169052813672</v>
+        <v>154.616905281367</v>
       </c>
       <c r="C46" t="n">
-        <v>154.6169052813672</v>
+        <v>154.616905281367</v>
       </c>
       <c r="D46" t="n">
         <v>151.5411742405149</v>
@@ -30867,10 +30867,10 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
-        <v>154.6169052813672</v>
+        <v>122.1323419439416</v>
       </c>
       <c r="H46" t="n">
-        <v>154.6169052813672</v>
+        <v>154.616905281367</v>
       </c>
       <c r="I46" t="n">
         <v>135.8236842643217</v>
@@ -30903,25 +30903,25 @@
         <v>137.6541232326105</v>
       </c>
       <c r="S46" t="n">
-        <v>154.6169052813672</v>
+        <v>154.616905281367</v>
       </c>
       <c r="T46" t="n">
-        <v>154.6169052813672</v>
+        <v>154.616905281367</v>
       </c>
       <c r="U46" t="n">
-        <v>154.6169052813672</v>
+        <v>154.616905281367</v>
       </c>
       <c r="V46" t="n">
-        <v>154.6169052813672</v>
+        <v>154.616905281367</v>
       </c>
       <c r="W46" t="n">
-        <v>122.13234194394</v>
+        <v>154.616905281367</v>
       </c>
       <c r="X46" t="n">
-        <v>154.6169052813672</v>
+        <v>154.616905281367</v>
       </c>
       <c r="Y46" t="n">
-        <v>154.6169052813672</v>
+        <v>154.616905281367</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4272646786051495</v>
+        <v>0.4272646786051491</v>
       </c>
       <c r="H11" t="n">
-        <v>4.375724389764988</v>
+        <v>4.375724389764984</v>
       </c>
       <c r="I11" t="n">
-        <v>16.47212152192504</v>
+        <v>16.47212152192503</v>
       </c>
       <c r="J11" t="n">
-        <v>36.26355551576384</v>
+        <v>36.26355551576381</v>
       </c>
       <c r="K11" t="n">
-        <v>54.34966936111983</v>
+        <v>54.34966936111978</v>
       </c>
       <c r="L11" t="n">
-        <v>67.42557076898218</v>
+        <v>67.42557076898213</v>
       </c>
       <c r="M11" t="n">
-        <v>75.02393899712651</v>
+        <v>75.02393899712644</v>
       </c>
       <c r="N11" t="n">
-        <v>76.2379047652134</v>
+        <v>76.23790476521333</v>
       </c>
       <c r="O11" t="n">
-        <v>71.98929161733344</v>
+        <v>71.98929161733336</v>
       </c>
       <c r="P11" t="n">
-        <v>61.4411948642688</v>
+        <v>61.44119486426874</v>
       </c>
       <c r="Q11" t="n">
-        <v>46.13977856172187</v>
+        <v>46.13977856172183</v>
       </c>
       <c r="R11" t="n">
-        <v>26.83916486743075</v>
+        <v>26.83916486743072</v>
       </c>
       <c r="S11" t="n">
-        <v>9.736293863714854</v>
+        <v>9.736293863714845</v>
       </c>
       <c r="T11" t="n">
-        <v>1.870351130594043</v>
+        <v>1.870351130594041</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03418117428841196</v>
+        <v>0.03418117428841192</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.228606757048029</v>
+        <v>0.2286067570480288</v>
       </c>
       <c r="H12" t="n">
-        <v>2.207859995700701</v>
+        <v>2.207859995700699</v>
       </c>
       <c r="I12" t="n">
-        <v>7.870890538715034</v>
+        <v>7.870890538715027</v>
       </c>
       <c r="J12" t="n">
-        <v>21.59832523496313</v>
+        <v>21.59832523496311</v>
       </c>
       <c r="K12" t="n">
-        <v>36.91497795718107</v>
+        <v>36.91497795718104</v>
       </c>
       <c r="L12" t="n">
-        <v>49.63674345466086</v>
+        <v>49.63674345466081</v>
       </c>
       <c r="M12" t="n">
-        <v>57.9237383976519</v>
+        <v>57.92373839765184</v>
       </c>
       <c r="N12" t="n">
-        <v>59.45680739557487</v>
+        <v>59.45680739557482</v>
       </c>
       <c r="O12" t="n">
-        <v>54.39136293677381</v>
+        <v>54.39136293677375</v>
       </c>
       <c r="P12" t="n">
-        <v>43.65386398402231</v>
+        <v>43.65386398402227</v>
       </c>
       <c r="Q12" t="n">
-        <v>29.18145200493788</v>
+        <v>29.18145200493785</v>
       </c>
       <c r="R12" t="n">
-        <v>14.19367216128026</v>
+        <v>14.19367216128025</v>
       </c>
       <c r="S12" t="n">
-        <v>4.246270246045623</v>
+        <v>4.246270246045619</v>
       </c>
       <c r="T12" t="n">
-        <v>0.9214456566979762</v>
+        <v>0.9214456566979753</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01503991822684402</v>
+        <v>0.015039918226844</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1916562257103838</v>
+        <v>0.1916562257103836</v>
       </c>
       <c r="H13" t="n">
-        <v>1.703998079497777</v>
+        <v>1.703998079497775</v>
       </c>
       <c r="I13" t="n">
-        <v>5.763625405908634</v>
+        <v>5.763625405908629</v>
       </c>
       <c r="J13" t="n">
-        <v>13.55009515772413</v>
+        <v>13.55009515772412</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26696876889731</v>
+        <v>22.26696876889729</v>
       </c>
       <c r="L13" t="n">
-        <v>28.49405377516015</v>
+        <v>28.49405377516013</v>
       </c>
       <c r="M13" t="n">
-        <v>30.04298454476497</v>
+        <v>30.04298454476494</v>
       </c>
       <c r="N13" t="n">
-        <v>29.32862952166266</v>
+        <v>29.32862952166263</v>
       </c>
       <c r="O13" t="n">
-        <v>27.08973633950044</v>
+        <v>27.08973633950041</v>
       </c>
       <c r="P13" t="n">
-        <v>23.17994933500859</v>
+        <v>23.17994933500857</v>
       </c>
       <c r="Q13" t="n">
-        <v>16.04859540925768</v>
+        <v>16.04859540925767</v>
       </c>
       <c r="R13" t="n">
-        <v>8.617560839668709</v>
+        <v>8.6175608396687</v>
       </c>
       <c r="S13" t="n">
-        <v>3.340045315334596</v>
+        <v>3.340045315334593</v>
       </c>
       <c r="T13" t="n">
-        <v>0.8188947825807305</v>
+        <v>0.8188947825807297</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01045397594783913</v>
+        <v>0.01045397594783912</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4272646786051494</v>
+        <v>0.4272646786051493</v>
       </c>
       <c r="H14" t="n">
-        <v>4.375724389764987</v>
+        <v>4.375724389764986</v>
       </c>
       <c r="I14" t="n">
-        <v>16.47212152192504</v>
+        <v>16.47212152192503</v>
       </c>
       <c r="J14" t="n">
-        <v>36.26355551576383</v>
+        <v>36.26355551576382</v>
       </c>
       <c r="K14" t="n">
-        <v>54.34966936111982</v>
+        <v>54.3496693611198</v>
       </c>
       <c r="L14" t="n">
-        <v>67.42557076898217</v>
+        <v>67.42557076898215</v>
       </c>
       <c r="M14" t="n">
-        <v>75.02393899712649</v>
+        <v>75.02393899712646</v>
       </c>
       <c r="N14" t="n">
-        <v>76.23790476521337</v>
+        <v>76.23790476521336</v>
       </c>
       <c r="O14" t="n">
-        <v>71.98929161733342</v>
+        <v>71.98929161733339</v>
       </c>
       <c r="P14" t="n">
-        <v>61.44119486426878</v>
+        <v>61.44119486426877</v>
       </c>
       <c r="Q14" t="n">
         <v>46.13977856172185</v>
       </c>
       <c r="R14" t="n">
-        <v>26.83916486743074</v>
+        <v>26.83916486743073</v>
       </c>
       <c r="S14" t="n">
-        <v>9.736293863714851</v>
+        <v>9.736293863714849</v>
       </c>
       <c r="T14" t="n">
         <v>1.870351130594042</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03418117428841194</v>
+        <v>0.03418117428841193</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32069,43 +32069,43 @@
         <v>0.2286067570480289</v>
       </c>
       <c r="H15" t="n">
-        <v>2.207859995700701</v>
+        <v>2.2078599957007</v>
       </c>
       <c r="I15" t="n">
-        <v>7.870890538715032</v>
+        <v>7.87089053871503</v>
       </c>
       <c r="J15" t="n">
         <v>21.59832523496312</v>
       </c>
       <c r="K15" t="n">
-        <v>36.91497795718106</v>
+        <v>36.91497795718105</v>
       </c>
       <c r="L15" t="n">
-        <v>49.63674345466085</v>
+        <v>49.63674345466083</v>
       </c>
       <c r="M15" t="n">
-        <v>57.92373839765188</v>
+        <v>57.92373839765187</v>
       </c>
       <c r="N15" t="n">
-        <v>59.45680739557486</v>
+        <v>59.45680739557484</v>
       </c>
       <c r="O15" t="n">
-        <v>54.39136293677379</v>
+        <v>54.39136293677377</v>
       </c>
       <c r="P15" t="n">
-        <v>43.6538639840223</v>
+        <v>43.65386398402229</v>
       </c>
       <c r="Q15" t="n">
-        <v>29.18145200493787</v>
+        <v>29.18145200493786</v>
       </c>
       <c r="R15" t="n">
-        <v>14.19367216128026</v>
+        <v>14.19367216128025</v>
       </c>
       <c r="S15" t="n">
-        <v>4.246270246045622</v>
+        <v>4.246270246045621</v>
       </c>
       <c r="T15" t="n">
-        <v>0.9214456566979758</v>
+        <v>0.9214456566979756</v>
       </c>
       <c r="U15" t="n">
         <v>0.01503991822684401</v>
@@ -32151,7 +32151,7 @@
         <v>1.703998079497776</v>
       </c>
       <c r="I16" t="n">
-        <v>5.763625405908632</v>
+        <v>5.76362540590863</v>
       </c>
       <c r="J16" t="n">
         <v>13.55009515772413</v>
@@ -32160,16 +32160,16 @@
         <v>22.2669687688973</v>
       </c>
       <c r="L16" t="n">
-        <v>28.49405377516015</v>
+        <v>28.49405377516014</v>
       </c>
       <c r="M16" t="n">
-        <v>30.04298454476497</v>
+        <v>30.04298454476496</v>
       </c>
       <c r="N16" t="n">
-        <v>29.32862952166265</v>
+        <v>29.32862952166264</v>
       </c>
       <c r="O16" t="n">
-        <v>27.08973633950043</v>
+        <v>27.08973633950042</v>
       </c>
       <c r="P16" t="n">
         <v>23.17994933500858</v>
@@ -32178,13 +32178,13 @@
         <v>16.04859540925768</v>
       </c>
       <c r="R16" t="n">
-        <v>8.617560839668705</v>
+        <v>8.617560839668704</v>
       </c>
       <c r="S16" t="n">
-        <v>3.340045315334595</v>
+        <v>3.340045315334594</v>
       </c>
       <c r="T16" t="n">
-        <v>0.8188947825807302</v>
+        <v>0.81889478258073</v>
       </c>
       <c r="U16" t="n">
         <v>0.01045397594783912</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4272646786051494</v>
+        <v>0.4272646786051483</v>
       </c>
       <c r="H17" t="n">
-        <v>4.375724389764987</v>
+        <v>4.375724389764976</v>
       </c>
       <c r="I17" t="n">
-        <v>16.47212152192504</v>
+        <v>16.472121521925</v>
       </c>
       <c r="J17" t="n">
-        <v>36.26355551576383</v>
+        <v>36.26355551576373</v>
       </c>
       <c r="K17" t="n">
-        <v>54.34966936111982</v>
+        <v>54.34966936111967</v>
       </c>
       <c r="L17" t="n">
-        <v>67.42557076898217</v>
+        <v>67.425570768982</v>
       </c>
       <c r="M17" t="n">
-        <v>75.02393899712649</v>
+        <v>75.02393899712629</v>
       </c>
       <c r="N17" t="n">
-        <v>76.23790476521337</v>
+        <v>76.23790476521319</v>
       </c>
       <c r="O17" t="n">
-        <v>71.98929161733342</v>
+        <v>71.98929161733324</v>
       </c>
       <c r="P17" t="n">
-        <v>61.44119486426878</v>
+        <v>61.44119486426862</v>
       </c>
       <c r="Q17" t="n">
-        <v>46.13977856172185</v>
+        <v>46.13977856172174</v>
       </c>
       <c r="R17" t="n">
-        <v>26.83916486743074</v>
+        <v>26.83916486743067</v>
       </c>
       <c r="S17" t="n">
-        <v>9.736293863714851</v>
+        <v>9.736293863714826</v>
       </c>
       <c r="T17" t="n">
-        <v>1.870351130594042</v>
+        <v>1.870351130594038</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03418117428841194</v>
+        <v>0.03418117428841186</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2286067570480289</v>
+        <v>0.2286067570480284</v>
       </c>
       <c r="H18" t="n">
-        <v>2.207859995700701</v>
+        <v>2.207859995700695</v>
       </c>
       <c r="I18" t="n">
-        <v>7.870890538715032</v>
+        <v>7.870890538715012</v>
       </c>
       <c r="J18" t="n">
-        <v>21.59832523496312</v>
+        <v>21.59832523496307</v>
       </c>
       <c r="K18" t="n">
-        <v>36.91497795718106</v>
+        <v>36.91497795718097</v>
       </c>
       <c r="L18" t="n">
-        <v>49.63674345466085</v>
+        <v>49.63674345466072</v>
       </c>
       <c r="M18" t="n">
-        <v>57.92373839765188</v>
+        <v>57.92373839765173</v>
       </c>
       <c r="N18" t="n">
-        <v>59.45680739557486</v>
+        <v>59.45680739557471</v>
       </c>
       <c r="O18" t="n">
-        <v>54.39136293677379</v>
+        <v>54.39136293677365</v>
       </c>
       <c r="P18" t="n">
-        <v>43.6538639840223</v>
+        <v>43.65386398402219</v>
       </c>
       <c r="Q18" t="n">
-        <v>29.18145200493787</v>
+        <v>29.1814520049378</v>
       </c>
       <c r="R18" t="n">
-        <v>14.19367216128026</v>
+        <v>14.19367216128022</v>
       </c>
       <c r="S18" t="n">
-        <v>4.246270246045622</v>
+        <v>4.246270246045611</v>
       </c>
       <c r="T18" t="n">
-        <v>0.9214456566979758</v>
+        <v>0.9214456566979735</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01503991822684401</v>
+        <v>0.01503991822684398</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1916562257103837</v>
+        <v>0.1916562257103832</v>
       </c>
       <c r="H19" t="n">
-        <v>1.703998079497776</v>
+        <v>1.703998079497772</v>
       </c>
       <c r="I19" t="n">
-        <v>5.763625405908632</v>
+        <v>5.763625405908618</v>
       </c>
       <c r="J19" t="n">
-        <v>13.55009515772413</v>
+        <v>13.55009515772409</v>
       </c>
       <c r="K19" t="n">
-        <v>22.2669687688973</v>
+        <v>22.26696876889725</v>
       </c>
       <c r="L19" t="n">
-        <v>28.49405377516015</v>
+        <v>28.49405377516007</v>
       </c>
       <c r="M19" t="n">
-        <v>30.04298454476497</v>
+        <v>30.04298454476489</v>
       </c>
       <c r="N19" t="n">
-        <v>29.32862952166265</v>
+        <v>29.32862952166257</v>
       </c>
       <c r="O19" t="n">
-        <v>27.08973633950043</v>
+        <v>27.08973633950036</v>
       </c>
       <c r="P19" t="n">
-        <v>23.17994933500858</v>
+        <v>23.17994933500852</v>
       </c>
       <c r="Q19" t="n">
-        <v>16.04859540925768</v>
+        <v>16.04859540925764</v>
       </c>
       <c r="R19" t="n">
-        <v>8.617560839668705</v>
+        <v>8.617560839668684</v>
       </c>
       <c r="S19" t="n">
-        <v>3.340045315334595</v>
+        <v>3.340045315334587</v>
       </c>
       <c r="T19" t="n">
-        <v>0.8188947825807302</v>
+        <v>0.8188947825807282</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01045397594783912</v>
+        <v>0.0104539759478391</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4272646786051498</v>
+        <v>0.4272646786051483</v>
       </c>
       <c r="H20" t="n">
-        <v>4.375724389764991</v>
+        <v>4.375724389764976</v>
       </c>
       <c r="I20" t="n">
-        <v>16.47212152192505</v>
+        <v>16.472121521925</v>
       </c>
       <c r="J20" t="n">
-        <v>36.26355551576386</v>
+        <v>36.26355551576373</v>
       </c>
       <c r="K20" t="n">
-        <v>54.34966936111987</v>
+        <v>54.34966936111967</v>
       </c>
       <c r="L20" t="n">
-        <v>67.42557076898223</v>
+        <v>67.425570768982</v>
       </c>
       <c r="M20" t="n">
-        <v>75.02393899712656</v>
+        <v>75.02393899712629</v>
       </c>
       <c r="N20" t="n">
-        <v>76.23790476521344</v>
+        <v>76.23790476521319</v>
       </c>
       <c r="O20" t="n">
-        <v>71.98929161733348</v>
+        <v>71.98929161733324</v>
       </c>
       <c r="P20" t="n">
-        <v>61.44119486426884</v>
+        <v>61.44119486426862</v>
       </c>
       <c r="Q20" t="n">
-        <v>46.1397785617219</v>
+        <v>46.13977856172174</v>
       </c>
       <c r="R20" t="n">
-        <v>26.83916486743076</v>
+        <v>26.83916486743067</v>
       </c>
       <c r="S20" t="n">
-        <v>9.736293863714859</v>
+        <v>9.736293863714826</v>
       </c>
       <c r="T20" t="n">
-        <v>1.870351130594044</v>
+        <v>1.870351130594038</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03418117428841198</v>
+        <v>0.03418117428841186</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2286067570480291</v>
+        <v>0.2286067570480284</v>
       </c>
       <c r="H21" t="n">
-        <v>2.207859995700703</v>
+        <v>2.207859995700695</v>
       </c>
       <c r="I21" t="n">
-        <v>7.870890538715039</v>
+        <v>7.870890538715012</v>
       </c>
       <c r="J21" t="n">
-        <v>21.59832523496314</v>
+        <v>21.59832523496307</v>
       </c>
       <c r="K21" t="n">
-        <v>36.91497795718109</v>
+        <v>36.91497795718097</v>
       </c>
       <c r="L21" t="n">
-        <v>49.63674345466089</v>
+        <v>49.63674345466072</v>
       </c>
       <c r="M21" t="n">
-        <v>57.92373839765194</v>
+        <v>57.92373839765173</v>
       </c>
       <c r="N21" t="n">
-        <v>59.45680739557491</v>
+        <v>59.45680739557471</v>
       </c>
       <c r="O21" t="n">
-        <v>54.39136293677385</v>
+        <v>54.39136293677365</v>
       </c>
       <c r="P21" t="n">
-        <v>43.65386398402234</v>
+        <v>43.65386398402219</v>
       </c>
       <c r="Q21" t="n">
-        <v>29.1814520049379</v>
+        <v>29.1814520049378</v>
       </c>
       <c r="R21" t="n">
-        <v>14.19367216128027</v>
+        <v>14.19367216128022</v>
       </c>
       <c r="S21" t="n">
-        <v>4.246270246045627</v>
+        <v>4.246270246045611</v>
       </c>
       <c r="T21" t="n">
-        <v>0.9214456566979767</v>
+        <v>0.9214456566979735</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01503991822684403</v>
+        <v>0.01503991822684398</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1916562257103839</v>
+        <v>0.1916562257103832</v>
       </c>
       <c r="H22" t="n">
-        <v>1.703998079497778</v>
+        <v>1.703998079497772</v>
       </c>
       <c r="I22" t="n">
-        <v>5.763625405908638</v>
+        <v>5.763625405908618</v>
       </c>
       <c r="J22" t="n">
-        <v>13.55009515772414</v>
+        <v>13.55009515772409</v>
       </c>
       <c r="K22" t="n">
-        <v>22.26696876889732</v>
+        <v>22.26696876889725</v>
       </c>
       <c r="L22" t="n">
-        <v>28.49405377516017</v>
+        <v>28.49405377516007</v>
       </c>
       <c r="M22" t="n">
-        <v>30.04298454476499</v>
+        <v>30.04298454476489</v>
       </c>
       <c r="N22" t="n">
-        <v>29.32862952166268</v>
+        <v>29.32862952166257</v>
       </c>
       <c r="O22" t="n">
-        <v>27.08973633950045</v>
+        <v>27.08973633950036</v>
       </c>
       <c r="P22" t="n">
-        <v>23.1799493350086</v>
+        <v>23.17994933500852</v>
       </c>
       <c r="Q22" t="n">
-        <v>16.04859540925769</v>
+        <v>16.04859540925764</v>
       </c>
       <c r="R22" t="n">
-        <v>8.617560839668714</v>
+        <v>8.617560839668684</v>
       </c>
       <c r="S22" t="n">
-        <v>3.340045315334598</v>
+        <v>3.340045315334587</v>
       </c>
       <c r="T22" t="n">
-        <v>0.818894782580731</v>
+        <v>0.8188947825807282</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01045397594783913</v>
+        <v>0.0104539759478391</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5142728285084637</v>
+        <v>0.5142728285084638</v>
       </c>
       <c r="H26" t="n">
         <v>5.266796604962305</v>
@@ -32944,7 +32944,7 @@
         <v>19.82650322107257</v>
       </c>
       <c r="J26" t="n">
-        <v>43.64826347862026</v>
+        <v>43.64826347862027</v>
       </c>
       <c r="K26" t="n">
         <v>65.41743230938354</v>
@@ -32956,16 +32956,16 @@
         <v>90.30180879883684</v>
       </c>
       <c r="N26" t="n">
-        <v>91.76298647283652</v>
+        <v>91.76298647283653</v>
       </c>
       <c r="O26" t="n">
-        <v>86.64918603435548</v>
+        <v>86.64918603435549</v>
       </c>
       <c r="P26" t="n">
         <v>73.95307558055278</v>
       </c>
       <c r="Q26" t="n">
-        <v>55.5356799095934</v>
+        <v>55.53567990959341</v>
       </c>
       <c r="R26" t="n">
         <v>32.30469056379481</v>
@@ -33017,31 +33017,31 @@
         <v>0.2751602214043165</v>
       </c>
       <c r="H27" t="n">
-        <v>2.657468454089056</v>
+        <v>2.657468454089057</v>
       </c>
       <c r="I27" t="n">
-        <v>9.473718149227562</v>
+        <v>9.473718149227564</v>
       </c>
       <c r="J27" t="n">
-        <v>25.99660670732623</v>
+        <v>25.99660670732624</v>
       </c>
       <c r="K27" t="n">
-        <v>44.43234154141543</v>
+        <v>44.43234154141544</v>
       </c>
       <c r="L27" t="n">
-        <v>59.74476649395038</v>
+        <v>59.74476649395039</v>
       </c>
       <c r="M27" t="n">
-        <v>69.71932451985683</v>
+        <v>69.71932451985684</v>
       </c>
       <c r="N27" t="n">
-        <v>71.56458758357263</v>
+        <v>71.56458758357265</v>
       </c>
       <c r="O27" t="n">
-        <v>65.46761636192961</v>
+        <v>65.46761636192963</v>
       </c>
       <c r="P27" t="n">
-        <v>52.54353385746109</v>
+        <v>52.5435338574611</v>
       </c>
       <c r="Q27" t="n">
         <v>35.12396089364573</v>
@@ -33099,19 +33099,19 @@
         <v>2.05100013176177</v>
       </c>
       <c r="I28" t="n">
-        <v>6.937329689026514</v>
+        <v>6.937329689026515</v>
       </c>
       <c r="J28" t="n">
         <v>16.30943560808923</v>
       </c>
       <c r="K28" t="n">
-        <v>26.80141276473966</v>
+        <v>26.80141276473967</v>
       </c>
       <c r="L28" t="n">
         <v>34.29658093541101</v>
       </c>
       <c r="M28" t="n">
-        <v>36.16093586090814</v>
+        <v>36.16093586090815</v>
       </c>
       <c r="N28" t="n">
         <v>35.3011096298015</v>
@@ -33120,10 +33120,10 @@
         <v>32.60628839328424</v>
       </c>
       <c r="P28" t="n">
-        <v>27.90031263083696</v>
+        <v>27.90031263083697</v>
       </c>
       <c r="Q28" t="n">
-        <v>19.31673027981354</v>
+        <v>19.31673027981355</v>
       </c>
       <c r="R28" t="n">
         <v>10.37244033915512</v>
@@ -33132,7 +33132,7 @@
         <v>4.020211914710949</v>
       </c>
       <c r="T28" t="n">
-        <v>0.9856544600491113</v>
+        <v>0.9856544600491114</v>
       </c>
       <c r="U28" t="n">
         <v>0.01258282289424399</v>
@@ -34705,11 +34705,11 @@
         <v>11.94294668035388</v>
       </c>
       <c r="M2" t="n">
+        <v>11.94294668035388</v>
+      </c>
+      <c r="N2" t="n">
         <v>11.46040338013756</v>
       </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
@@ -34717,7 +34717,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,22 +34775,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>11.46040338013756</v>
       </c>
-      <c r="L3" t="n">
+      <c r="O3" t="n">
         <v>11.94294668035388</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>11.94294668035388</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -34860,19 +34860,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>11.46040338013756</v>
+      </c>
+      <c r="N4" t="n">
         <v>11.94294668035388</v>
-      </c>
-      <c r="M4" t="n">
-        <v>11.94294668035388</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>11.94294668035388</v>
       </c>
       <c r="P4" t="n">
-        <v>11.46040338013756</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,7 +34933,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -34942,7 +34942,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>11.46040338013756</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>11.94294668035388</v>
@@ -34951,7 +34951,7 @@
         <v>11.94294668035388</v>
       </c>
       <c r="P5" t="n">
-        <v>11.94294668035388</v>
+        <v>11.46040338013756</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35018,16 +35018,16 @@
         <v>11.94294668035388</v>
       </c>
       <c r="L6" t="n">
+        <v>11.46040338013756</v>
+      </c>
+      <c r="M6" t="n">
         <v>11.94294668035388</v>
       </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>11.46040338013756</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -35097,7 +35097,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>11.46040338013756</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
         <v>11.94294668035388</v>
@@ -35109,7 +35109,7 @@
         <v>11.94294668035388</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>11.46040338013756</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="M8" t="n">
-        <v>34.85926832931629</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>135.7293992974318</v>
+        <v>57.51958086843889</v>
       </c>
       <c r="O8" t="n">
         <v>135.7293992974318</v>
       </c>
       <c r="P8" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>95.38611483488586</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,10 +35252,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="L9" t="n">
-        <v>135.7293992974318</v>
+        <v>130.2453831642022</v>
       </c>
       <c r="M9" t="n">
         <v>135.7293992974318</v>
@@ -35264,7 +35264,7 @@
         <v>135.7293992974318</v>
       </c>
       <c r="O9" t="n">
-        <v>130.2453831642022</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35410,22 +35410,22 @@
         <v>108.9893578115271</v>
       </c>
       <c r="K11" t="n">
-        <v>296.9157017295873</v>
+        <v>296.9157017295872</v>
       </c>
       <c r="L11" t="n">
         <v>418.8249375214531</v>
       </c>
       <c r="M11" t="n">
-        <v>472.2352180406497</v>
+        <v>472.2352180406496</v>
       </c>
       <c r="N11" t="n">
         <v>458.3907923285626</v>
       </c>
       <c r="O11" t="n">
-        <v>380.0747304787819</v>
+        <v>380.0747304787818</v>
       </c>
       <c r="P11" t="n">
-        <v>291.9027064360398</v>
+        <v>291.9027064360397</v>
       </c>
       <c r="Q11" t="n">
         <v>141.5258933966077</v>
@@ -35492,22 +35492,22 @@
         <v>268.7236169068666</v>
       </c>
       <c r="L12" t="n">
-        <v>419.15375877801</v>
+        <v>133.4323303286319</v>
       </c>
       <c r="M12" t="n">
-        <v>450.6817248782831</v>
+        <v>547.8564187110119</v>
       </c>
       <c r="N12" t="n">
         <v>575.8867529744861</v>
       </c>
       <c r="O12" t="n">
-        <v>450.5529293854111</v>
+        <v>450.552929385411</v>
       </c>
       <c r="P12" t="n">
         <v>348.8012571917973</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>188.5467346166492</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>44.49377794174352</v>
+        <v>44.49377794174345</v>
       </c>
       <c r="K13" t="n">
-        <v>146.610941737374</v>
+        <v>146.6109417373739</v>
       </c>
       <c r="L13" t="n">
-        <v>220.5177152846632</v>
+        <v>220.5177152846631</v>
       </c>
       <c r="M13" t="n">
-        <v>239.6286932536036</v>
+        <v>239.6286932536035</v>
       </c>
       <c r="N13" t="n">
-        <v>239.3475055254494</v>
+        <v>239.3475055254493</v>
       </c>
       <c r="O13" t="n">
         <v>216.9483141070137</v>
       </c>
       <c r="P13" t="n">
-        <v>177.184827337318</v>
+        <v>177.1848273373179</v>
       </c>
       <c r="Q13" t="n">
-        <v>68.29697646039821</v>
+        <v>68.29697646039814</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35659,7 +35659,7 @@
         <v>458.3907923285626</v>
       </c>
       <c r="O14" t="n">
-        <v>380.0747304787819</v>
+        <v>380.0747304787818</v>
       </c>
       <c r="P14" t="n">
         <v>291.9027064360397</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>82.46109951082792</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>268.7236169068666</v>
+        <v>171.5489230741377</v>
       </c>
       <c r="L15" t="n">
         <v>419.15375877801</v>
@@ -35735,16 +35735,16 @@
         <v>547.8564187110119</v>
       </c>
       <c r="N15" t="n">
-        <v>207.70422501428</v>
+        <v>575.8867529744861</v>
       </c>
       <c r="O15" t="n">
-        <v>450.5529293854111</v>
+        <v>450.552929385411</v>
       </c>
       <c r="P15" t="n">
         <v>348.8012571917973</v>
       </c>
       <c r="Q15" t="n">
-        <v>188.5467346166492</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>44.49377794174351</v>
+        <v>44.4937779417434</v>
       </c>
       <c r="K16" t="n">
-        <v>146.610941737374</v>
+        <v>146.6109417373739</v>
       </c>
       <c r="L16" t="n">
-        <v>220.5177152846632</v>
+        <v>220.517715284663</v>
       </c>
       <c r="M16" t="n">
-        <v>239.6286932536036</v>
+        <v>239.6286932536034</v>
       </c>
       <c r="N16" t="n">
-        <v>239.3475055254494</v>
+        <v>239.3475055254493</v>
       </c>
       <c r="O16" t="n">
-        <v>216.9483141070137</v>
+        <v>216.9483141070136</v>
       </c>
       <c r="P16" t="n">
-        <v>177.184827337318</v>
+        <v>177.1848273373179</v>
       </c>
       <c r="Q16" t="n">
-        <v>68.29697646039821</v>
+        <v>68.2969764603981</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,28 +35881,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>108.9893578115271</v>
+        <v>108.989357811527</v>
       </c>
       <c r="K17" t="n">
-        <v>296.9157017295872</v>
+        <v>296.9157017295871</v>
       </c>
       <c r="L17" t="n">
-        <v>418.8249375214526</v>
+        <v>418.824937521453</v>
       </c>
       <c r="M17" t="n">
-        <v>472.2352180406497</v>
+        <v>472.2352180406494</v>
       </c>
       <c r="N17" t="n">
-        <v>458.3907923285626</v>
+        <v>458.3907923285624</v>
       </c>
       <c r="O17" t="n">
-        <v>380.0747304787819</v>
+        <v>380.0747304787817</v>
       </c>
       <c r="P17" t="n">
-        <v>291.9027064360397</v>
+        <v>291.9027064360396</v>
       </c>
       <c r="Q17" t="n">
-        <v>141.5258933966077</v>
+        <v>141.5258933966076</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35963,22 +35963,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>268.7236169068666</v>
+        <v>268.7236169068665</v>
       </c>
       <c r="L18" t="n">
-        <v>419.15375877801</v>
+        <v>419.1537587780099</v>
       </c>
       <c r="M18" t="n">
-        <v>547.8564187110119</v>
+        <v>547.8564187110118</v>
       </c>
       <c r="N18" t="n">
-        <v>575.8867529744861</v>
+        <v>575.8867529744859</v>
       </c>
       <c r="O18" t="n">
-        <v>353.3782355526823</v>
+        <v>450.5529293854109</v>
       </c>
       <c r="P18" t="n">
-        <v>348.8012571917973</v>
+        <v>251.6265633590689</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36027,7 +36027,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.7803496607437098</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -36039,25 +36039,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>0.7803496607442768</v>
       </c>
       <c r="K19" t="n">
-        <v>56.2105927533856</v>
+        <v>56.21059275338554</v>
       </c>
       <c r="L19" t="n">
-        <v>130.1173663006748</v>
+        <v>130.1173663006747</v>
       </c>
       <c r="M19" t="n">
-        <v>149.2283442696152</v>
+        <v>149.2283442696151</v>
       </c>
       <c r="N19" t="n">
-        <v>148.947156541461</v>
+        <v>148.9471565414609</v>
       </c>
       <c r="O19" t="n">
-        <v>126.5479651230254</v>
+        <v>126.5479651230253</v>
       </c>
       <c r="P19" t="n">
-        <v>86.78447835332959</v>
+        <v>86.78447835332952</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,28 +36118,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>108.9893578115272</v>
+        <v>108.989357811527</v>
       </c>
       <c r="K20" t="n">
-        <v>296.9157017295873</v>
+        <v>296.9157017295881</v>
       </c>
       <c r="L20" t="n">
-        <v>418.8249375214532</v>
+        <v>418.824937521453</v>
       </c>
       <c r="M20" t="n">
-        <v>472.2352180406497</v>
+        <v>472.2352180406494</v>
       </c>
       <c r="N20" t="n">
-        <v>458.3907923285627</v>
+        <v>458.3907923285624</v>
       </c>
       <c r="O20" t="n">
-        <v>380.0747304787819</v>
+        <v>380.0747304787817</v>
       </c>
       <c r="P20" t="n">
-        <v>291.9027064360398</v>
+        <v>291.9027064360396</v>
       </c>
       <c r="Q20" t="n">
-        <v>141.5258933966078</v>
+        <v>141.5258933966076</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>82.46109951082786</v>
       </c>
       <c r="K21" t="n">
-        <v>268.7236169068666</v>
+        <v>268.7236169068665</v>
       </c>
       <c r="L21" t="n">
-        <v>419.1537587780101</v>
+        <v>419.1537587780099</v>
       </c>
       <c r="M21" t="n">
-        <v>262.1349902616336</v>
+        <v>547.8564187110118</v>
       </c>
       <c r="N21" t="n">
-        <v>575.8867529744862</v>
+        <v>207.7042250142806</v>
       </c>
       <c r="O21" t="n">
-        <v>450.5529293854111</v>
+        <v>450.5529293854109</v>
       </c>
       <c r="P21" t="n">
-        <v>348.8012571917973</v>
+        <v>348.8012571917972</v>
       </c>
       <c r="Q21" t="n">
-        <v>188.5467346166492</v>
+        <v>188.5467346166491</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36261,7 +36261,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>0.780349660744284</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -36276,25 +36276,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0.7803496607436093</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>56.21059275338563</v>
+        <v>56.21059275338554</v>
       </c>
       <c r="L22" t="n">
-        <v>130.1173663006748</v>
+        <v>130.1173663006747</v>
       </c>
       <c r="M22" t="n">
-        <v>149.2283442696152</v>
+        <v>149.2283442696151</v>
       </c>
       <c r="N22" t="n">
-        <v>148.947156541461</v>
+        <v>148.9471565414609</v>
       </c>
       <c r="O22" t="n">
-        <v>126.5479651230254</v>
+        <v>126.5479651230253</v>
       </c>
       <c r="P22" t="n">
-        <v>86.7844783533296</v>
+        <v>86.78447835332952</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36443,16 +36443,16 @@
         <v>429.2617818172995</v>
       </c>
       <c r="M24" t="n">
-        <v>471.1573993373303</v>
+        <v>559.6520048332168</v>
       </c>
       <c r="N24" t="n">
-        <v>587.9945331624838</v>
+        <v>141.8090006013614</v>
       </c>
       <c r="O24" t="n">
         <v>461.6291828105668</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>357.6909270652361</v>
       </c>
       <c r="Q24" t="n">
         <v>194.489243505357</v>
@@ -36601,22 +36601,22 @@
         <v>535.5517751768944</v>
       </c>
       <c r="M26" t="n">
-        <v>507.5781240155769</v>
+        <v>590.509386881934</v>
       </c>
       <c r="N26" t="n">
-        <v>576.9121730757596</v>
+        <v>576.9121730757597</v>
       </c>
       <c r="O26" t="n">
-        <v>497.7309239353778</v>
+        <v>497.7309239353779</v>
       </c>
       <c r="P26" t="n">
-        <v>407.4108861918976</v>
+        <v>324.4796233255398</v>
       </c>
       <c r="Q26" t="n">
         <v>253.9180937840532</v>
       </c>
       <c r="R26" t="n">
-        <v>45.56908596426354</v>
+        <v>45.56908596426356</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,10 +36680,10 @@
         <v>429.2617818172995</v>
       </c>
       <c r="M27" t="n">
-        <v>113.4664722720941</v>
+        <v>113.4664722720939</v>
       </c>
       <c r="N27" t="n">
-        <v>587.9945331624838</v>
+        <v>587.9945331624839</v>
       </c>
       <c r="O27" t="n">
         <v>461.6291828105669</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>59.84906844769415</v>
+        <v>59.84906844769417</v>
       </c>
       <c r="K28" t="n">
         <v>163.7413357888019</v>
@@ -36771,7 +36771,7 @@
         <v>194.5011406887319</v>
       </c>
       <c r="Q28" t="n">
-        <v>84.1610613865396</v>
+        <v>84.16106138653961</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,22 +36829,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>219.3703648139574</v>
+        <v>219.3703648139575</v>
       </c>
       <c r="K29" t="n">
-        <v>410.9797637174248</v>
+        <v>328.0485008510669</v>
       </c>
       <c r="L29" t="n">
         <v>535.5517751768942</v>
       </c>
       <c r="M29" t="n">
-        <v>590.5093868819338</v>
+        <v>590.5093868819339</v>
       </c>
       <c r="N29" t="n">
         <v>576.9121730757596</v>
       </c>
       <c r="O29" t="n">
-        <v>414.7996610690209</v>
+        <v>497.7309239353778</v>
       </c>
       <c r="P29" t="n">
         <v>407.4108861918975</v>
@@ -36853,7 +36853,7 @@
         <v>253.9180937840531</v>
       </c>
       <c r="R29" t="n">
-        <v>45.56908596426351</v>
+        <v>45.56908596426353</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,10 +36908,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>86.859380983191</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>276.2409804911009</v>
       </c>
       <c r="L30" t="n">
         <v>429.2617818172995</v>
@@ -36920,7 +36920,7 @@
         <v>559.6520048332168</v>
       </c>
       <c r="N30" t="n">
-        <v>587.9945331624838</v>
+        <v>336.2982441067185</v>
       </c>
       <c r="O30" t="n">
         <v>461.6291828105668</v>
@@ -36929,7 +36929,7 @@
         <v>357.6909270652361</v>
       </c>
       <c r="Q30" t="n">
-        <v>111.4040724185267</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>59.84906844769414</v>
+        <v>59.84906844769415</v>
       </c>
       <c r="K31" t="n">
-        <v>163.7413357888018</v>
+        <v>163.7413357888019</v>
       </c>
       <c r="L31" t="n">
         <v>238.9161925004996</v>
@@ -37002,13 +37002,13 @@
         <v>257.9159356891738</v>
       </c>
       <c r="O31" t="n">
-        <v>235.060816216383</v>
+        <v>235.0608162163831</v>
       </c>
       <c r="P31" t="n">
         <v>194.5011406887319</v>
       </c>
       <c r="Q31" t="n">
-        <v>84.16106138653959</v>
+        <v>84.1610613865396</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>200.2204965075661</v>
+        <v>116.3740657743835</v>
       </c>
       <c r="K32" t="n">
         <v>307.9834646778509</v>
@@ -37075,22 +37075,22 @@
         <v>432.5554761373203</v>
       </c>
       <c r="M32" t="n">
-        <v>487.5130878423599</v>
+        <v>571.359518575541</v>
       </c>
       <c r="N32" t="n">
-        <v>608.9382040968499</v>
+        <v>473.9158740361856</v>
       </c>
       <c r="O32" t="n">
         <v>394.7346248958038</v>
       </c>
       <c r="P32" t="n">
-        <v>304.4145871523236</v>
+        <v>439.4369172129879</v>
       </c>
       <c r="Q32" t="n">
         <v>150.9217947444792</v>
       </c>
       <c r="R32" t="n">
-        <v>77.59511698535377</v>
+        <v>77.59511698535383</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>86.859380983191</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -37163,7 +37163,7 @@
         <v>461.6291828105668</v>
       </c>
       <c r="P33" t="n">
-        <v>187.7463749952147</v>
+        <v>274.6057559784056</v>
       </c>
       <c r="Q33" t="n">
         <v>194.489243505357</v>
@@ -37233,7 +37233,7 @@
         <v>270.9422235215898</v>
       </c>
       <c r="M34" t="n">
-        <v>155.3462955857584</v>
+        <v>259.4912627857882</v>
       </c>
       <c r="N34" t="n">
         <v>154.9196366495998</v>
@@ -37245,7 +37245,7 @@
         <v>91.50484164915794</v>
       </c>
       <c r="Q34" t="n">
-        <v>104.1449672000309</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>86.859380983191</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>276.2409804911009</v>
       </c>
       <c r="L36" t="n">
         <v>429.2617818172995</v>
@@ -37400,10 +37400,10 @@
         <v>461.6291828105668</v>
       </c>
       <c r="P36" t="n">
-        <v>187.7463749952147</v>
+        <v>105.9946380094704</v>
       </c>
       <c r="Q36" t="n">
-        <v>194.489243505357</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37561,7 +37561,7 @@
         <v>304.4145871523236</v>
       </c>
       <c r="Q38" t="n">
-        <v>150.9217947444825</v>
+        <v>150.9217947444792</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>276.2409804911009</v>
+        <v>111.4040724185267</v>
       </c>
       <c r="L39" t="n">
         <v>429.2617818172995</v>
@@ -37631,7 +37631,7 @@
         <v>559.6520048332168</v>
       </c>
       <c r="N39" t="n">
-        <v>228.6683815845525</v>
+        <v>587.9945331624838</v>
       </c>
       <c r="O39" t="n">
         <v>461.6291828105668</v>
@@ -37640,7 +37640,7 @@
         <v>357.6909270652361</v>
       </c>
       <c r="Q39" t="n">
-        <v>194.489243505357</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>86.859380983191</v>
       </c>
       <c r="K42" t="n">
-        <v>111.4040724185267</v>
+        <v>276.2409804911009</v>
       </c>
       <c r="L42" t="n">
         <v>429.2617818172995</v>
@@ -37874,7 +37874,7 @@
         <v>461.6291828105668</v>
       </c>
       <c r="P42" t="n">
-        <v>357.6909270652361</v>
+        <v>105.9946380094704</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38093,10 +38093,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>86.859380983191</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>276.2409804911009</v>
+        <v>111.4040724185267</v>
       </c>
       <c r="L45" t="n">
         <v>429.2617818172995</v>
@@ -38105,7 +38105,7 @@
         <v>559.6520048332168</v>
       </c>
       <c r="N45" t="n">
-        <v>141.8090006013614</v>
+        <v>587.9945331624838</v>
       </c>
       <c r="O45" t="n">
         <v>461.6291828105668</v>
@@ -38114,7 +38114,7 @@
         <v>357.6909270652361</v>
       </c>
       <c r="Q45" t="n">
-        <v>194.489243505357</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
